--- a/Project Management/MVP/MVP schedule.xlsx
+++ b/Project Management/MVP/MVP schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\company\client\iamtete\iamtete_document\Project Management\MVP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\iamtete_document\Project Management\MVP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FD55EAA-B8C9-4759-A0F1-4747E1D9EFCF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96F213CD-73F2-4CEC-8C96-5349233BA88D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Master Schedule" sheetId="1" r:id="rId1"/>
@@ -19,17 +19,26 @@
     <sheet name="APISpec-Activity" sheetId="3" r:id="rId4"/>
     <sheet name="Coding-Activity" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="108">
   <si>
     <t>SCOPE OF WORK</t>
   </si>
@@ -344,6 +353,15 @@
   </si>
   <si>
     <t>Done</t>
+  </si>
+  <si>
+    <t>Student</t>
+  </si>
+  <si>
+    <t>Dashboard</t>
+  </si>
+  <si>
+    <t>Mobile</t>
   </si>
 </sst>
 </file>
@@ -961,307 +979,307 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1763,581 +1781,581 @@
       <selection activeCell="AD34" sqref="AD34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="20" width="3.7109375" style="1" customWidth="1"/>
-    <col min="21" max="68" width="4.140625" style="1" customWidth="1"/>
-    <col min="69" max="82" width="3.7109375" style="1" customWidth="1"/>
-    <col min="83" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.1796875" style="1"/>
+    <col min="2" max="20" width="3.7265625" style="1" customWidth="1"/>
+    <col min="21" max="68" width="4.1796875" style="1" customWidth="1"/>
+    <col min="69" max="82" width="3.7265625" style="1" customWidth="1"/>
+    <col min="83" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:68" x14ac:dyDescent="0.25">
-      <c r="B2" s="51" t="s">
+    <row r="1" spans="2:68" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:68" x14ac:dyDescent="0.35">
+      <c r="B2" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="52"/>
-      <c r="R2" s="52"/>
-      <c r="S2" s="52"/>
-      <c r="T2" s="53"/>
-      <c r="U2" s="34" t="s">
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="39"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="39"/>
+      <c r="T2" s="40"/>
+      <c r="U2" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="V2" s="35"/>
-      <c r="W2" s="35"/>
-      <c r="X2" s="35"/>
-      <c r="Y2" s="35"/>
-      <c r="Z2" s="35"/>
-      <c r="AA2" s="35"/>
-      <c r="AB2" s="49"/>
-      <c r="AC2" s="34" t="s">
+      <c r="V2" s="118"/>
+      <c r="W2" s="118"/>
+      <c r="X2" s="118"/>
+      <c r="Y2" s="118"/>
+      <c r="Z2" s="118"/>
+      <c r="AA2" s="118"/>
+      <c r="AB2" s="119"/>
+      <c r="AC2" s="117" t="s">
         <v>2</v>
       </c>
-      <c r="AD2" s="35"/>
-      <c r="AE2" s="35"/>
-      <c r="AF2" s="35"/>
-      <c r="AG2" s="35"/>
-      <c r="AH2" s="35"/>
-      <c r="AI2" s="35"/>
-      <c r="AJ2" s="35"/>
-      <c r="AK2" s="35"/>
-      <c r="AL2" s="36"/>
-      <c r="AM2" s="34" t="s">
+      <c r="AD2" s="118"/>
+      <c r="AE2" s="118"/>
+      <c r="AF2" s="118"/>
+      <c r="AG2" s="118"/>
+      <c r="AH2" s="118"/>
+      <c r="AI2" s="118"/>
+      <c r="AJ2" s="118"/>
+      <c r="AK2" s="118"/>
+      <c r="AL2" s="123"/>
+      <c r="AM2" s="117" t="s">
         <v>24</v>
       </c>
-      <c r="AN2" s="35"/>
-      <c r="AO2" s="35"/>
-      <c r="AP2" s="35"/>
-      <c r="AQ2" s="35"/>
-      <c r="AR2" s="35"/>
-      <c r="AS2" s="35"/>
-      <c r="AT2" s="35"/>
-      <c r="AU2" s="35"/>
-      <c r="AV2" s="36"/>
-      <c r="AW2" s="34" t="s">
+      <c r="AN2" s="118"/>
+      <c r="AO2" s="118"/>
+      <c r="AP2" s="118"/>
+      <c r="AQ2" s="118"/>
+      <c r="AR2" s="118"/>
+      <c r="AS2" s="118"/>
+      <c r="AT2" s="118"/>
+      <c r="AU2" s="118"/>
+      <c r="AV2" s="123"/>
+      <c r="AW2" s="117" t="s">
         <v>25</v>
       </c>
-      <c r="AX2" s="35"/>
-      <c r="AY2" s="35"/>
-      <c r="AZ2" s="35"/>
-      <c r="BA2" s="35"/>
-      <c r="BB2" s="35"/>
-      <c r="BC2" s="35"/>
-      <c r="BD2" s="35"/>
-      <c r="BE2" s="35"/>
-      <c r="BF2" s="36"/>
-      <c r="BG2" s="34" t="s">
+      <c r="AX2" s="118"/>
+      <c r="AY2" s="118"/>
+      <c r="AZ2" s="118"/>
+      <c r="BA2" s="118"/>
+      <c r="BB2" s="118"/>
+      <c r="BC2" s="118"/>
+      <c r="BD2" s="118"/>
+      <c r="BE2" s="118"/>
+      <c r="BF2" s="123"/>
+      <c r="BG2" s="117" t="s">
         <v>26</v>
       </c>
-      <c r="BH2" s="35"/>
-      <c r="BI2" s="35"/>
-      <c r="BJ2" s="35"/>
-      <c r="BK2" s="35"/>
-      <c r="BL2" s="35"/>
-      <c r="BM2" s="35"/>
-      <c r="BN2" s="35"/>
-      <c r="BO2" s="35"/>
-      <c r="BP2" s="36"/>
-    </row>
-    <row r="3" spans="2:68" x14ac:dyDescent="0.25">
-      <c r="B3" s="54"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="55"/>
-      <c r="N3" s="55"/>
-      <c r="O3" s="55"/>
-      <c r="P3" s="55"/>
-      <c r="Q3" s="55"/>
-      <c r="R3" s="55"/>
-      <c r="S3" s="55"/>
-      <c r="T3" s="56"/>
-      <c r="U3" s="37"/>
-      <c r="V3" s="38"/>
-      <c r="W3" s="38"/>
-      <c r="X3" s="38"/>
-      <c r="Y3" s="38"/>
-      <c r="Z3" s="38"/>
-      <c r="AA3" s="38"/>
-      <c r="AB3" s="50"/>
-      <c r="AC3" s="37"/>
-      <c r="AD3" s="38"/>
-      <c r="AE3" s="38"/>
-      <c r="AF3" s="38"/>
-      <c r="AG3" s="38"/>
-      <c r="AH3" s="38"/>
-      <c r="AI3" s="38"/>
-      <c r="AJ3" s="38"/>
-      <c r="AK3" s="38"/>
-      <c r="AL3" s="39"/>
-      <c r="AM3" s="37"/>
-      <c r="AN3" s="38"/>
-      <c r="AO3" s="38"/>
-      <c r="AP3" s="38"/>
-      <c r="AQ3" s="38"/>
-      <c r="AR3" s="38"/>
-      <c r="AS3" s="38"/>
-      <c r="AT3" s="38"/>
-      <c r="AU3" s="38"/>
-      <c r="AV3" s="39"/>
-      <c r="AW3" s="37"/>
-      <c r="AX3" s="38"/>
-      <c r="AY3" s="38"/>
-      <c r="AZ3" s="38"/>
-      <c r="BA3" s="38"/>
-      <c r="BB3" s="38"/>
-      <c r="BC3" s="38"/>
-      <c r="BD3" s="38"/>
-      <c r="BE3" s="38"/>
-      <c r="BF3" s="39"/>
-      <c r="BG3" s="37"/>
-      <c r="BH3" s="38"/>
-      <c r="BI3" s="38"/>
-      <c r="BJ3" s="38"/>
-      <c r="BK3" s="38"/>
-      <c r="BL3" s="38"/>
-      <c r="BM3" s="38"/>
-      <c r="BN3" s="38"/>
-      <c r="BO3" s="38"/>
-      <c r="BP3" s="39"/>
-    </row>
-    <row r="4" spans="2:68" x14ac:dyDescent="0.25">
-      <c r="B4" s="54"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="55"/>
-      <c r="N4" s="55"/>
-      <c r="O4" s="55"/>
-      <c r="P4" s="55"/>
-      <c r="Q4" s="55"/>
-      <c r="R4" s="55"/>
-      <c r="S4" s="55"/>
-      <c r="T4" s="56"/>
-      <c r="U4" s="40" t="s">
+      <c r="BH2" s="118"/>
+      <c r="BI2" s="118"/>
+      <c r="BJ2" s="118"/>
+      <c r="BK2" s="118"/>
+      <c r="BL2" s="118"/>
+      <c r="BM2" s="118"/>
+      <c r="BN2" s="118"/>
+      <c r="BO2" s="118"/>
+      <c r="BP2" s="123"/>
+    </row>
+    <row r="3" spans="2:68" x14ac:dyDescent="0.35">
+      <c r="B3" s="41"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="42"/>
+      <c r="R3" s="42"/>
+      <c r="S3" s="42"/>
+      <c r="T3" s="43"/>
+      <c r="U3" s="120"/>
+      <c r="V3" s="121"/>
+      <c r="W3" s="121"/>
+      <c r="X3" s="121"/>
+      <c r="Y3" s="121"/>
+      <c r="Z3" s="121"/>
+      <c r="AA3" s="121"/>
+      <c r="AB3" s="122"/>
+      <c r="AC3" s="120"/>
+      <c r="AD3" s="121"/>
+      <c r="AE3" s="121"/>
+      <c r="AF3" s="121"/>
+      <c r="AG3" s="121"/>
+      <c r="AH3" s="121"/>
+      <c r="AI3" s="121"/>
+      <c r="AJ3" s="121"/>
+      <c r="AK3" s="121"/>
+      <c r="AL3" s="124"/>
+      <c r="AM3" s="120"/>
+      <c r="AN3" s="121"/>
+      <c r="AO3" s="121"/>
+      <c r="AP3" s="121"/>
+      <c r="AQ3" s="121"/>
+      <c r="AR3" s="121"/>
+      <c r="AS3" s="121"/>
+      <c r="AT3" s="121"/>
+      <c r="AU3" s="121"/>
+      <c r="AV3" s="124"/>
+      <c r="AW3" s="120"/>
+      <c r="AX3" s="121"/>
+      <c r="AY3" s="121"/>
+      <c r="AZ3" s="121"/>
+      <c r="BA3" s="121"/>
+      <c r="BB3" s="121"/>
+      <c r="BC3" s="121"/>
+      <c r="BD3" s="121"/>
+      <c r="BE3" s="121"/>
+      <c r="BF3" s="124"/>
+      <c r="BG3" s="120"/>
+      <c r="BH3" s="121"/>
+      <c r="BI3" s="121"/>
+      <c r="BJ3" s="121"/>
+      <c r="BK3" s="121"/>
+      <c r="BL3" s="121"/>
+      <c r="BM3" s="121"/>
+      <c r="BN3" s="121"/>
+      <c r="BO3" s="121"/>
+      <c r="BP3" s="124"/>
+    </row>
+    <row r="4" spans="2:68" x14ac:dyDescent="0.35">
+      <c r="B4" s="41"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="42"/>
+      <c r="R4" s="42"/>
+      <c r="S4" s="42"/>
+      <c r="T4" s="43"/>
+      <c r="U4" s="125" t="s">
         <v>4</v>
       </c>
-      <c r="V4" s="41"/>
-      <c r="W4" s="40" t="s">
+      <c r="V4" s="131"/>
+      <c r="W4" s="125" t="s">
         <v>5</v>
       </c>
-      <c r="X4" s="41"/>
-      <c r="Y4" s="40" t="s">
+      <c r="X4" s="131"/>
+      <c r="Y4" s="125" t="s">
         <v>6</v>
       </c>
-      <c r="Z4" s="41"/>
-      <c r="AA4" s="40" t="s">
+      <c r="Z4" s="131"/>
+      <c r="AA4" s="125" t="s">
         <v>7</v>
       </c>
-      <c r="AB4" s="41"/>
-      <c r="AC4" s="40" t="s">
+      <c r="AB4" s="131"/>
+      <c r="AC4" s="125" t="s">
         <v>27</v>
       </c>
-      <c r="AD4" s="41"/>
-      <c r="AE4" s="40" t="s">
+      <c r="AD4" s="131"/>
+      <c r="AE4" s="125" t="s">
         <v>8</v>
       </c>
-      <c r="AF4" s="41"/>
-      <c r="AG4" s="40" t="s">
+      <c r="AF4" s="131"/>
+      <c r="AG4" s="125" t="s">
         <v>9</v>
       </c>
-      <c r="AH4" s="41"/>
-      <c r="AI4" s="40" t="s">
+      <c r="AH4" s="131"/>
+      <c r="AI4" s="125" t="s">
         <v>10</v>
       </c>
-      <c r="AJ4" s="41"/>
-      <c r="AK4" s="40" t="s">
+      <c r="AJ4" s="131"/>
+      <c r="AK4" s="125" t="s">
         <v>11</v>
       </c>
-      <c r="AL4" s="46"/>
-      <c r="AM4" s="40" t="s">
+      <c r="AL4" s="126"/>
+      <c r="AM4" s="125" t="s">
         <v>3</v>
       </c>
-      <c r="AN4" s="41"/>
-      <c r="AO4" s="40" t="s">
+      <c r="AN4" s="131"/>
+      <c r="AO4" s="125" t="s">
         <v>8</v>
       </c>
-      <c r="AP4" s="41"/>
-      <c r="AQ4" s="40" t="s">
+      <c r="AP4" s="131"/>
+      <c r="AQ4" s="125" t="s">
         <v>9</v>
       </c>
-      <c r="AR4" s="41"/>
-      <c r="AS4" s="40" t="s">
+      <c r="AR4" s="131"/>
+      <c r="AS4" s="125" t="s">
         <v>10</v>
       </c>
-      <c r="AT4" s="41"/>
-      <c r="AU4" s="40" t="s">
+      <c r="AT4" s="131"/>
+      <c r="AU4" s="125" t="s">
         <v>11</v>
       </c>
-      <c r="AV4" s="46"/>
-      <c r="AW4" s="40" t="s">
+      <c r="AV4" s="126"/>
+      <c r="AW4" s="125" t="s">
         <v>3</v>
       </c>
-      <c r="AX4" s="41"/>
-      <c r="AY4" s="40" t="s">
+      <c r="AX4" s="131"/>
+      <c r="AY4" s="125" t="s">
         <v>8</v>
       </c>
-      <c r="AZ4" s="41"/>
-      <c r="BA4" s="40" t="s">
+      <c r="AZ4" s="131"/>
+      <c r="BA4" s="125" t="s">
         <v>9</v>
       </c>
-      <c r="BB4" s="41"/>
-      <c r="BC4" s="40" t="s">
+      <c r="BB4" s="131"/>
+      <c r="BC4" s="125" t="s">
         <v>10</v>
       </c>
-      <c r="BD4" s="41"/>
-      <c r="BE4" s="40" t="s">
+      <c r="BD4" s="131"/>
+      <c r="BE4" s="125" t="s">
         <v>11</v>
       </c>
-      <c r="BF4" s="46"/>
-      <c r="BG4" s="40" t="s">
+      <c r="BF4" s="126"/>
+      <c r="BG4" s="125" t="s">
         <v>3</v>
       </c>
-      <c r="BH4" s="41"/>
-      <c r="BI4" s="40" t="s">
+      <c r="BH4" s="131"/>
+      <c r="BI4" s="125" t="s">
         <v>8</v>
       </c>
-      <c r="BJ4" s="41"/>
-      <c r="BK4" s="40" t="s">
+      <c r="BJ4" s="131"/>
+      <c r="BK4" s="125" t="s">
         <v>9</v>
       </c>
-      <c r="BL4" s="41"/>
-      <c r="BM4" s="40" t="s">
+      <c r="BL4" s="131"/>
+      <c r="BM4" s="125" t="s">
         <v>10</v>
       </c>
-      <c r="BN4" s="41"/>
-      <c r="BO4" s="40" t="s">
+      <c r="BN4" s="131"/>
+      <c r="BO4" s="125" t="s">
         <v>11</v>
       </c>
-      <c r="BP4" s="46"/>
-    </row>
-    <row r="5" spans="2:68" x14ac:dyDescent="0.25">
-      <c r="B5" s="54"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="55"/>
-      <c r="M5" s="55"/>
-      <c r="N5" s="55"/>
-      <c r="O5" s="55"/>
-      <c r="P5" s="55"/>
-      <c r="Q5" s="55"/>
-      <c r="R5" s="55"/>
-      <c r="S5" s="55"/>
-      <c r="T5" s="56"/>
-      <c r="U5" s="42"/>
-      <c r="V5" s="43"/>
-      <c r="W5" s="42"/>
-      <c r="X5" s="43"/>
-      <c r="Y5" s="42"/>
-      <c r="Z5" s="43"/>
-      <c r="AA5" s="42"/>
-      <c r="AB5" s="43"/>
-      <c r="AC5" s="42"/>
-      <c r="AD5" s="43"/>
-      <c r="AE5" s="42"/>
-      <c r="AF5" s="43"/>
-      <c r="AG5" s="42"/>
-      <c r="AH5" s="43"/>
-      <c r="AI5" s="42"/>
-      <c r="AJ5" s="43"/>
-      <c r="AK5" s="42"/>
-      <c r="AL5" s="47"/>
-      <c r="AM5" s="42"/>
-      <c r="AN5" s="43"/>
-      <c r="AO5" s="42"/>
-      <c r="AP5" s="43"/>
-      <c r="AQ5" s="42"/>
-      <c r="AR5" s="43"/>
-      <c r="AS5" s="42"/>
-      <c r="AT5" s="43"/>
-      <c r="AU5" s="42"/>
-      <c r="AV5" s="47"/>
-      <c r="AW5" s="42"/>
-      <c r="AX5" s="43"/>
-      <c r="AY5" s="42"/>
-      <c r="AZ5" s="43"/>
-      <c r="BA5" s="42"/>
-      <c r="BB5" s="43"/>
-      <c r="BC5" s="42"/>
-      <c r="BD5" s="43"/>
-      <c r="BE5" s="42"/>
-      <c r="BF5" s="47"/>
-      <c r="BG5" s="42"/>
-      <c r="BH5" s="43"/>
-      <c r="BI5" s="42"/>
-      <c r="BJ5" s="43"/>
-      <c r="BK5" s="42"/>
-      <c r="BL5" s="43"/>
-      <c r="BM5" s="42"/>
-      <c r="BN5" s="43"/>
-      <c r="BO5" s="42"/>
-      <c r="BP5" s="47"/>
-    </row>
-    <row r="6" spans="2:68" x14ac:dyDescent="0.25">
-      <c r="B6" s="54"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="55"/>
-      <c r="M6" s="55"/>
-      <c r="N6" s="55"/>
-      <c r="O6" s="55"/>
-      <c r="P6" s="55"/>
-      <c r="Q6" s="55"/>
-      <c r="R6" s="55"/>
-      <c r="S6" s="55"/>
-      <c r="T6" s="56"/>
-      <c r="U6" s="42"/>
-      <c r="V6" s="43"/>
-      <c r="W6" s="42"/>
-      <c r="X6" s="43"/>
-      <c r="Y6" s="42"/>
-      <c r="Z6" s="43"/>
-      <c r="AA6" s="42"/>
-      <c r="AB6" s="43"/>
-      <c r="AC6" s="42"/>
-      <c r="AD6" s="43"/>
-      <c r="AE6" s="42"/>
-      <c r="AF6" s="43"/>
-      <c r="AG6" s="42"/>
-      <c r="AH6" s="43"/>
-      <c r="AI6" s="42"/>
-      <c r="AJ6" s="43"/>
-      <c r="AK6" s="42"/>
-      <c r="AL6" s="47"/>
-      <c r="AM6" s="42"/>
-      <c r="AN6" s="43"/>
-      <c r="AO6" s="42"/>
-      <c r="AP6" s="43"/>
-      <c r="AQ6" s="42"/>
-      <c r="AR6" s="43"/>
-      <c r="AS6" s="42"/>
-      <c r="AT6" s="43"/>
-      <c r="AU6" s="42"/>
-      <c r="AV6" s="47"/>
-      <c r="AW6" s="42"/>
-      <c r="AX6" s="43"/>
-      <c r="AY6" s="42"/>
-      <c r="AZ6" s="43"/>
-      <c r="BA6" s="42"/>
-      <c r="BB6" s="43"/>
-      <c r="BC6" s="42"/>
-      <c r="BD6" s="43"/>
-      <c r="BE6" s="42"/>
-      <c r="BF6" s="47"/>
-      <c r="BG6" s="42"/>
-      <c r="BH6" s="43"/>
-      <c r="BI6" s="42"/>
-      <c r="BJ6" s="43"/>
-      <c r="BK6" s="42"/>
-      <c r="BL6" s="43"/>
-      <c r="BM6" s="42"/>
-      <c r="BN6" s="43"/>
-      <c r="BO6" s="42"/>
-      <c r="BP6" s="47"/>
-    </row>
-    <row r="7" spans="2:68" x14ac:dyDescent="0.25">
-      <c r="B7" s="54"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
-      <c r="K7" s="55"/>
-      <c r="L7" s="55"/>
-      <c r="M7" s="55"/>
-      <c r="N7" s="55"/>
-      <c r="O7" s="55"/>
-      <c r="P7" s="55"/>
-      <c r="Q7" s="55"/>
-      <c r="R7" s="55"/>
-      <c r="S7" s="55"/>
-      <c r="T7" s="56"/>
-      <c r="U7" s="42"/>
-      <c r="V7" s="43"/>
-      <c r="W7" s="42"/>
-      <c r="X7" s="43"/>
-      <c r="Y7" s="42"/>
-      <c r="Z7" s="43"/>
-      <c r="AA7" s="42"/>
-      <c r="AB7" s="43"/>
-      <c r="AC7" s="42"/>
-      <c r="AD7" s="43"/>
-      <c r="AE7" s="42"/>
-      <c r="AF7" s="43"/>
-      <c r="AG7" s="42"/>
-      <c r="AH7" s="43"/>
-      <c r="AI7" s="42"/>
-      <c r="AJ7" s="43"/>
-      <c r="AK7" s="42"/>
-      <c r="AL7" s="47"/>
-      <c r="AM7" s="42"/>
-      <c r="AN7" s="43"/>
-      <c r="AO7" s="42"/>
-      <c r="AP7" s="43"/>
-      <c r="AQ7" s="42"/>
-      <c r="AR7" s="43"/>
-      <c r="AS7" s="42"/>
-      <c r="AT7" s="43"/>
-      <c r="AU7" s="42"/>
-      <c r="AV7" s="47"/>
-      <c r="AW7" s="42"/>
-      <c r="AX7" s="43"/>
-      <c r="AY7" s="42"/>
-      <c r="AZ7" s="43"/>
-      <c r="BA7" s="42"/>
-      <c r="BB7" s="43"/>
-      <c r="BC7" s="42"/>
-      <c r="BD7" s="43"/>
-      <c r="BE7" s="42"/>
-      <c r="BF7" s="47"/>
-      <c r="BG7" s="42"/>
-      <c r="BH7" s="43"/>
-      <c r="BI7" s="42"/>
-      <c r="BJ7" s="43"/>
-      <c r="BK7" s="42"/>
-      <c r="BL7" s="43"/>
-      <c r="BM7" s="42"/>
-      <c r="BN7" s="43"/>
-      <c r="BO7" s="42"/>
-      <c r="BP7" s="47"/>
-    </row>
-    <row r="8" spans="2:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="57"/>
-      <c r="C8" s="58"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="58"/>
-      <c r="H8" s="58"/>
-      <c r="I8" s="58"/>
-      <c r="J8" s="58"/>
-      <c r="K8" s="58"/>
-      <c r="L8" s="58"/>
-      <c r="M8" s="58"/>
-      <c r="N8" s="58"/>
-      <c r="O8" s="58"/>
-      <c r="P8" s="58"/>
-      <c r="Q8" s="58"/>
-      <c r="R8" s="58"/>
-      <c r="S8" s="58"/>
-      <c r="T8" s="59"/>
-      <c r="U8" s="44"/>
-      <c r="V8" s="45"/>
-      <c r="W8" s="44"/>
-      <c r="X8" s="45"/>
-      <c r="Y8" s="44"/>
-      <c r="Z8" s="45"/>
-      <c r="AA8" s="44"/>
-      <c r="AB8" s="45"/>
-      <c r="AC8" s="44"/>
-      <c r="AD8" s="45"/>
-      <c r="AE8" s="44"/>
-      <c r="AF8" s="45"/>
-      <c r="AG8" s="44"/>
-      <c r="AH8" s="45"/>
-      <c r="AI8" s="44"/>
-      <c r="AJ8" s="45"/>
-      <c r="AK8" s="44"/>
-      <c r="AL8" s="48"/>
-      <c r="AM8" s="44"/>
-      <c r="AN8" s="45"/>
-      <c r="AO8" s="44"/>
-      <c r="AP8" s="45"/>
-      <c r="AQ8" s="44"/>
-      <c r="AR8" s="45"/>
-      <c r="AS8" s="44"/>
-      <c r="AT8" s="45"/>
-      <c r="AU8" s="44"/>
-      <c r="AV8" s="48"/>
-      <c r="AW8" s="44"/>
-      <c r="AX8" s="45"/>
-      <c r="AY8" s="44"/>
-      <c r="AZ8" s="45"/>
-      <c r="BA8" s="44"/>
-      <c r="BB8" s="45"/>
-      <c r="BC8" s="44"/>
-      <c r="BD8" s="45"/>
-      <c r="BE8" s="44"/>
-      <c r="BF8" s="48"/>
-      <c r="BG8" s="44"/>
-      <c r="BH8" s="45"/>
-      <c r="BI8" s="44"/>
-      <c r="BJ8" s="45"/>
-      <c r="BK8" s="44"/>
-      <c r="BL8" s="45"/>
-      <c r="BM8" s="44"/>
-      <c r="BN8" s="45"/>
-      <c r="BO8" s="44"/>
-      <c r="BP8" s="48"/>
-    </row>
-    <row r="9" spans="2:68" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="60" t="s">
+      <c r="BP4" s="126"/>
+    </row>
+    <row r="5" spans="2:68" x14ac:dyDescent="0.35">
+      <c r="B5" s="41"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="42"/>
+      <c r="P5" s="42"/>
+      <c r="Q5" s="42"/>
+      <c r="R5" s="42"/>
+      <c r="S5" s="42"/>
+      <c r="T5" s="43"/>
+      <c r="U5" s="127"/>
+      <c r="V5" s="132"/>
+      <c r="W5" s="127"/>
+      <c r="X5" s="132"/>
+      <c r="Y5" s="127"/>
+      <c r="Z5" s="132"/>
+      <c r="AA5" s="127"/>
+      <c r="AB5" s="132"/>
+      <c r="AC5" s="127"/>
+      <c r="AD5" s="132"/>
+      <c r="AE5" s="127"/>
+      <c r="AF5" s="132"/>
+      <c r="AG5" s="127"/>
+      <c r="AH5" s="132"/>
+      <c r="AI5" s="127"/>
+      <c r="AJ5" s="132"/>
+      <c r="AK5" s="127"/>
+      <c r="AL5" s="128"/>
+      <c r="AM5" s="127"/>
+      <c r="AN5" s="132"/>
+      <c r="AO5" s="127"/>
+      <c r="AP5" s="132"/>
+      <c r="AQ5" s="127"/>
+      <c r="AR5" s="132"/>
+      <c r="AS5" s="127"/>
+      <c r="AT5" s="132"/>
+      <c r="AU5" s="127"/>
+      <c r="AV5" s="128"/>
+      <c r="AW5" s="127"/>
+      <c r="AX5" s="132"/>
+      <c r="AY5" s="127"/>
+      <c r="AZ5" s="132"/>
+      <c r="BA5" s="127"/>
+      <c r="BB5" s="132"/>
+      <c r="BC5" s="127"/>
+      <c r="BD5" s="132"/>
+      <c r="BE5" s="127"/>
+      <c r="BF5" s="128"/>
+      <c r="BG5" s="127"/>
+      <c r="BH5" s="132"/>
+      <c r="BI5" s="127"/>
+      <c r="BJ5" s="132"/>
+      <c r="BK5" s="127"/>
+      <c r="BL5" s="132"/>
+      <c r="BM5" s="127"/>
+      <c r="BN5" s="132"/>
+      <c r="BO5" s="127"/>
+      <c r="BP5" s="128"/>
+    </row>
+    <row r="6" spans="2:68" x14ac:dyDescent="0.35">
+      <c r="B6" s="41"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="42"/>
+      <c r="P6" s="42"/>
+      <c r="Q6" s="42"/>
+      <c r="R6" s="42"/>
+      <c r="S6" s="42"/>
+      <c r="T6" s="43"/>
+      <c r="U6" s="127"/>
+      <c r="V6" s="132"/>
+      <c r="W6" s="127"/>
+      <c r="X6" s="132"/>
+      <c r="Y6" s="127"/>
+      <c r="Z6" s="132"/>
+      <c r="AA6" s="127"/>
+      <c r="AB6" s="132"/>
+      <c r="AC6" s="127"/>
+      <c r="AD6" s="132"/>
+      <c r="AE6" s="127"/>
+      <c r="AF6" s="132"/>
+      <c r="AG6" s="127"/>
+      <c r="AH6" s="132"/>
+      <c r="AI6" s="127"/>
+      <c r="AJ6" s="132"/>
+      <c r="AK6" s="127"/>
+      <c r="AL6" s="128"/>
+      <c r="AM6" s="127"/>
+      <c r="AN6" s="132"/>
+      <c r="AO6" s="127"/>
+      <c r="AP6" s="132"/>
+      <c r="AQ6" s="127"/>
+      <c r="AR6" s="132"/>
+      <c r="AS6" s="127"/>
+      <c r="AT6" s="132"/>
+      <c r="AU6" s="127"/>
+      <c r="AV6" s="128"/>
+      <c r="AW6" s="127"/>
+      <c r="AX6" s="132"/>
+      <c r="AY6" s="127"/>
+      <c r="AZ6" s="132"/>
+      <c r="BA6" s="127"/>
+      <c r="BB6" s="132"/>
+      <c r="BC6" s="127"/>
+      <c r="BD6" s="132"/>
+      <c r="BE6" s="127"/>
+      <c r="BF6" s="128"/>
+      <c r="BG6" s="127"/>
+      <c r="BH6" s="132"/>
+      <c r="BI6" s="127"/>
+      <c r="BJ6" s="132"/>
+      <c r="BK6" s="127"/>
+      <c r="BL6" s="132"/>
+      <c r="BM6" s="127"/>
+      <c r="BN6" s="132"/>
+      <c r="BO6" s="127"/>
+      <c r="BP6" s="128"/>
+    </row>
+    <row r="7" spans="2:68" x14ac:dyDescent="0.35">
+      <c r="B7" s="41"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="42"/>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="42"/>
+      <c r="R7" s="42"/>
+      <c r="S7" s="42"/>
+      <c r="T7" s="43"/>
+      <c r="U7" s="127"/>
+      <c r="V7" s="132"/>
+      <c r="W7" s="127"/>
+      <c r="X7" s="132"/>
+      <c r="Y7" s="127"/>
+      <c r="Z7" s="132"/>
+      <c r="AA7" s="127"/>
+      <c r="AB7" s="132"/>
+      <c r="AC7" s="127"/>
+      <c r="AD7" s="132"/>
+      <c r="AE7" s="127"/>
+      <c r="AF7" s="132"/>
+      <c r="AG7" s="127"/>
+      <c r="AH7" s="132"/>
+      <c r="AI7" s="127"/>
+      <c r="AJ7" s="132"/>
+      <c r="AK7" s="127"/>
+      <c r="AL7" s="128"/>
+      <c r="AM7" s="127"/>
+      <c r="AN7" s="132"/>
+      <c r="AO7" s="127"/>
+      <c r="AP7" s="132"/>
+      <c r="AQ7" s="127"/>
+      <c r="AR7" s="132"/>
+      <c r="AS7" s="127"/>
+      <c r="AT7" s="132"/>
+      <c r="AU7" s="127"/>
+      <c r="AV7" s="128"/>
+      <c r="AW7" s="127"/>
+      <c r="AX7" s="132"/>
+      <c r="AY7" s="127"/>
+      <c r="AZ7" s="132"/>
+      <c r="BA7" s="127"/>
+      <c r="BB7" s="132"/>
+      <c r="BC7" s="127"/>
+      <c r="BD7" s="132"/>
+      <c r="BE7" s="127"/>
+      <c r="BF7" s="128"/>
+      <c r="BG7" s="127"/>
+      <c r="BH7" s="132"/>
+      <c r="BI7" s="127"/>
+      <c r="BJ7" s="132"/>
+      <c r="BK7" s="127"/>
+      <c r="BL7" s="132"/>
+      <c r="BM7" s="127"/>
+      <c r="BN7" s="132"/>
+      <c r="BO7" s="127"/>
+      <c r="BP7" s="128"/>
+    </row>
+    <row r="8" spans="2:68" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="44"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="45"/>
+      <c r="O8" s="45"/>
+      <c r="P8" s="45"/>
+      <c r="Q8" s="45"/>
+      <c r="R8" s="45"/>
+      <c r="S8" s="45"/>
+      <c r="T8" s="46"/>
+      <c r="U8" s="129"/>
+      <c r="V8" s="133"/>
+      <c r="W8" s="129"/>
+      <c r="X8" s="133"/>
+      <c r="Y8" s="129"/>
+      <c r="Z8" s="133"/>
+      <c r="AA8" s="129"/>
+      <c r="AB8" s="133"/>
+      <c r="AC8" s="129"/>
+      <c r="AD8" s="133"/>
+      <c r="AE8" s="129"/>
+      <c r="AF8" s="133"/>
+      <c r="AG8" s="129"/>
+      <c r="AH8" s="133"/>
+      <c r="AI8" s="129"/>
+      <c r="AJ8" s="133"/>
+      <c r="AK8" s="129"/>
+      <c r="AL8" s="130"/>
+      <c r="AM8" s="129"/>
+      <c r="AN8" s="133"/>
+      <c r="AO8" s="129"/>
+      <c r="AP8" s="133"/>
+      <c r="AQ8" s="129"/>
+      <c r="AR8" s="133"/>
+      <c r="AS8" s="129"/>
+      <c r="AT8" s="133"/>
+      <c r="AU8" s="129"/>
+      <c r="AV8" s="130"/>
+      <c r="AW8" s="129"/>
+      <c r="AX8" s="133"/>
+      <c r="AY8" s="129"/>
+      <c r="AZ8" s="133"/>
+      <c r="BA8" s="129"/>
+      <c r="BB8" s="133"/>
+      <c r="BC8" s="129"/>
+      <c r="BD8" s="133"/>
+      <c r="BE8" s="129"/>
+      <c r="BF8" s="130"/>
+      <c r="BG8" s="129"/>
+      <c r="BH8" s="133"/>
+      <c r="BI8" s="129"/>
+      <c r="BJ8" s="133"/>
+      <c r="BK8" s="129"/>
+      <c r="BL8" s="133"/>
+      <c r="BM8" s="129"/>
+      <c r="BN8" s="133"/>
+      <c r="BO8" s="129"/>
+      <c r="BP8" s="130"/>
+    </row>
+    <row r="9" spans="2:68" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="61"/>
-      <c r="K9" s="61"/>
-      <c r="L9" s="61"/>
-      <c r="M9" s="61"/>
-      <c r="N9" s="61"/>
-      <c r="O9" s="61"/>
-      <c r="P9" s="61"/>
-      <c r="Q9" s="61"/>
-      <c r="R9" s="61"/>
-      <c r="S9" s="61"/>
-      <c r="T9" s="62"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="48"/>
+      <c r="M9" s="48"/>
+      <c r="N9" s="48"/>
+      <c r="O9" s="48"/>
+      <c r="P9" s="48"/>
+      <c r="Q9" s="48"/>
+      <c r="R9" s="48"/>
+      <c r="S9" s="48"/>
+      <c r="T9" s="49"/>
       <c r="U9" s="6"/>
       <c r="V9" s="6"/>
       <c r="W9" s="6"/>
@@ -2387,26 +2405,26 @@
       <c r="BO9" s="6"/>
       <c r="BP9" s="7"/>
     </row>
-    <row r="10" spans="2:68" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="63"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="64"/>
-      <c r="J10" s="64"/>
-      <c r="K10" s="64"/>
-      <c r="L10" s="64"/>
-      <c r="M10" s="64"/>
-      <c r="N10" s="64"/>
-      <c r="O10" s="64"/>
-      <c r="P10" s="64"/>
-      <c r="Q10" s="64"/>
-      <c r="R10" s="64"/>
-      <c r="S10" s="64"/>
-      <c r="T10" s="65"/>
+    <row r="10" spans="2:68" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="50"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="51"/>
+      <c r="M10" s="51"/>
+      <c r="N10" s="51"/>
+      <c r="O10" s="51"/>
+      <c r="P10" s="51"/>
+      <c r="Q10" s="51"/>
+      <c r="R10" s="51"/>
+      <c r="S10" s="51"/>
+      <c r="T10" s="52"/>
       <c r="U10" s="2"/>
       <c r="V10" s="2"/>
       <c r="W10" s="2"/>
@@ -2456,32 +2474,32 @@
       <c r="BO10" s="2"/>
       <c r="BP10" s="3"/>
     </row>
-    <row r="11" spans="2:68" x14ac:dyDescent="0.25">
-      <c r="B11" s="121" t="s">
+    <row r="11" spans="2:68" x14ac:dyDescent="0.35">
+      <c r="B11" s="108" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="122"/>
-      <c r="D11" s="122"/>
-      <c r="E11" s="122"/>
-      <c r="F11" s="122"/>
-      <c r="G11" s="122"/>
-      <c r="H11" s="122"/>
-      <c r="I11" s="123"/>
-      <c r="J11" s="76" t="s">
+      <c r="C11" s="109"/>
+      <c r="D11" s="109"/>
+      <c r="E11" s="109"/>
+      <c r="F11" s="109"/>
+      <c r="G11" s="109"/>
+      <c r="H11" s="109"/>
+      <c r="I11" s="110"/>
+      <c r="J11" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="K11" s="77"/>
-      <c r="L11" s="77"/>
-      <c r="M11" s="78"/>
-      <c r="N11" s="85" t="s">
+      <c r="K11" s="64"/>
+      <c r="L11" s="64"/>
+      <c r="M11" s="65"/>
+      <c r="N11" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="O11" s="86"/>
-      <c r="P11" s="86"/>
-      <c r="Q11" s="86"/>
-      <c r="R11" s="86"/>
-      <c r="S11" s="86"/>
-      <c r="T11" s="87"/>
+      <c r="O11" s="73"/>
+      <c r="P11" s="73"/>
+      <c r="Q11" s="73"/>
+      <c r="R11" s="73"/>
+      <c r="S11" s="73"/>
+      <c r="T11" s="74"/>
       <c r="U11" s="2"/>
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
@@ -2531,26 +2549,26 @@
       <c r="BO11" s="2"/>
       <c r="BP11" s="3"/>
     </row>
-    <row r="12" spans="2:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="124"/>
-      <c r="C12" s="125"/>
-      <c r="D12" s="125"/>
-      <c r="E12" s="125"/>
-      <c r="F12" s="125"/>
-      <c r="G12" s="125"/>
-      <c r="H12" s="125"/>
-      <c r="I12" s="126"/>
-      <c r="J12" s="79"/>
-      <c r="K12" s="80"/>
-      <c r="L12" s="80"/>
-      <c r="M12" s="81"/>
-      <c r="N12" s="88"/>
-      <c r="O12" s="89"/>
-      <c r="P12" s="89"/>
-      <c r="Q12" s="89"/>
-      <c r="R12" s="89"/>
-      <c r="S12" s="89"/>
-      <c r="T12" s="90"/>
+    <row r="12" spans="2:68" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="111"/>
+      <c r="C12" s="112"/>
+      <c r="D12" s="112"/>
+      <c r="E12" s="112"/>
+      <c r="F12" s="112"/>
+      <c r="G12" s="112"/>
+      <c r="H12" s="112"/>
+      <c r="I12" s="113"/>
+      <c r="J12" s="66"/>
+      <c r="K12" s="67"/>
+      <c r="L12" s="67"/>
+      <c r="M12" s="68"/>
+      <c r="N12" s="75"/>
+      <c r="O12" s="76"/>
+      <c r="P12" s="76"/>
+      <c r="Q12" s="76"/>
+      <c r="R12" s="76"/>
+      <c r="S12" s="76"/>
+      <c r="T12" s="77"/>
       <c r="U12" s="2"/>
       <c r="V12" s="2"/>
       <c r="W12" s="2"/>
@@ -2600,28 +2618,28 @@
       <c r="BO12" s="2"/>
       <c r="BP12" s="3"/>
     </row>
-    <row r="13" spans="2:68" x14ac:dyDescent="0.25">
-      <c r="B13" s="124"/>
-      <c r="C13" s="125"/>
-      <c r="D13" s="125"/>
-      <c r="E13" s="125"/>
-      <c r="F13" s="125"/>
-      <c r="G13" s="125"/>
-      <c r="H13" s="125"/>
-      <c r="I13" s="126"/>
-      <c r="J13" s="79"/>
-      <c r="K13" s="80"/>
-      <c r="L13" s="80"/>
-      <c r="M13" s="81"/>
-      <c r="N13" s="91" t="s">
+    <row r="13" spans="2:68" x14ac:dyDescent="0.35">
+      <c r="B13" s="111"/>
+      <c r="C13" s="112"/>
+      <c r="D13" s="112"/>
+      <c r="E13" s="112"/>
+      <c r="F13" s="112"/>
+      <c r="G13" s="112"/>
+      <c r="H13" s="112"/>
+      <c r="I13" s="113"/>
+      <c r="J13" s="66"/>
+      <c r="K13" s="67"/>
+      <c r="L13" s="67"/>
+      <c r="M13" s="68"/>
+      <c r="N13" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="O13" s="92"/>
-      <c r="P13" s="92"/>
-      <c r="Q13" s="92"/>
-      <c r="R13" s="92"/>
-      <c r="S13" s="92"/>
-      <c r="T13" s="93"/>
+      <c r="O13" s="79"/>
+      <c r="P13" s="79"/>
+      <c r="Q13" s="79"/>
+      <c r="R13" s="79"/>
+      <c r="S13" s="79"/>
+      <c r="T13" s="80"/>
       <c r="U13" s="2"/>
       <c r="V13" s="2"/>
       <c r="W13" s="2"/>
@@ -2671,26 +2689,26 @@
       <c r="BO13" s="2"/>
       <c r="BP13" s="3"/>
     </row>
-    <row r="14" spans="2:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="124"/>
-      <c r="C14" s="125"/>
-      <c r="D14" s="125"/>
-      <c r="E14" s="125"/>
-      <c r="F14" s="125"/>
-      <c r="G14" s="125"/>
-      <c r="H14" s="125"/>
-      <c r="I14" s="126"/>
-      <c r="J14" s="82"/>
-      <c r="K14" s="83"/>
-      <c r="L14" s="83"/>
-      <c r="M14" s="84"/>
-      <c r="N14" s="94"/>
-      <c r="O14" s="95"/>
-      <c r="P14" s="95"/>
-      <c r="Q14" s="95"/>
-      <c r="R14" s="95"/>
-      <c r="S14" s="95"/>
-      <c r="T14" s="96"/>
+    <row r="14" spans="2:68" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="111"/>
+      <c r="C14" s="112"/>
+      <c r="D14" s="112"/>
+      <c r="E14" s="112"/>
+      <c r="F14" s="112"/>
+      <c r="G14" s="112"/>
+      <c r="H14" s="112"/>
+      <c r="I14" s="113"/>
+      <c r="J14" s="69"/>
+      <c r="K14" s="70"/>
+      <c r="L14" s="70"/>
+      <c r="M14" s="71"/>
+      <c r="N14" s="81"/>
+      <c r="O14" s="82"/>
+      <c r="P14" s="82"/>
+      <c r="Q14" s="82"/>
+      <c r="R14" s="82"/>
+      <c r="S14" s="82"/>
+      <c r="T14" s="83"/>
       <c r="U14" s="2"/>
       <c r="V14" s="2"/>
       <c r="W14" s="2"/>
@@ -2740,30 +2758,30 @@
       <c r="BO14" s="2"/>
       <c r="BP14" s="3"/>
     </row>
-    <row r="15" spans="2:68" x14ac:dyDescent="0.25">
-      <c r="B15" s="124"/>
-      <c r="C15" s="125"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="125"/>
-      <c r="F15" s="125"/>
-      <c r="G15" s="125"/>
-      <c r="H15" s="125"/>
-      <c r="I15" s="126"/>
-      <c r="J15" s="76" t="s">
+    <row r="15" spans="2:68" x14ac:dyDescent="0.35">
+      <c r="B15" s="111"/>
+      <c r="C15" s="112"/>
+      <c r="D15" s="112"/>
+      <c r="E15" s="112"/>
+      <c r="F15" s="112"/>
+      <c r="G15" s="112"/>
+      <c r="H15" s="112"/>
+      <c r="I15" s="113"/>
+      <c r="J15" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="K15" s="77"/>
-      <c r="L15" s="77"/>
-      <c r="M15" s="78"/>
-      <c r="N15" s="97" t="s">
+      <c r="K15" s="64"/>
+      <c r="L15" s="64"/>
+      <c r="M15" s="65"/>
+      <c r="N15" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="O15" s="98"/>
-      <c r="P15" s="98"/>
-      <c r="Q15" s="98"/>
-      <c r="R15" s="98"/>
-      <c r="S15" s="98"/>
-      <c r="T15" s="99"/>
+      <c r="O15" s="85"/>
+      <c r="P15" s="85"/>
+      <c r="Q15" s="85"/>
+      <c r="R15" s="85"/>
+      <c r="S15" s="85"/>
+      <c r="T15" s="86"/>
       <c r="U15" s="2"/>
       <c r="V15" s="2"/>
       <c r="W15" s="2"/>
@@ -2813,26 +2831,26 @@
       <c r="BO15" s="2"/>
       <c r="BP15" s="3"/>
     </row>
-    <row r="16" spans="2:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="124"/>
-      <c r="C16" s="125"/>
-      <c r="D16" s="125"/>
-      <c r="E16" s="125"/>
-      <c r="F16" s="125"/>
-      <c r="G16" s="125"/>
-      <c r="H16" s="125"/>
-      <c r="I16" s="126"/>
-      <c r="J16" s="79"/>
-      <c r="K16" s="80"/>
-      <c r="L16" s="80"/>
-      <c r="M16" s="81"/>
-      <c r="N16" s="100"/>
-      <c r="O16" s="101"/>
-      <c r="P16" s="101"/>
-      <c r="Q16" s="101"/>
-      <c r="R16" s="101"/>
-      <c r="S16" s="101"/>
-      <c r="T16" s="102"/>
+    <row r="16" spans="2:68" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="111"/>
+      <c r="C16" s="112"/>
+      <c r="D16" s="112"/>
+      <c r="E16" s="112"/>
+      <c r="F16" s="112"/>
+      <c r="G16" s="112"/>
+      <c r="H16" s="112"/>
+      <c r="I16" s="113"/>
+      <c r="J16" s="66"/>
+      <c r="K16" s="67"/>
+      <c r="L16" s="67"/>
+      <c r="M16" s="68"/>
+      <c r="N16" s="87"/>
+      <c r="O16" s="88"/>
+      <c r="P16" s="88"/>
+      <c r="Q16" s="88"/>
+      <c r="R16" s="88"/>
+      <c r="S16" s="88"/>
+      <c r="T16" s="89"/>
       <c r="U16" s="2"/>
       <c r="V16" s="2"/>
       <c r="W16" s="2"/>
@@ -2882,28 +2900,28 @@
       <c r="BO16" s="2"/>
       <c r="BP16" s="3"/>
     </row>
-    <row r="17" spans="2:68" x14ac:dyDescent="0.25">
-      <c r="B17" s="124"/>
-      <c r="C17" s="125"/>
-      <c r="D17" s="125"/>
-      <c r="E17" s="125"/>
-      <c r="F17" s="125"/>
-      <c r="G17" s="125"/>
-      <c r="H17" s="125"/>
-      <c r="I17" s="126"/>
-      <c r="J17" s="79"/>
-      <c r="K17" s="80"/>
-      <c r="L17" s="80"/>
-      <c r="M17" s="81"/>
-      <c r="N17" s="103" t="s">
+    <row r="17" spans="2:68" x14ac:dyDescent="0.35">
+      <c r="B17" s="111"/>
+      <c r="C17" s="112"/>
+      <c r="D17" s="112"/>
+      <c r="E17" s="112"/>
+      <c r="F17" s="112"/>
+      <c r="G17" s="112"/>
+      <c r="H17" s="112"/>
+      <c r="I17" s="113"/>
+      <c r="J17" s="66"/>
+      <c r="K17" s="67"/>
+      <c r="L17" s="67"/>
+      <c r="M17" s="68"/>
+      <c r="N17" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="O17" s="104"/>
-      <c r="P17" s="104"/>
-      <c r="Q17" s="104"/>
-      <c r="R17" s="104"/>
-      <c r="S17" s="104"/>
-      <c r="T17" s="105"/>
+      <c r="O17" s="91"/>
+      <c r="P17" s="91"/>
+      <c r="Q17" s="91"/>
+      <c r="R17" s="91"/>
+      <c r="S17" s="91"/>
+      <c r="T17" s="92"/>
       <c r="U17" s="2"/>
       <c r="V17" s="2"/>
       <c r="W17" s="2"/>
@@ -2953,26 +2971,26 @@
       <c r="BO17" s="2"/>
       <c r="BP17" s="3"/>
     </row>
-    <row r="18" spans="2:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="124"/>
-      <c r="C18" s="125"/>
-      <c r="D18" s="125"/>
-      <c r="E18" s="125"/>
-      <c r="F18" s="125"/>
-      <c r="G18" s="125"/>
-      <c r="H18" s="125"/>
-      <c r="I18" s="126"/>
-      <c r="J18" s="79"/>
-      <c r="K18" s="80"/>
-      <c r="L18" s="80"/>
-      <c r="M18" s="81"/>
-      <c r="N18" s="106"/>
-      <c r="O18" s="107"/>
-      <c r="P18" s="107"/>
-      <c r="Q18" s="107"/>
-      <c r="R18" s="107"/>
-      <c r="S18" s="107"/>
-      <c r="T18" s="108"/>
+    <row r="18" spans="2:68" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="111"/>
+      <c r="C18" s="112"/>
+      <c r="D18" s="112"/>
+      <c r="E18" s="112"/>
+      <c r="F18" s="112"/>
+      <c r="G18" s="112"/>
+      <c r="H18" s="112"/>
+      <c r="I18" s="113"/>
+      <c r="J18" s="66"/>
+      <c r="K18" s="67"/>
+      <c r="L18" s="67"/>
+      <c r="M18" s="68"/>
+      <c r="N18" s="93"/>
+      <c r="O18" s="94"/>
+      <c r="P18" s="94"/>
+      <c r="Q18" s="94"/>
+      <c r="R18" s="94"/>
+      <c r="S18" s="94"/>
+      <c r="T18" s="95"/>
       <c r="U18" s="2"/>
       <c r="V18" s="2"/>
       <c r="W18" s="2"/>
@@ -3022,28 +3040,28 @@
       <c r="BO18" s="2"/>
       <c r="BP18" s="3"/>
     </row>
-    <row r="19" spans="2:68" x14ac:dyDescent="0.25">
-      <c r="B19" s="124"/>
-      <c r="C19" s="125"/>
-      <c r="D19" s="125"/>
-      <c r="E19" s="125"/>
-      <c r="F19" s="125"/>
-      <c r="G19" s="125"/>
-      <c r="H19" s="125"/>
-      <c r="I19" s="126"/>
-      <c r="J19" s="79"/>
-      <c r="K19" s="80"/>
-      <c r="L19" s="80"/>
-      <c r="M19" s="81"/>
-      <c r="N19" s="109" t="s">
+    <row r="19" spans="2:68" x14ac:dyDescent="0.35">
+      <c r="B19" s="111"/>
+      <c r="C19" s="112"/>
+      <c r="D19" s="112"/>
+      <c r="E19" s="112"/>
+      <c r="F19" s="112"/>
+      <c r="G19" s="112"/>
+      <c r="H19" s="112"/>
+      <c r="I19" s="113"/>
+      <c r="J19" s="66"/>
+      <c r="K19" s="67"/>
+      <c r="L19" s="67"/>
+      <c r="M19" s="68"/>
+      <c r="N19" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="O19" s="110"/>
-      <c r="P19" s="110"/>
-      <c r="Q19" s="110"/>
-      <c r="R19" s="110"/>
-      <c r="S19" s="110"/>
-      <c r="T19" s="111"/>
+      <c r="O19" s="97"/>
+      <c r="P19" s="97"/>
+      <c r="Q19" s="97"/>
+      <c r="R19" s="97"/>
+      <c r="S19" s="97"/>
+      <c r="T19" s="98"/>
       <c r="U19" s="2"/>
       <c r="V19" s="2"/>
       <c r="W19" s="2"/>
@@ -3093,26 +3111,26 @@
       <c r="BO19" s="2"/>
       <c r="BP19" s="3"/>
     </row>
-    <row r="20" spans="2:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="124"/>
-      <c r="C20" s="125"/>
-      <c r="D20" s="125"/>
-      <c r="E20" s="125"/>
-      <c r="F20" s="125"/>
-      <c r="G20" s="125"/>
-      <c r="H20" s="125"/>
-      <c r="I20" s="126"/>
-      <c r="J20" s="79"/>
-      <c r="K20" s="80"/>
-      <c r="L20" s="80"/>
-      <c r="M20" s="81"/>
-      <c r="N20" s="112"/>
-      <c r="O20" s="113"/>
-      <c r="P20" s="113"/>
-      <c r="Q20" s="113"/>
-      <c r="R20" s="113"/>
-      <c r="S20" s="113"/>
-      <c r="T20" s="114"/>
+    <row r="20" spans="2:68" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="111"/>
+      <c r="C20" s="112"/>
+      <c r="D20" s="112"/>
+      <c r="E20" s="112"/>
+      <c r="F20" s="112"/>
+      <c r="G20" s="112"/>
+      <c r="H20" s="112"/>
+      <c r="I20" s="113"/>
+      <c r="J20" s="66"/>
+      <c r="K20" s="67"/>
+      <c r="L20" s="67"/>
+      <c r="M20" s="68"/>
+      <c r="N20" s="99"/>
+      <c r="O20" s="100"/>
+      <c r="P20" s="100"/>
+      <c r="Q20" s="100"/>
+      <c r="R20" s="100"/>
+      <c r="S20" s="100"/>
+      <c r="T20" s="101"/>
       <c r="U20" s="2"/>
       <c r="V20" s="2"/>
       <c r="W20" s="2"/>
@@ -3162,28 +3180,28 @@
       <c r="BO20" s="2"/>
       <c r="BP20" s="3"/>
     </row>
-    <row r="21" spans="2:68" x14ac:dyDescent="0.25">
-      <c r="B21" s="124"/>
-      <c r="C21" s="125"/>
-      <c r="D21" s="125"/>
-      <c r="E21" s="125"/>
-      <c r="F21" s="125"/>
-      <c r="G21" s="125"/>
-      <c r="H21" s="125"/>
-      <c r="I21" s="126"/>
-      <c r="J21" s="79"/>
-      <c r="K21" s="80"/>
-      <c r="L21" s="80"/>
-      <c r="M21" s="81"/>
-      <c r="N21" s="115" t="s">
+    <row r="21" spans="2:68" x14ac:dyDescent="0.35">
+      <c r="B21" s="111"/>
+      <c r="C21" s="112"/>
+      <c r="D21" s="112"/>
+      <c r="E21" s="112"/>
+      <c r="F21" s="112"/>
+      <c r="G21" s="112"/>
+      <c r="H21" s="112"/>
+      <c r="I21" s="113"/>
+      <c r="J21" s="66"/>
+      <c r="K21" s="67"/>
+      <c r="L21" s="67"/>
+      <c r="M21" s="68"/>
+      <c r="N21" s="102" t="s">
         <v>20</v>
       </c>
-      <c r="O21" s="116"/>
-      <c r="P21" s="116"/>
-      <c r="Q21" s="116"/>
-      <c r="R21" s="116"/>
-      <c r="S21" s="116"/>
-      <c r="T21" s="117"/>
+      <c r="O21" s="103"/>
+      <c r="P21" s="103"/>
+      <c r="Q21" s="103"/>
+      <c r="R21" s="103"/>
+      <c r="S21" s="103"/>
+      <c r="T21" s="104"/>
       <c r="U21" s="2"/>
       <c r="V21" s="2"/>
       <c r="W21" s="2"/>
@@ -3233,26 +3251,26 @@
       <c r="BO21" s="2"/>
       <c r="BP21" s="3"/>
     </row>
-    <row r="22" spans="2:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="127"/>
-      <c r="C22" s="128"/>
-      <c r="D22" s="128"/>
-      <c r="E22" s="128"/>
-      <c r="F22" s="128"/>
-      <c r="G22" s="128"/>
-      <c r="H22" s="128"/>
-      <c r="I22" s="129"/>
-      <c r="J22" s="82"/>
-      <c r="K22" s="83"/>
-      <c r="L22" s="83"/>
-      <c r="M22" s="84"/>
-      <c r="N22" s="118"/>
-      <c r="O22" s="119"/>
-      <c r="P22" s="119"/>
-      <c r="Q22" s="119"/>
-      <c r="R22" s="119"/>
-      <c r="S22" s="119"/>
-      <c r="T22" s="120"/>
+    <row r="22" spans="2:68" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="114"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="115"/>
+      <c r="E22" s="115"/>
+      <c r="F22" s="115"/>
+      <c r="G22" s="115"/>
+      <c r="H22" s="115"/>
+      <c r="I22" s="116"/>
+      <c r="J22" s="69"/>
+      <c r="K22" s="70"/>
+      <c r="L22" s="70"/>
+      <c r="M22" s="71"/>
+      <c r="N22" s="105"/>
+      <c r="O22" s="106"/>
+      <c r="P22" s="106"/>
+      <c r="Q22" s="106"/>
+      <c r="R22" s="106"/>
+      <c r="S22" s="106"/>
+      <c r="T22" s="107"/>
       <c r="U22" s="2"/>
       <c r="V22" s="2"/>
       <c r="W22" s="2"/>
@@ -3302,28 +3320,28 @@
       <c r="BO22" s="2"/>
       <c r="BP22" s="3"/>
     </row>
-    <row r="23" spans="2:68" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="70" t="s">
+    <row r="23" spans="2:68" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="71"/>
-      <c r="D23" s="71"/>
-      <c r="E23" s="71"/>
-      <c r="F23" s="71"/>
-      <c r="G23" s="71"/>
-      <c r="H23" s="71"/>
-      <c r="I23" s="71"/>
-      <c r="J23" s="71"/>
-      <c r="K23" s="71"/>
-      <c r="L23" s="71"/>
-      <c r="M23" s="71"/>
-      <c r="N23" s="71"/>
-      <c r="O23" s="71"/>
-      <c r="P23" s="71"/>
-      <c r="Q23" s="71"/>
-      <c r="R23" s="71"/>
-      <c r="S23" s="71"/>
-      <c r="T23" s="72"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="58"/>
+      <c r="I23" s="58"/>
+      <c r="J23" s="58"/>
+      <c r="K23" s="58"/>
+      <c r="L23" s="58"/>
+      <c r="M23" s="58"/>
+      <c r="N23" s="58"/>
+      <c r="O23" s="58"/>
+      <c r="P23" s="58"/>
+      <c r="Q23" s="58"/>
+      <c r="R23" s="58"/>
+      <c r="S23" s="58"/>
+      <c r="T23" s="59"/>
       <c r="U23" s="2"/>
       <c r="V23" s="2"/>
       <c r="W23" s="2"/>
@@ -3372,26 +3390,26 @@
       <c r="BO23" s="2"/>
       <c r="BP23" s="3"/>
     </row>
-    <row r="24" spans="2:68" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="73"/>
-      <c r="C24" s="74"/>
-      <c r="D24" s="74"/>
-      <c r="E24" s="74"/>
-      <c r="F24" s="74"/>
-      <c r="G24" s="74"/>
-      <c r="H24" s="74"/>
-      <c r="I24" s="74"/>
-      <c r="J24" s="74"/>
-      <c r="K24" s="74"/>
-      <c r="L24" s="74"/>
-      <c r="M24" s="74"/>
-      <c r="N24" s="74"/>
-      <c r="O24" s="74"/>
-      <c r="P24" s="74"/>
-      <c r="Q24" s="74"/>
-      <c r="R24" s="74"/>
-      <c r="S24" s="74"/>
-      <c r="T24" s="75"/>
+    <row r="24" spans="2:68" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B24" s="60"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="61"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="61"/>
+      <c r="I24" s="61"/>
+      <c r="J24" s="61"/>
+      <c r="K24" s="61"/>
+      <c r="L24" s="61"/>
+      <c r="M24" s="61"/>
+      <c r="N24" s="61"/>
+      <c r="O24" s="61"/>
+      <c r="P24" s="61"/>
+      <c r="Q24" s="61"/>
+      <c r="R24" s="61"/>
+      <c r="S24" s="61"/>
+      <c r="T24" s="62"/>
       <c r="U24" s="2"/>
       <c r="V24" s="2"/>
       <c r="W24" s="2"/>
@@ -3441,28 +3459,28 @@
       <c r="BO24" s="2"/>
       <c r="BP24" s="3"/>
     </row>
-    <row r="25" spans="2:68" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="66" t="s">
+    <row r="25" spans="2:68" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="67"/>
-      <c r="D25" s="67"/>
-      <c r="E25" s="67"/>
-      <c r="F25" s="67"/>
-      <c r="G25" s="67"/>
-      <c r="H25" s="67"/>
-      <c r="I25" s="67"/>
-      <c r="J25" s="67"/>
-      <c r="K25" s="67"/>
-      <c r="L25" s="67"/>
-      <c r="M25" s="67"/>
-      <c r="N25" s="67"/>
-      <c r="O25" s="67"/>
-      <c r="P25" s="67"/>
-      <c r="Q25" s="67"/>
-      <c r="R25" s="67"/>
-      <c r="S25" s="67"/>
-      <c r="T25" s="67"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="54"/>
+      <c r="K25" s="54"/>
+      <c r="L25" s="54"/>
+      <c r="M25" s="54"/>
+      <c r="N25" s="54"/>
+      <c r="O25" s="54"/>
+      <c r="P25" s="54"/>
+      <c r="Q25" s="54"/>
+      <c r="R25" s="54"/>
+      <c r="S25" s="54"/>
+      <c r="T25" s="54"/>
       <c r="U25" s="2"/>
       <c r="V25" s="2"/>
       <c r="W25" s="2"/>
@@ -3512,26 +3530,26 @@
       <c r="BO25" s="2"/>
       <c r="BP25" s="3"/>
     </row>
-    <row r="26" spans="2:68" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="68"/>
-      <c r="C26" s="69"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="69"/>
-      <c r="G26" s="69"/>
-      <c r="H26" s="69"/>
-      <c r="I26" s="69"/>
-      <c r="J26" s="69"/>
-      <c r="K26" s="69"/>
-      <c r="L26" s="69"/>
-      <c r="M26" s="69"/>
-      <c r="N26" s="69"/>
-      <c r="O26" s="69"/>
-      <c r="P26" s="69"/>
-      <c r="Q26" s="69"/>
-      <c r="R26" s="69"/>
-      <c r="S26" s="69"/>
-      <c r="T26" s="69"/>
+    <row r="26" spans="2:68" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B26" s="55"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="56"/>
+      <c r="G26" s="56"/>
+      <c r="H26" s="56"/>
+      <c r="I26" s="56"/>
+      <c r="J26" s="56"/>
+      <c r="K26" s="56"/>
+      <c r="L26" s="56"/>
+      <c r="M26" s="56"/>
+      <c r="N26" s="56"/>
+      <c r="O26" s="56"/>
+      <c r="P26" s="56"/>
+      <c r="Q26" s="56"/>
+      <c r="R26" s="56"/>
+      <c r="S26" s="56"/>
+      <c r="T26" s="56"/>
       <c r="U26" s="4"/>
       <c r="V26" s="4"/>
       <c r="W26" s="4"/>
@@ -3583,6 +3601,35 @@
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="BG2:BP3"/>
+    <mergeCell ref="BG4:BH8"/>
+    <mergeCell ref="BI4:BJ8"/>
+    <mergeCell ref="BK4:BL8"/>
+    <mergeCell ref="BM4:BN8"/>
+    <mergeCell ref="BO4:BP8"/>
+    <mergeCell ref="AW2:BF3"/>
+    <mergeCell ref="AW4:AX8"/>
+    <mergeCell ref="AY4:AZ8"/>
+    <mergeCell ref="BA4:BB8"/>
+    <mergeCell ref="BC4:BD8"/>
+    <mergeCell ref="BE4:BF8"/>
+    <mergeCell ref="AM2:AV3"/>
+    <mergeCell ref="AM4:AN8"/>
+    <mergeCell ref="AO4:AP8"/>
+    <mergeCell ref="AQ4:AR8"/>
+    <mergeCell ref="AS4:AT8"/>
+    <mergeCell ref="AU4:AV8"/>
+    <mergeCell ref="U2:AB3"/>
+    <mergeCell ref="AC2:AL3"/>
+    <mergeCell ref="AK4:AL8"/>
+    <mergeCell ref="AI4:AJ8"/>
+    <mergeCell ref="W4:X8"/>
+    <mergeCell ref="Y4:Z8"/>
+    <mergeCell ref="AA4:AB8"/>
+    <mergeCell ref="AC4:AD8"/>
+    <mergeCell ref="AE4:AF8"/>
+    <mergeCell ref="AG4:AH8"/>
+    <mergeCell ref="U4:V8"/>
     <mergeCell ref="B2:T8"/>
     <mergeCell ref="B9:T10"/>
     <mergeCell ref="B25:T26"/>
@@ -3596,35 +3643,6 @@
     <mergeCell ref="N19:T20"/>
     <mergeCell ref="N21:T22"/>
     <mergeCell ref="B11:I22"/>
-    <mergeCell ref="U2:AB3"/>
-    <mergeCell ref="AC2:AL3"/>
-    <mergeCell ref="AK4:AL8"/>
-    <mergeCell ref="AI4:AJ8"/>
-    <mergeCell ref="W4:X8"/>
-    <mergeCell ref="Y4:Z8"/>
-    <mergeCell ref="AA4:AB8"/>
-    <mergeCell ref="AC4:AD8"/>
-    <mergeCell ref="AE4:AF8"/>
-    <mergeCell ref="AG4:AH8"/>
-    <mergeCell ref="U4:V8"/>
-    <mergeCell ref="AM2:AV3"/>
-    <mergeCell ref="AM4:AN8"/>
-    <mergeCell ref="AO4:AP8"/>
-    <mergeCell ref="AQ4:AR8"/>
-    <mergeCell ref="AS4:AT8"/>
-    <mergeCell ref="AU4:AV8"/>
-    <mergeCell ref="AW2:BF3"/>
-    <mergeCell ref="AW4:AX8"/>
-    <mergeCell ref="AY4:AZ8"/>
-    <mergeCell ref="BA4:BB8"/>
-    <mergeCell ref="BC4:BD8"/>
-    <mergeCell ref="BE4:BF8"/>
-    <mergeCell ref="BG2:BP3"/>
-    <mergeCell ref="BG4:BH8"/>
-    <mergeCell ref="BI4:BJ8"/>
-    <mergeCell ref="BK4:BL8"/>
-    <mergeCell ref="BM4:BN8"/>
-    <mergeCell ref="BO4:BP8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3636,87 +3654,87 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E9" sqref="E9:E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="3" width="34.42578125" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
-    <col min="6" max="6" width="20.5703125" style="133" customWidth="1"/>
-    <col min="7" max="8" width="15.5703125" customWidth="1"/>
-    <col min="10" max="12" width="15.5703125" customWidth="1"/>
-    <col min="13" max="13" width="16.85546875" customWidth="1"/>
-    <col min="14" max="14" width="28.42578125" customWidth="1"/>
+    <col min="1" max="1" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.453125" customWidth="1"/>
+    <col min="3" max="3" width="34.453125" customWidth="1"/>
+    <col min="4" max="4" width="15.54296875" customWidth="1"/>
+    <col min="5" max="5" width="16.26953125" customWidth="1"/>
+    <col min="6" max="6" width="20.54296875" style="36" customWidth="1"/>
+    <col min="7" max="8" width="15.54296875" customWidth="1"/>
+    <col min="10" max="12" width="15.54296875" customWidth="1"/>
+    <col min="13" max="13" width="16.81640625" customWidth="1"/>
+    <col min="14" max="14" width="28.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="130" t="s">
+    <row r="1" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="134" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
-      <c r="F1" s="130"/>
-      <c r="G1" s="130"/>
-      <c r="H1" s="130"/>
-      <c r="I1" s="130"/>
-      <c r="J1" s="130"/>
-      <c r="K1" s="130"/>
-      <c r="L1" s="130"/>
-      <c r="M1" s="130"/>
-      <c r="N1" s="130"/>
+      <c r="B1" s="134"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
+      <c r="G1" s="134"/>
+      <c r="H1" s="134"/>
+      <c r="I1" s="134"/>
+      <c r="J1" s="134"/>
+      <c r="K1" s="134"/>
+      <c r="L1" s="134"/>
+      <c r="M1" s="134"/>
+      <c r="N1" s="134"/>
       <c r="O1" s="26"/>
       <c r="P1" s="26"/>
       <c r="Q1" s="26"/>
       <c r="R1" s="26"/>
     </row>
-    <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="130"/>
-      <c r="B2" s="130"/>
-      <c r="C2" s="130"/>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="130"/>
-      <c r="I2" s="130"/>
-      <c r="J2" s="130"/>
-      <c r="K2" s="130"/>
-      <c r="L2" s="130"/>
-      <c r="M2" s="130"/>
-      <c r="N2" s="130"/>
+    <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="134"/>
+      <c r="B2" s="134"/>
+      <c r="C2" s="134"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="134"/>
+      <c r="H2" s="134"/>
+      <c r="I2" s="134"/>
+      <c r="J2" s="134"/>
+      <c r="K2" s="134"/>
+      <c r="L2" s="134"/>
+      <c r="M2" s="134"/>
+      <c r="N2" s="134"/>
       <c r="O2" s="26"/>
       <c r="P2" s="26"/>
       <c r="Q2" s="26"/>
       <c r="R2" s="26"/>
     </row>
-    <row r="3" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="130"/>
-      <c r="B3" s="130"/>
-      <c r="C3" s="130"/>
-      <c r="D3" s="130"/>
-      <c r="E3" s="130"/>
-      <c r="F3" s="130"/>
-      <c r="G3" s="130"/>
-      <c r="H3" s="130"/>
-      <c r="I3" s="130"/>
-      <c r="J3" s="130"/>
-      <c r="K3" s="130"/>
-      <c r="L3" s="130"/>
-      <c r="M3" s="130"/>
-      <c r="N3" s="130"/>
+    <row r="3" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="134"/>
+      <c r="B3" s="134"/>
+      <c r="C3" s="134"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="134"/>
+      <c r="F3" s="134"/>
+      <c r="G3" s="134"/>
+      <c r="H3" s="134"/>
+      <c r="I3" s="134"/>
+      <c r="J3" s="134"/>
+      <c r="K3" s="134"/>
+      <c r="L3" s="134"/>
+      <c r="M3" s="134"/>
+      <c r="N3" s="134"/>
       <c r="O3" s="26"/>
       <c r="P3" s="26"/>
       <c r="Q3" s="26"/>
       <c r="R3" s="26"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" s="22" t="s">
         <v>28</v>
       </c>
@@ -3726,7 +3744,7 @@
       </c>
       <c r="D4" s="31"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
         <v>29</v>
       </c>
@@ -3736,7 +3754,7 @@
       </c>
       <c r="D5" s="27"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" s="22" t="s">
         <v>30</v>
       </c>
@@ -3748,11 +3766,11 @@
       </c>
       <c r="D6" s="27"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="C7" s="21"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
-      <c r="F7" s="134"/>
+      <c r="F7" s="37"/>
       <c r="G7" s="21"/>
       <c r="H7" s="21"/>
       <c r="I7" s="21"/>
@@ -3762,7 +3780,7 @@
       <c r="M7" s="21"/>
       <c r="N7" s="21"/>
     </row>
-    <row r="8" spans="1:18" s="30" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" s="30" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="32" t="s">
         <v>33</v>
       </c>
@@ -3806,7 +3824,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="25"/>
       <c r="B9" s="25" t="s">
         <v>49</v>
@@ -3817,14 +3835,14 @@
       <c r="D9" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="131"/>
-      <c r="F9" s="131" t="s">
+      <c r="E9" s="34"/>
+      <c r="F9" s="34" t="s">
         <v>103</v>
       </c>
       <c r="G9" s="25"/>
       <c r="H9" s="25"/>
       <c r="I9" s="25"/>
-      <c r="J9" s="131" t="s">
+      <c r="J9" s="34" t="s">
         <v>103</v>
       </c>
       <c r="K9" s="25"/>
@@ -3834,7 +3852,7 @@
       </c>
       <c r="N9" s="25"/>
     </row>
-    <row r="10" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="25" t="s">
         <v>52</v>
       </c>
@@ -3847,8 +3865,8 @@
       <c r="D10" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="E10" s="131"/>
-      <c r="F10" s="131" t="s">
+      <c r="E10" s="34"/>
+      <c r="F10" s="34" t="s">
         <v>103</v>
       </c>
       <c r="G10" s="25"/>
@@ -3860,7 +3878,7 @@
       <c r="M10" s="25"/>
       <c r="N10" s="25"/>
     </row>
-    <row r="11" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="25" t="s">
         <v>97</v>
       </c>
@@ -3873,8 +3891,8 @@
       <c r="D11" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="131"/>
-      <c r="F11" s="131" t="s">
+      <c r="E11" s="34"/>
+      <c r="F11" s="34" t="s">
         <v>103</v>
       </c>
       <c r="G11" s="25"/>
@@ -3886,7 +3904,7 @@
       <c r="M11" s="25"/>
       <c r="N11" s="25"/>
     </row>
-    <row r="12" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="25" t="s">
         <v>56</v>
       </c>
@@ -3899,8 +3917,8 @@
       <c r="D12" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="131"/>
-      <c r="F12" s="131" t="s">
+      <c r="E12" s="34"/>
+      <c r="F12" s="34" t="s">
         <v>103</v>
       </c>
       <c r="G12" s="25"/>
@@ -3912,7 +3930,7 @@
       <c r="M12" s="25"/>
       <c r="N12" s="25"/>
     </row>
-    <row r="13" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="25" t="s">
         <v>57</v>
       </c>
@@ -3925,8 +3943,8 @@
       <c r="D13" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="E13" s="131"/>
-      <c r="F13" s="131" t="s">
+      <c r="E13" s="34"/>
+      <c r="F13" s="34" t="s">
         <v>103</v>
       </c>
       <c r="G13" s="25"/>
@@ -3938,7 +3956,7 @@
       <c r="M13" s="25"/>
       <c r="N13" s="25"/>
     </row>
-    <row r="14" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="25" t="s">
         <v>58</v>
       </c>
@@ -3951,8 +3969,8 @@
       <c r="D14" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="131"/>
-      <c r="F14" s="131" t="s">
+      <c r="E14" s="34"/>
+      <c r="F14" s="34" t="s">
         <v>103</v>
       </c>
       <c r="G14" s="25"/>
@@ -3964,7 +3982,7 @@
       <c r="M14" s="25"/>
       <c r="N14" s="25"/>
     </row>
-    <row r="15" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="25" t="s">
         <v>59</v>
       </c>
@@ -3977,8 +3995,8 @@
       <c r="D15" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="E15" s="131"/>
-      <c r="F15" s="131" t="s">
+      <c r="E15" s="34"/>
+      <c r="F15" s="34" t="s">
         <v>103</v>
       </c>
       <c r="G15" s="25"/>
@@ -3990,7 +4008,7 @@
       <c r="M15" s="25"/>
       <c r="N15" s="25"/>
     </row>
-    <row r="16" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="25" t="s">
         <v>60</v>
       </c>
@@ -4003,8 +4021,8 @@
       <c r="D16" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="131"/>
-      <c r="F16" s="131" t="s">
+      <c r="E16" s="34"/>
+      <c r="F16" s="34" t="s">
         <v>103</v>
       </c>
       <c r="G16" s="25"/>
@@ -4016,7 +4034,7 @@
       <c r="M16" s="25"/>
       <c r="N16" s="25"/>
     </row>
-    <row r="17" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="25" t="s">
         <v>64</v>
       </c>
@@ -4029,8 +4047,8 @@
       <c r="D17" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="E17" s="131"/>
-      <c r="F17" s="131" t="s">
+      <c r="E17" s="34"/>
+      <c r="F17" s="34" t="s">
         <v>103</v>
       </c>
       <c r="G17" s="25"/>
@@ -4042,7 +4060,7 @@
       <c r="M17" s="25"/>
       <c r="N17" s="25"/>
     </row>
-    <row r="18" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="25" t="s">
         <v>66</v>
       </c>
@@ -4055,8 +4073,8 @@
       <c r="D18" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="E18" s="131"/>
-      <c r="F18" s="131" t="s">
+      <c r="E18" s="34"/>
+      <c r="F18" s="34" t="s">
         <v>103</v>
       </c>
       <c r="G18" s="25"/>
@@ -4068,7 +4086,7 @@
       <c r="M18" s="25"/>
       <c r="N18" s="25"/>
     </row>
-    <row r="19" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="25" t="s">
         <v>68</v>
       </c>
@@ -4081,8 +4099,8 @@
       <c r="D19" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="E19" s="131"/>
-      <c r="F19" s="131" t="s">
+      <c r="E19" s="34"/>
+      <c r="F19" s="34" t="s">
         <v>103</v>
       </c>
       <c r="G19" s="25"/>
@@ -4094,7 +4112,7 @@
       <c r="M19" s="25"/>
       <c r="N19" s="25"/>
     </row>
-    <row r="20" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="25" t="s">
         <v>70</v>
       </c>
@@ -4107,8 +4125,8 @@
       <c r="D20" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="E20" s="131"/>
-      <c r="F20" s="131" t="s">
+      <c r="E20" s="34"/>
+      <c r="F20" s="34" t="s">
         <v>103</v>
       </c>
       <c r="G20" s="25"/>
@@ -4120,7 +4138,7 @@
       <c r="M20" s="25"/>
       <c r="N20" s="25"/>
     </row>
-    <row r="21" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="25" t="s">
         <v>72</v>
       </c>
@@ -4133,8 +4151,8 @@
       <c r="D21" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="131"/>
-      <c r="F21" s="131" t="s">
+      <c r="E21" s="34"/>
+      <c r="F21" s="34" t="s">
         <v>103</v>
       </c>
       <c r="G21" s="25"/>
@@ -4146,7 +4164,7 @@
       <c r="M21" s="25"/>
       <c r="N21" s="25"/>
     </row>
-    <row r="22" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="25" t="s">
         <v>74</v>
       </c>
@@ -4159,8 +4177,8 @@
       <c r="D22" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="E22" s="131"/>
-      <c r="F22" s="131" t="s">
+      <c r="E22" s="34"/>
+      <c r="F22" s="34" t="s">
         <v>103</v>
       </c>
       <c r="G22" s="25"/>
@@ -4172,7 +4190,7 @@
       <c r="M22" s="25"/>
       <c r="N22" s="25"/>
     </row>
-    <row r="23" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="25" t="s">
         <v>76</v>
       </c>
@@ -4185,8 +4203,8 @@
       <c r="D23" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="E23" s="131"/>
-      <c r="F23" s="131" t="s">
+      <c r="E23" s="34"/>
+      <c r="F23" s="34" t="s">
         <v>103</v>
       </c>
       <c r="G23" s="25"/>
@@ -4198,7 +4216,7 @@
       <c r="M23" s="25"/>
       <c r="N23" s="25"/>
     </row>
-    <row r="24" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="25" t="s">
         <v>78</v>
       </c>
@@ -4211,8 +4229,8 @@
       <c r="D24" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="E24" s="131"/>
-      <c r="F24" s="131" t="s">
+      <c r="E24" s="34"/>
+      <c r="F24" s="34" t="s">
         <v>103</v>
       </c>
       <c r="G24" s="25"/>
@@ -4224,7 +4242,7 @@
       <c r="M24" s="25"/>
       <c r="N24" s="25"/>
     </row>
-    <row r="25" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="25" t="s">
         <v>79</v>
       </c>
@@ -4237,8 +4255,8 @@
       <c r="D25" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="E25" s="131"/>
-      <c r="F25" s="131" t="s">
+      <c r="E25" s="34"/>
+      <c r="F25" s="34" t="s">
         <v>103</v>
       </c>
       <c r="G25" s="25"/>
@@ -4250,7 +4268,7 @@
       <c r="M25" s="25"/>
       <c r="N25" s="25"/>
     </row>
-    <row r="26" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="25" t="s">
         <v>84</v>
       </c>
@@ -4263,8 +4281,8 @@
       <c r="D26" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="E26" s="131"/>
-      <c r="F26" s="131" t="s">
+      <c r="E26" s="34"/>
+      <c r="F26" s="34" t="s">
         <v>103</v>
       </c>
       <c r="G26" s="25"/>
@@ -4276,7 +4294,7 @@
       <c r="M26" s="25"/>
       <c r="N26" s="25"/>
     </row>
-    <row r="27" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="25" t="s">
         <v>82</v>
       </c>
@@ -4289,8 +4307,8 @@
       <c r="D27" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="E27" s="131"/>
-      <c r="F27" s="131" t="s">
+      <c r="E27" s="34"/>
+      <c r="F27" s="34" t="s">
         <v>103</v>
       </c>
       <c r="G27" s="25"/>
@@ -4302,7 +4320,7 @@
       <c r="M27" s="25"/>
       <c r="N27" s="25"/>
     </row>
-    <row r="28" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="25" t="s">
         <v>87</v>
       </c>
@@ -4315,8 +4333,8 @@
       <c r="D28" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="E28" s="131"/>
-      <c r="F28" s="131" t="s">
+      <c r="E28" s="34"/>
+      <c r="F28" s="34" t="s">
         <v>103</v>
       </c>
       <c r="G28" s="25"/>
@@ -4328,7 +4346,7 @@
       <c r="M28" s="25"/>
       <c r="N28" s="25"/>
     </row>
-    <row r="29" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="25" t="s">
         <v>89</v>
       </c>
@@ -4341,8 +4359,8 @@
       <c r="D29" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="E29" s="131"/>
-      <c r="F29" s="131" t="s">
+      <c r="E29" s="34"/>
+      <c r="F29" s="34" t="s">
         <v>103</v>
       </c>
       <c r="G29" s="25"/>
@@ -4354,7 +4372,7 @@
       <c r="M29" s="25"/>
       <c r="N29" s="25"/>
     </row>
-    <row r="30" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="25" t="s">
         <v>91</v>
       </c>
@@ -4367,8 +4385,8 @@
       <c r="D30" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="E30" s="131"/>
-      <c r="F30" s="131" t="s">
+      <c r="E30" s="34"/>
+      <c r="F30" s="34" t="s">
         <v>103</v>
       </c>
       <c r="G30" s="25"/>
@@ -4380,7 +4398,7 @@
       <c r="M30" s="25"/>
       <c r="N30" s="25"/>
     </row>
-    <row r="31" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="25" t="s">
         <v>93</v>
       </c>
@@ -4393,8 +4411,8 @@
       <c r="D31" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="E31" s="131"/>
-      <c r="F31" s="131" t="s">
+      <c r="E31" s="34"/>
+      <c r="F31" s="34" t="s">
         <v>103</v>
       </c>
       <c r="G31" s="25"/>
@@ -4406,7 +4424,7 @@
       <c r="M31" s="25"/>
       <c r="N31" s="25"/>
     </row>
-    <row r="32" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="33" t="s">
         <v>95</v>
       </c>
@@ -4419,8 +4437,8 @@
       <c r="D32" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="E32" s="131"/>
-      <c r="F32" s="131" t="s">
+      <c r="E32" s="34"/>
+      <c r="F32" s="34" t="s">
         <v>103</v>
       </c>
       <c r="G32" s="25"/>
@@ -4432,7 +4450,7 @@
       <c r="M32" s="25"/>
       <c r="N32" s="25"/>
     </row>
-    <row r="33" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="25" t="s">
         <v>98</v>
       </c>
@@ -4445,8 +4463,8 @@
       <c r="D33" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="E33" s="131"/>
-      <c r="F33" s="131" t="s">
+      <c r="E33" s="34"/>
+      <c r="F33" s="34" t="s">
         <v>103</v>
       </c>
       <c r="G33" s="25"/>
@@ -4458,7 +4476,7 @@
       <c r="M33" s="25"/>
       <c r="N33" s="25"/>
     </row>
-    <row r="34" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>99</v>
       </c>
@@ -4471,68 +4489,68 @@
       <c r="D34" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="E34" s="132"/>
-      <c r="F34" s="131" t="s">
+      <c r="E34" s="35"/>
+      <c r="F34" s="34" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E35">
         <f>SUM(E9:E34)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="37" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="38" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="39" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="40" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="41" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="42" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="43" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="44" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="45" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="46" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="47" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="48" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="50" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="51" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="52" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="53" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="54" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="55" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="56" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="57" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="58" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="59" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="60" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="61" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="62" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="63" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="64" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="65" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="66" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="67" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="68" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="69" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="70" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="71" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="72" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="73" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="74" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="75" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="76" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="77" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="78" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="79" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="80" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="81" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="82" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="83" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="84" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="85" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="86" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:N3"/>
@@ -4554,87 +4572,87 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71CA19CC-910D-4DAD-8B0C-3CE9E10A96D0}">
   <dimension ref="A1:R86"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A10" sqref="A9:N34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="3" width="34.42578125" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
-    <col min="6" max="6" width="20.5703125" customWidth="1"/>
-    <col min="7" max="8" width="15.5703125" customWidth="1"/>
-    <col min="10" max="12" width="15.5703125" customWidth="1"/>
-    <col min="13" max="13" width="16.85546875" customWidth="1"/>
-    <col min="14" max="14" width="28.42578125" customWidth="1"/>
+    <col min="1" max="1" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.453125" customWidth="1"/>
+    <col min="3" max="3" width="34.453125" customWidth="1"/>
+    <col min="4" max="4" width="15.54296875" customWidth="1"/>
+    <col min="5" max="5" width="16.26953125" customWidth="1"/>
+    <col min="6" max="6" width="20.54296875" customWidth="1"/>
+    <col min="7" max="8" width="15.54296875" customWidth="1"/>
+    <col min="10" max="12" width="15.54296875" customWidth="1"/>
+    <col min="13" max="13" width="16.81640625" customWidth="1"/>
+    <col min="14" max="14" width="28.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="130" t="s">
+    <row r="1" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="134" t="s">
         <v>102</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
-      <c r="F1" s="130"/>
-      <c r="G1" s="130"/>
-      <c r="H1" s="130"/>
-      <c r="I1" s="130"/>
-      <c r="J1" s="130"/>
-      <c r="K1" s="130"/>
-      <c r="L1" s="130"/>
-      <c r="M1" s="130"/>
-      <c r="N1" s="130"/>
+      <c r="B1" s="134"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
+      <c r="G1" s="134"/>
+      <c r="H1" s="134"/>
+      <c r="I1" s="134"/>
+      <c r="J1" s="134"/>
+      <c r="K1" s="134"/>
+      <c r="L1" s="134"/>
+      <c r="M1" s="134"/>
+      <c r="N1" s="134"/>
       <c r="O1" s="26"/>
       <c r="P1" s="26"/>
       <c r="Q1" s="26"/>
       <c r="R1" s="26"/>
     </row>
-    <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="130"/>
-      <c r="B2" s="130"/>
-      <c r="C2" s="130"/>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="130"/>
-      <c r="I2" s="130"/>
-      <c r="J2" s="130"/>
-      <c r="K2" s="130"/>
-      <c r="L2" s="130"/>
-      <c r="M2" s="130"/>
-      <c r="N2" s="130"/>
+    <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="134"/>
+      <c r="B2" s="134"/>
+      <c r="C2" s="134"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="134"/>
+      <c r="H2" s="134"/>
+      <c r="I2" s="134"/>
+      <c r="J2" s="134"/>
+      <c r="K2" s="134"/>
+      <c r="L2" s="134"/>
+      <c r="M2" s="134"/>
+      <c r="N2" s="134"/>
       <c r="O2" s="26"/>
       <c r="P2" s="26"/>
       <c r="Q2" s="26"/>
       <c r="R2" s="26"/>
     </row>
-    <row r="3" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="130"/>
-      <c r="B3" s="130"/>
-      <c r="C3" s="130"/>
-      <c r="D3" s="130"/>
-      <c r="E3" s="130"/>
-      <c r="F3" s="130"/>
-      <c r="G3" s="130"/>
-      <c r="H3" s="130"/>
-      <c r="I3" s="130"/>
-      <c r="J3" s="130"/>
-      <c r="K3" s="130"/>
-      <c r="L3" s="130"/>
-      <c r="M3" s="130"/>
-      <c r="N3" s="130"/>
+    <row r="3" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="134"/>
+      <c r="B3" s="134"/>
+      <c r="C3" s="134"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="134"/>
+      <c r="F3" s="134"/>
+      <c r="G3" s="134"/>
+      <c r="H3" s="134"/>
+      <c r="I3" s="134"/>
+      <c r="J3" s="134"/>
+      <c r="K3" s="134"/>
+      <c r="L3" s="134"/>
+      <c r="M3" s="134"/>
+      <c r="N3" s="134"/>
       <c r="O3" s="26"/>
       <c r="P3" s="26"/>
       <c r="Q3" s="26"/>
       <c r="R3" s="26"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" s="22" t="s">
         <v>28</v>
       </c>
@@ -4644,7 +4662,7 @@
       </c>
       <c r="D4" s="31"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
         <v>29</v>
       </c>
@@ -4654,7 +4672,7 @@
       </c>
       <c r="D5" s="27"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" s="22" t="s">
         <v>30</v>
       </c>
@@ -4666,7 +4684,7 @@
       </c>
       <c r="D6" s="27"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="C7" s="21"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -4680,7 +4698,7 @@
       <c r="M7" s="21"/>
       <c r="N7" s="21"/>
     </row>
-    <row r="8" spans="1:18" s="30" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" s="30" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="32" t="s">
         <v>33</v>
       </c>
@@ -4724,12 +4742,18 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="25"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="131"/>
+      <c r="B9" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="E9" s="34"/>
       <c r="F9" s="25"/>
       <c r="G9" s="25"/>
       <c r="H9" s="25"/>
@@ -4740,12 +4764,12 @@
       <c r="M9" s="25"/>
       <c r="N9" s="25"/>
     </row>
-    <row r="10" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="25"/>
       <c r="B10" s="25"/>
       <c r="C10" s="25"/>
       <c r="D10" s="25"/>
-      <c r="E10" s="131"/>
+      <c r="E10" s="34"/>
       <c r="F10" s="25"/>
       <c r="G10" s="25"/>
       <c r="H10" s="25"/>
@@ -4756,12 +4780,12 @@
       <c r="M10" s="25"/>
       <c r="N10" s="25"/>
     </row>
-    <row r="11" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="25"/>
       <c r="B11" s="25"/>
       <c r="C11" s="25"/>
       <c r="D11" s="25"/>
-      <c r="E11" s="131"/>
+      <c r="E11" s="34"/>
       <c r="F11" s="25"/>
       <c r="G11" s="25"/>
       <c r="H11" s="25"/>
@@ -4772,12 +4796,12 @@
       <c r="M11" s="25"/>
       <c r="N11" s="25"/>
     </row>
-    <row r="12" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="25"/>
       <c r="B12" s="25"/>
       <c r="C12" s="25"/>
       <c r="D12" s="25"/>
-      <c r="E12" s="131"/>
+      <c r="E12" s="34"/>
       <c r="F12" s="25"/>
       <c r="G12" s="25"/>
       <c r="H12" s="25"/>
@@ -4788,12 +4812,12 @@
       <c r="M12" s="25"/>
       <c r="N12" s="25"/>
     </row>
-    <row r="13" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="25"/>
       <c r="B13" s="25"/>
       <c r="C13" s="25"/>
       <c r="D13" s="25"/>
-      <c r="E13" s="131"/>
+      <c r="E13" s="34"/>
       <c r="F13" s="25"/>
       <c r="G13" s="25"/>
       <c r="H13" s="25"/>
@@ -4804,12 +4828,12 @@
       <c r="M13" s="25"/>
       <c r="N13" s="25"/>
     </row>
-    <row r="14" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="25"/>
       <c r="B14" s="25"/>
       <c r="C14" s="25"/>
       <c r="D14" s="25"/>
-      <c r="E14" s="131"/>
+      <c r="E14" s="34"/>
       <c r="F14" s="25"/>
       <c r="G14" s="25"/>
       <c r="H14" s="25"/>
@@ -4820,12 +4844,12 @@
       <c r="M14" s="25"/>
       <c r="N14" s="25"/>
     </row>
-    <row r="15" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="25"/>
       <c r="B15" s="25"/>
       <c r="C15" s="25"/>
       <c r="D15" s="25"/>
-      <c r="E15" s="131"/>
+      <c r="E15" s="34"/>
       <c r="F15" s="25"/>
       <c r="G15" s="25"/>
       <c r="H15" s="25"/>
@@ -4836,12 +4860,12 @@
       <c r="M15" s="25"/>
       <c r="N15" s="25"/>
     </row>
-    <row r="16" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="25"/>
       <c r="B16" s="25"/>
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
-      <c r="E16" s="131"/>
+      <c r="E16" s="34"/>
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
       <c r="H16" s="25"/>
@@ -4852,12 +4876,12 @@
       <c r="M16" s="25"/>
       <c r="N16" s="25"/>
     </row>
-    <row r="17" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="25"/>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="25"/>
-      <c r="E17" s="131"/>
+      <c r="E17" s="34"/>
       <c r="F17" s="25"/>
       <c r="G17" s="25"/>
       <c r="H17" s="25"/>
@@ -4868,12 +4892,12 @@
       <c r="M17" s="25"/>
       <c r="N17" s="25"/>
     </row>
-    <row r="18" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="25"/>
       <c r="B18" s="25"/>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
-      <c r="E18" s="131"/>
+      <c r="E18" s="34"/>
       <c r="F18" s="25"/>
       <c r="G18" s="25"/>
       <c r="H18" s="25"/>
@@ -4884,12 +4908,12 @@
       <c r="M18" s="25"/>
       <c r="N18" s="25"/>
     </row>
-    <row r="19" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="25"/>
       <c r="B19" s="25"/>
       <c r="C19" s="25"/>
       <c r="D19" s="25"/>
-      <c r="E19" s="131"/>
+      <c r="E19" s="34"/>
       <c r="F19" s="25"/>
       <c r="G19" s="25"/>
       <c r="H19" s="25"/>
@@ -4900,12 +4924,12 @@
       <c r="M19" s="25"/>
       <c r="N19" s="25"/>
     </row>
-    <row r="20" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="25"/>
       <c r="B20" s="25"/>
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
-      <c r="E20" s="131"/>
+      <c r="E20" s="34"/>
       <c r="F20" s="25"/>
       <c r="G20" s="25"/>
       <c r="H20" s="25"/>
@@ -4916,12 +4940,12 @@
       <c r="M20" s="25"/>
       <c r="N20" s="25"/>
     </row>
-    <row r="21" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="25"/>
       <c r="B21" s="25"/>
       <c r="C21" s="25"/>
       <c r="D21" s="25"/>
-      <c r="E21" s="131"/>
+      <c r="E21" s="34"/>
       <c r="F21" s="25"/>
       <c r="G21" s="25"/>
       <c r="H21" s="25"/>
@@ -4932,12 +4956,12 @@
       <c r="M21" s="25"/>
       <c r="N21" s="25"/>
     </row>
-    <row r="22" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="25"/>
       <c r="B22" s="25"/>
       <c r="C22" s="25"/>
       <c r="D22" s="25"/>
-      <c r="E22" s="131"/>
+      <c r="E22" s="34"/>
       <c r="F22" s="25"/>
       <c r="G22" s="25"/>
       <c r="H22" s="25"/>
@@ -4948,12 +4972,12 @@
       <c r="M22" s="25"/>
       <c r="N22" s="25"/>
     </row>
-    <row r="23" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="25"/>
       <c r="B23" s="25"/>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
-      <c r="E23" s="131"/>
+      <c r="E23" s="34"/>
       <c r="F23" s="25"/>
       <c r="G23" s="25"/>
       <c r="H23" s="25"/>
@@ -4964,12 +4988,12 @@
       <c r="M23" s="25"/>
       <c r="N23" s="25"/>
     </row>
-    <row r="24" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="25"/>
       <c r="B24" s="25"/>
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
-      <c r="E24" s="131"/>
+      <c r="E24" s="34"/>
       <c r="F24" s="25"/>
       <c r="G24" s="25"/>
       <c r="H24" s="25"/>
@@ -4980,12 +5004,12 @@
       <c r="M24" s="25"/>
       <c r="N24" s="25"/>
     </row>
-    <row r="25" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="25"/>
       <c r="B25" s="25"/>
       <c r="C25" s="25"/>
       <c r="D25" s="25"/>
-      <c r="E25" s="131"/>
+      <c r="E25" s="34"/>
       <c r="F25" s="25"/>
       <c r="G25" s="25"/>
       <c r="H25" s="25"/>
@@ -4996,12 +5020,12 @@
       <c r="M25" s="25"/>
       <c r="N25" s="25"/>
     </row>
-    <row r="26" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="25"/>
       <c r="B26" s="25"/>
       <c r="C26" s="25"/>
       <c r="D26" s="25"/>
-      <c r="E26" s="131"/>
+      <c r="E26" s="34"/>
       <c r="F26" s="25"/>
       <c r="G26" s="25"/>
       <c r="H26" s="25"/>
@@ -5012,12 +5036,12 @@
       <c r="M26" s="25"/>
       <c r="N26" s="25"/>
     </row>
-    <row r="27" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="25"/>
       <c r="B27" s="25"/>
       <c r="C27" s="25"/>
       <c r="D27" s="25"/>
-      <c r="E27" s="131"/>
+      <c r="E27" s="34"/>
       <c r="F27" s="25"/>
       <c r="G27" s="25"/>
       <c r="H27" s="25"/>
@@ -5028,12 +5052,12 @@
       <c r="M27" s="25"/>
       <c r="N27" s="25"/>
     </row>
-    <row r="28" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="25"/>
       <c r="B28" s="25"/>
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
-      <c r="E28" s="131"/>
+      <c r="E28" s="34"/>
       <c r="F28" s="25"/>
       <c r="G28" s="25"/>
       <c r="H28" s="25"/>
@@ -5044,12 +5068,12 @@
       <c r="M28" s="25"/>
       <c r="N28" s="25"/>
     </row>
-    <row r="29" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="25"/>
       <c r="B29" s="25"/>
       <c r="C29" s="25"/>
       <c r="D29" s="25"/>
-      <c r="E29" s="131"/>
+      <c r="E29" s="34"/>
       <c r="F29" s="25"/>
       <c r="G29" s="25"/>
       <c r="H29" s="25"/>
@@ -5060,12 +5084,12 @@
       <c r="M29" s="25"/>
       <c r="N29" s="25"/>
     </row>
-    <row r="30" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="25"/>
       <c r="B30" s="25"/>
       <c r="C30" s="25"/>
       <c r="D30" s="25"/>
-      <c r="E30" s="131"/>
+      <c r="E30" s="34"/>
       <c r="F30" s="25"/>
       <c r="G30" s="25"/>
       <c r="H30" s="25"/>
@@ -5076,12 +5100,12 @@
       <c r="M30" s="25"/>
       <c r="N30" s="25"/>
     </row>
-    <row r="31" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="25"/>
       <c r="B31" s="25"/>
       <c r="C31" s="25"/>
       <c r="D31" s="25"/>
-      <c r="E31" s="131"/>
+      <c r="E31" s="34"/>
       <c r="F31" s="25"/>
       <c r="G31" s="25"/>
       <c r="H31" s="25"/>
@@ -5092,12 +5116,12 @@
       <c r="M31" s="25"/>
       <c r="N31" s="25"/>
     </row>
-    <row r="32" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="33"/>
       <c r="B32" s="33"/>
       <c r="C32" s="33"/>
       <c r="D32" s="25"/>
-      <c r="E32" s="131"/>
+      <c r="E32" s="34"/>
       <c r="F32" s="25"/>
       <c r="G32" s="25"/>
       <c r="H32" s="25"/>
@@ -5108,12 +5132,12 @@
       <c r="M32" s="25"/>
       <c r="N32" s="25"/>
     </row>
-    <row r="33" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="25"/>
       <c r="B33" s="25"/>
       <c r="C33" s="25"/>
       <c r="D33" s="25"/>
-      <c r="E33" s="131"/>
+      <c r="E33" s="34"/>
       <c r="F33" s="25"/>
       <c r="G33" s="25"/>
       <c r="H33" s="25"/>
@@ -5124,67 +5148,67 @@
       <c r="M33" s="25"/>
       <c r="N33" s="25"/>
     </row>
-    <row r="34" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D34" s="25"/>
-      <c r="E34" s="132"/>
-    </row>
-    <row r="35" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E34" s="35"/>
+    </row>
+    <row r="35" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E35">
         <f>SUM(E9:E34)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="37" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="38" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="39" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="40" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="41" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="42" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="43" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="44" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="45" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="46" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="47" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="48" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="50" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="51" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="52" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="53" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="54" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="55" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="56" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="57" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="58" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="59" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="60" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="61" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="62" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="63" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="64" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="65" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="66" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="67" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="68" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="69" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="70" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="71" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="72" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="73" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="74" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="75" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="76" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="77" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="78" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="79" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="80" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="81" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="82" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="83" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="84" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="85" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="86" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:N3"/>
@@ -5204,7 +5228,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5218,78 +5242,78 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="3" width="34.42578125" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" customWidth="1"/>
-    <col min="6" max="7" width="15.5703125" customWidth="1"/>
-    <col min="10" max="11" width="15.5703125" customWidth="1"/>
-    <col min="12" max="12" width="16.85546875" customWidth="1"/>
-    <col min="13" max="13" width="28.42578125" customWidth="1"/>
+    <col min="1" max="1" width="4.453125" customWidth="1"/>
+    <col min="2" max="2" width="16.453125" customWidth="1"/>
+    <col min="3" max="3" width="34.453125" customWidth="1"/>
+    <col min="4" max="4" width="16.26953125" customWidth="1"/>
+    <col min="6" max="7" width="15.54296875" customWidth="1"/>
+    <col min="10" max="11" width="15.54296875" customWidth="1"/>
+    <col min="12" max="12" width="16.81640625" customWidth="1"/>
+    <col min="13" max="13" width="28.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="130" t="s">
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="134" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
-      <c r="F1" s="130"/>
-      <c r="G1" s="130"/>
-      <c r="H1" s="130"/>
-      <c r="I1" s="130"/>
-      <c r="J1" s="130"/>
-      <c r="K1" s="130"/>
-      <c r="L1" s="130"/>
-      <c r="M1" s="130"/>
+      <c r="B1" s="134"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
+      <c r="G1" s="134"/>
+      <c r="H1" s="134"/>
+      <c r="I1" s="134"/>
+      <c r="J1" s="134"/>
+      <c r="K1" s="134"/>
+      <c r="L1" s="134"/>
+      <c r="M1" s="134"/>
       <c r="N1" s="26"/>
       <c r="O1" s="26"/>
       <c r="P1" s="26"/>
       <c r="Q1" s="26"/>
     </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="130"/>
-      <c r="B2" s="130"/>
-      <c r="C2" s="130"/>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="130"/>
-      <c r="I2" s="130"/>
-      <c r="J2" s="130"/>
-      <c r="K2" s="130"/>
-      <c r="L2" s="130"/>
-      <c r="M2" s="130"/>
+    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="134"/>
+      <c r="B2" s="134"/>
+      <c r="C2" s="134"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="134"/>
+      <c r="H2" s="134"/>
+      <c r="I2" s="134"/>
+      <c r="J2" s="134"/>
+      <c r="K2" s="134"/>
+      <c r="L2" s="134"/>
+      <c r="M2" s="134"/>
       <c r="N2" s="26"/>
       <c r="O2" s="26"/>
       <c r="P2" s="26"/>
       <c r="Q2" s="26"/>
     </row>
-    <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="130"/>
-      <c r="B3" s="130"/>
-      <c r="C3" s="130"/>
-      <c r="D3" s="130"/>
-      <c r="E3" s="130"/>
-      <c r="F3" s="130"/>
-      <c r="G3" s="130"/>
-      <c r="H3" s="130"/>
-      <c r="I3" s="130"/>
-      <c r="J3" s="130"/>
-      <c r="K3" s="130"/>
-      <c r="L3" s="130"/>
-      <c r="M3" s="130"/>
+    <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="134"/>
+      <c r="B3" s="134"/>
+      <c r="C3" s="134"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="134"/>
+      <c r="F3" s="134"/>
+      <c r="G3" s="134"/>
+      <c r="H3" s="134"/>
+      <c r="I3" s="134"/>
+      <c r="J3" s="134"/>
+      <c r="K3" s="134"/>
+      <c r="L3" s="134"/>
+      <c r="M3" s="134"/>
       <c r="N3" s="26"/>
       <c r="O3" s="26"/>
       <c r="P3" s="26"/>
       <c r="Q3" s="26"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="22" t="s">
         <v>28</v>
       </c>
@@ -5298,7 +5322,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
         <v>29</v>
       </c>
@@ -5307,7 +5331,7 @@
         <v>44087</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="22" t="s">
         <v>30</v>
       </c>
@@ -5316,7 +5340,7 @@
         <v>44097</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="C7" s="21"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -5329,7 +5353,7 @@
       <c r="L7" s="21"/>
       <c r="M7" s="21"/>
     </row>
-    <row r="8" spans="1:17" s="30" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" s="30" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="28" t="s">
         <v>33</v>
       </c>
@@ -5370,7 +5394,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="25"/>
       <c r="B9" s="25"/>
       <c r="C9" s="25"/>
@@ -5385,7 +5409,7 @@
       <c r="L9" s="25"/>
       <c r="M9" s="25"/>
     </row>
-    <row r="10" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="25"/>
       <c r="B10" s="25"/>
       <c r="C10" s="25"/>
@@ -5400,7 +5424,7 @@
       <c r="L10" s="25"/>
       <c r="M10" s="25"/>
     </row>
-    <row r="11" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="25"/>
       <c r="B11" s="25"/>
       <c r="C11" s="25"/>
@@ -5415,7 +5439,7 @@
       <c r="L11" s="25"/>
       <c r="M11" s="25"/>
     </row>
-    <row r="12" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="25"/>
       <c r="B12" s="25"/>
       <c r="C12" s="25"/>
@@ -5430,7 +5454,7 @@
       <c r="L12" s="25"/>
       <c r="M12" s="25"/>
     </row>
-    <row r="13" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="25"/>
       <c r="B13" s="25"/>
       <c r="C13" s="25"/>
@@ -5445,7 +5469,7 @@
       <c r="L13" s="25"/>
       <c r="M13" s="25"/>
     </row>
-    <row r="14" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="25"/>
       <c r="B14" s="25"/>
       <c r="C14" s="25"/>
@@ -5460,7 +5484,7 @@
       <c r="L14" s="25"/>
       <c r="M14" s="25"/>
     </row>
-    <row r="15" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="25"/>
       <c r="B15" s="25"/>
       <c r="C15" s="25"/>
@@ -5475,7 +5499,7 @@
       <c r="L15" s="25"/>
       <c r="M15" s="25"/>
     </row>
-    <row r="16" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="25"/>
       <c r="B16" s="25"/>
       <c r="C16" s="25"/>
@@ -5490,7 +5514,7 @@
       <c r="L16" s="25"/>
       <c r="M16" s="25"/>
     </row>
-    <row r="17" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="25"/>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
@@ -5505,7 +5529,7 @@
       <c r="L17" s="25"/>
       <c r="M17" s="25"/>
     </row>
-    <row r="18" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="25"/>
       <c r="B18" s="25"/>
       <c r="C18" s="25"/>
@@ -5520,7 +5544,7 @@
       <c r="L18" s="25"/>
       <c r="M18" s="25"/>
     </row>
-    <row r="19" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="25"/>
       <c r="B19" s="25"/>
       <c r="C19" s="25"/>
@@ -5535,7 +5559,7 @@
       <c r="L19" s="25"/>
       <c r="M19" s="25"/>
     </row>
-    <row r="20" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="25"/>
       <c r="B20" s="25"/>
       <c r="C20" s="25"/>
@@ -5550,7 +5574,7 @@
       <c r="L20" s="25"/>
       <c r="M20" s="25"/>
     </row>
-    <row r="21" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="25"/>
       <c r="B21" s="25"/>
       <c r="C21" s="25"/>
@@ -5565,7 +5589,7 @@
       <c r="L21" s="25"/>
       <c r="M21" s="25"/>
     </row>
-    <row r="22" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="25"/>
       <c r="B22" s="25"/>
       <c r="C22" s="25"/>
@@ -5580,7 +5604,7 @@
       <c r="L22" s="25"/>
       <c r="M22" s="25"/>
     </row>
-    <row r="23" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="25"/>
       <c r="B23" s="25"/>
       <c r="C23" s="25"/>
@@ -5595,7 +5619,7 @@
       <c r="L23" s="25"/>
       <c r="M23" s="25"/>
     </row>
-    <row r="24" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="25"/>
       <c r="B24" s="25"/>
       <c r="C24" s="25"/>
@@ -5610,7 +5634,7 @@
       <c r="L24" s="25"/>
       <c r="M24" s="25"/>
     </row>
-    <row r="25" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="25"/>
       <c r="B25" s="25"/>
       <c r="C25" s="25"/>
@@ -5625,7 +5649,7 @@
       <c r="L25" s="25"/>
       <c r="M25" s="25"/>
     </row>
-    <row r="26" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="25"/>
       <c r="B26" s="25"/>
       <c r="C26" s="25"/>
@@ -5640,7 +5664,7 @@
       <c r="L26" s="25"/>
       <c r="M26" s="25"/>
     </row>
-    <row r="27" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="25"/>
       <c r="B27" s="25"/>
       <c r="C27" s="25"/>
@@ -5655,7 +5679,7 @@
       <c r="L27" s="25"/>
       <c r="M27" s="25"/>
     </row>
-    <row r="28" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="25"/>
       <c r="B28" s="25"/>
       <c r="C28" s="25"/>
@@ -5670,7 +5694,7 @@
       <c r="L28" s="25"/>
       <c r="M28" s="25"/>
     </row>
-    <row r="29" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="25"/>
       <c r="B29" s="25"/>
       <c r="C29" s="25"/>
@@ -5685,7 +5709,7 @@
       <c r="L29" s="25"/>
       <c r="M29" s="25"/>
     </row>
-    <row r="30" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="25"/>
       <c r="B30" s="25"/>
       <c r="C30" s="25"/>
@@ -5700,7 +5724,7 @@
       <c r="L30" s="25"/>
       <c r="M30" s="25"/>
     </row>
-    <row r="31" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="25"/>
       <c r="B31" s="25"/>
       <c r="C31" s="25"/>
@@ -5715,7 +5739,7 @@
       <c r="L31" s="25"/>
       <c r="M31" s="25"/>
     </row>
-    <row r="32" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="25"/>
       <c r="B32" s="25"/>
       <c r="C32" s="25"/>
@@ -5730,7 +5754,7 @@
       <c r="L32" s="25"/>
       <c r="M32" s="25"/>
     </row>
-    <row r="33" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="25"/>
       <c r="B33" s="25"/>
       <c r="C33" s="25"/>
@@ -5745,7 +5769,7 @@
       <c r="L33" s="25"/>
       <c r="M33" s="25"/>
     </row>
-    <row r="34" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="25"/>
       <c r="B34" s="25"/>
       <c r="C34" s="25"/>
@@ -5760,7 +5784,7 @@
       <c r="L34" s="25"/>
       <c r="M34" s="25"/>
     </row>
-    <row r="35" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="25"/>
       <c r="B35" s="25"/>
       <c r="C35" s="25"/>
@@ -5775,7 +5799,7 @@
       <c r="L35" s="25"/>
       <c r="M35" s="25"/>
     </row>
-    <row r="36" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="25"/>
       <c r="B36" s="25"/>
       <c r="C36" s="25"/>
@@ -5790,7 +5814,7 @@
       <c r="L36" s="25"/>
       <c r="M36" s="25"/>
     </row>
-    <row r="37" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="25"/>
       <c r="B37" s="25"/>
       <c r="C37" s="25"/>
@@ -5805,7 +5829,7 @@
       <c r="L37" s="25"/>
       <c r="M37" s="25"/>
     </row>
-    <row r="38" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="25"/>
       <c r="B38" s="25"/>
       <c r="C38" s="25"/>
@@ -5820,7 +5844,7 @@
       <c r="L38" s="25"/>
       <c r="M38" s="25"/>
     </row>
-    <row r="39" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="25"/>
       <c r="B39" s="25"/>
       <c r="C39" s="25"/>
@@ -5835,59 +5859,59 @@
       <c r="L39" s="25"/>
       <c r="M39" s="25"/>
     </row>
-    <row r="40" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="41" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="42" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="43" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="44" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="45" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="46" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="47" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="48" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="50" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="51" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="52" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="53" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="54" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="55" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="56" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="57" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="58" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="59" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="60" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="61" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="62" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="63" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="64" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="65" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="66" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="67" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="68" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="69" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="70" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="71" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="72" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="73" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="74" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="75" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="76" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="77" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="78" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="79" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="80" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="81" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="82" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="83" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="84" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="85" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="86" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="87" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="88" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="89" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="90" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="91" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="92" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:M3"/>

--- a/Project Management/MVP/MVP schedule.xlsx
+++ b/Project Management/MVP/MVP schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\iamtete_document\Project Management\MVP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\company\client\iamtete\iamtete_document\Project Management\MVP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96F213CD-73F2-4CEC-8C96-5349233BA88D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70876E5E-2A69-4025-AE39-A9A45E7F90C6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Master Schedule" sheetId="1" r:id="rId1"/>
@@ -19,26 +19,17 @@
     <sheet name="APISpec-Activity" sheetId="3" r:id="rId4"/>
     <sheet name="Coding-Activity" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="109">
   <si>
     <t>SCOPE OF WORK</t>
   </si>
@@ -362,6 +353,9 @@
   </si>
   <si>
     <t>Mobile</t>
+  </si>
+  <si>
+    <t>My Assignment</t>
   </si>
 </sst>
 </file>
@@ -991,6 +985,57 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1227,57 +1272,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1781,581 +1775,581 @@
       <selection activeCell="AD34" sqref="AD34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="1"/>
-    <col min="2" max="20" width="3.7265625" style="1" customWidth="1"/>
-    <col min="21" max="68" width="4.1796875" style="1" customWidth="1"/>
-    <col min="69" max="82" width="3.7265625" style="1" customWidth="1"/>
-    <col min="83" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="20" width="3.7109375" style="1" customWidth="1"/>
+    <col min="21" max="68" width="4.140625" style="1" customWidth="1"/>
+    <col min="69" max="82" width="3.7109375" style="1" customWidth="1"/>
+    <col min="83" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:68" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:68" x14ac:dyDescent="0.35">
-      <c r="B2" s="38" t="s">
+    <row r="1" spans="2:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:68" x14ac:dyDescent="0.25">
+      <c r="B2" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="39"/>
-      <c r="R2" s="39"/>
-      <c r="S2" s="39"/>
-      <c r="T2" s="40"/>
-      <c r="U2" s="117" t="s">
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="56"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="57"/>
+      <c r="U2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="V2" s="118"/>
-      <c r="W2" s="118"/>
-      <c r="X2" s="118"/>
-      <c r="Y2" s="118"/>
-      <c r="Z2" s="118"/>
-      <c r="AA2" s="118"/>
-      <c r="AB2" s="119"/>
-      <c r="AC2" s="117" t="s">
+      <c r="V2" s="39"/>
+      <c r="W2" s="39"/>
+      <c r="X2" s="39"/>
+      <c r="Y2" s="39"/>
+      <c r="Z2" s="39"/>
+      <c r="AA2" s="39"/>
+      <c r="AB2" s="53"/>
+      <c r="AC2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="AD2" s="118"/>
-      <c r="AE2" s="118"/>
-      <c r="AF2" s="118"/>
-      <c r="AG2" s="118"/>
-      <c r="AH2" s="118"/>
-      <c r="AI2" s="118"/>
-      <c r="AJ2" s="118"/>
-      <c r="AK2" s="118"/>
-      <c r="AL2" s="123"/>
-      <c r="AM2" s="117" t="s">
+      <c r="AD2" s="39"/>
+      <c r="AE2" s="39"/>
+      <c r="AF2" s="39"/>
+      <c r="AG2" s="39"/>
+      <c r="AH2" s="39"/>
+      <c r="AI2" s="39"/>
+      <c r="AJ2" s="39"/>
+      <c r="AK2" s="39"/>
+      <c r="AL2" s="40"/>
+      <c r="AM2" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="AN2" s="118"/>
-      <c r="AO2" s="118"/>
-      <c r="AP2" s="118"/>
-      <c r="AQ2" s="118"/>
-      <c r="AR2" s="118"/>
-      <c r="AS2" s="118"/>
-      <c r="AT2" s="118"/>
-      <c r="AU2" s="118"/>
-      <c r="AV2" s="123"/>
-      <c r="AW2" s="117" t="s">
+      <c r="AN2" s="39"/>
+      <c r="AO2" s="39"/>
+      <c r="AP2" s="39"/>
+      <c r="AQ2" s="39"/>
+      <c r="AR2" s="39"/>
+      <c r="AS2" s="39"/>
+      <c r="AT2" s="39"/>
+      <c r="AU2" s="39"/>
+      <c r="AV2" s="40"/>
+      <c r="AW2" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="AX2" s="118"/>
-      <c r="AY2" s="118"/>
-      <c r="AZ2" s="118"/>
-      <c r="BA2" s="118"/>
-      <c r="BB2" s="118"/>
-      <c r="BC2" s="118"/>
-      <c r="BD2" s="118"/>
-      <c r="BE2" s="118"/>
-      <c r="BF2" s="123"/>
-      <c r="BG2" s="117" t="s">
+      <c r="AX2" s="39"/>
+      <c r="AY2" s="39"/>
+      <c r="AZ2" s="39"/>
+      <c r="BA2" s="39"/>
+      <c r="BB2" s="39"/>
+      <c r="BC2" s="39"/>
+      <c r="BD2" s="39"/>
+      <c r="BE2" s="39"/>
+      <c r="BF2" s="40"/>
+      <c r="BG2" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="BH2" s="118"/>
-      <c r="BI2" s="118"/>
-      <c r="BJ2" s="118"/>
-      <c r="BK2" s="118"/>
-      <c r="BL2" s="118"/>
-      <c r="BM2" s="118"/>
-      <c r="BN2" s="118"/>
-      <c r="BO2" s="118"/>
-      <c r="BP2" s="123"/>
-    </row>
-    <row r="3" spans="2:68" x14ac:dyDescent="0.35">
-      <c r="B3" s="41"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="42"/>
-      <c r="S3" s="42"/>
-      <c r="T3" s="43"/>
-      <c r="U3" s="120"/>
-      <c r="V3" s="121"/>
-      <c r="W3" s="121"/>
-      <c r="X3" s="121"/>
-      <c r="Y3" s="121"/>
-      <c r="Z3" s="121"/>
-      <c r="AA3" s="121"/>
-      <c r="AB3" s="122"/>
-      <c r="AC3" s="120"/>
-      <c r="AD3" s="121"/>
-      <c r="AE3" s="121"/>
-      <c r="AF3" s="121"/>
-      <c r="AG3" s="121"/>
-      <c r="AH3" s="121"/>
-      <c r="AI3" s="121"/>
-      <c r="AJ3" s="121"/>
-      <c r="AK3" s="121"/>
-      <c r="AL3" s="124"/>
-      <c r="AM3" s="120"/>
-      <c r="AN3" s="121"/>
-      <c r="AO3" s="121"/>
-      <c r="AP3" s="121"/>
-      <c r="AQ3" s="121"/>
-      <c r="AR3" s="121"/>
-      <c r="AS3" s="121"/>
-      <c r="AT3" s="121"/>
-      <c r="AU3" s="121"/>
-      <c r="AV3" s="124"/>
-      <c r="AW3" s="120"/>
-      <c r="AX3" s="121"/>
-      <c r="AY3" s="121"/>
-      <c r="AZ3" s="121"/>
-      <c r="BA3" s="121"/>
-      <c r="BB3" s="121"/>
-      <c r="BC3" s="121"/>
-      <c r="BD3" s="121"/>
-      <c r="BE3" s="121"/>
-      <c r="BF3" s="124"/>
-      <c r="BG3" s="120"/>
-      <c r="BH3" s="121"/>
-      <c r="BI3" s="121"/>
-      <c r="BJ3" s="121"/>
-      <c r="BK3" s="121"/>
-      <c r="BL3" s="121"/>
-      <c r="BM3" s="121"/>
-      <c r="BN3" s="121"/>
-      <c r="BO3" s="121"/>
-      <c r="BP3" s="124"/>
-    </row>
-    <row r="4" spans="2:68" x14ac:dyDescent="0.35">
-      <c r="B4" s="41"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="42"/>
-      <c r="R4" s="42"/>
-      <c r="S4" s="42"/>
-      <c r="T4" s="43"/>
-      <c r="U4" s="125" t="s">
+      <c r="BH2" s="39"/>
+      <c r="BI2" s="39"/>
+      <c r="BJ2" s="39"/>
+      <c r="BK2" s="39"/>
+      <c r="BL2" s="39"/>
+      <c r="BM2" s="39"/>
+      <c r="BN2" s="39"/>
+      <c r="BO2" s="39"/>
+      <c r="BP2" s="40"/>
+    </row>
+    <row r="3" spans="2:68" x14ac:dyDescent="0.25">
+      <c r="B3" s="58"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="59"/>
+      <c r="P3" s="59"/>
+      <c r="Q3" s="59"/>
+      <c r="R3" s="59"/>
+      <c r="S3" s="59"/>
+      <c r="T3" s="60"/>
+      <c r="U3" s="41"/>
+      <c r="V3" s="42"/>
+      <c r="W3" s="42"/>
+      <c r="X3" s="42"/>
+      <c r="Y3" s="42"/>
+      <c r="Z3" s="42"/>
+      <c r="AA3" s="42"/>
+      <c r="AB3" s="54"/>
+      <c r="AC3" s="41"/>
+      <c r="AD3" s="42"/>
+      <c r="AE3" s="42"/>
+      <c r="AF3" s="42"/>
+      <c r="AG3" s="42"/>
+      <c r="AH3" s="42"/>
+      <c r="AI3" s="42"/>
+      <c r="AJ3" s="42"/>
+      <c r="AK3" s="42"/>
+      <c r="AL3" s="43"/>
+      <c r="AM3" s="41"/>
+      <c r="AN3" s="42"/>
+      <c r="AO3" s="42"/>
+      <c r="AP3" s="42"/>
+      <c r="AQ3" s="42"/>
+      <c r="AR3" s="42"/>
+      <c r="AS3" s="42"/>
+      <c r="AT3" s="42"/>
+      <c r="AU3" s="42"/>
+      <c r="AV3" s="43"/>
+      <c r="AW3" s="41"/>
+      <c r="AX3" s="42"/>
+      <c r="AY3" s="42"/>
+      <c r="AZ3" s="42"/>
+      <c r="BA3" s="42"/>
+      <c r="BB3" s="42"/>
+      <c r="BC3" s="42"/>
+      <c r="BD3" s="42"/>
+      <c r="BE3" s="42"/>
+      <c r="BF3" s="43"/>
+      <c r="BG3" s="41"/>
+      <c r="BH3" s="42"/>
+      <c r="BI3" s="42"/>
+      <c r="BJ3" s="42"/>
+      <c r="BK3" s="42"/>
+      <c r="BL3" s="42"/>
+      <c r="BM3" s="42"/>
+      <c r="BN3" s="42"/>
+      <c r="BO3" s="42"/>
+      <c r="BP3" s="43"/>
+    </row>
+    <row r="4" spans="2:68" x14ac:dyDescent="0.25">
+      <c r="B4" s="58"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="59"/>
+      <c r="M4" s="59"/>
+      <c r="N4" s="59"/>
+      <c r="O4" s="59"/>
+      <c r="P4" s="59"/>
+      <c r="Q4" s="59"/>
+      <c r="R4" s="59"/>
+      <c r="S4" s="59"/>
+      <c r="T4" s="60"/>
+      <c r="U4" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="V4" s="131"/>
-      <c r="W4" s="125" t="s">
+      <c r="V4" s="45"/>
+      <c r="W4" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="X4" s="131"/>
-      <c r="Y4" s="125" t="s">
+      <c r="X4" s="45"/>
+      <c r="Y4" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="Z4" s="131"/>
-      <c r="AA4" s="125" t="s">
+      <c r="Z4" s="45"/>
+      <c r="AA4" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="AB4" s="131"/>
-      <c r="AC4" s="125" t="s">
+      <c r="AB4" s="45"/>
+      <c r="AC4" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="AD4" s="131"/>
-      <c r="AE4" s="125" t="s">
+      <c r="AD4" s="45"/>
+      <c r="AE4" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="AF4" s="131"/>
-      <c r="AG4" s="125" t="s">
+      <c r="AF4" s="45"/>
+      <c r="AG4" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="AH4" s="131"/>
-      <c r="AI4" s="125" t="s">
+      <c r="AH4" s="45"/>
+      <c r="AI4" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="AJ4" s="131"/>
-      <c r="AK4" s="125" t="s">
+      <c r="AJ4" s="45"/>
+      <c r="AK4" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="AL4" s="126"/>
-      <c r="AM4" s="125" t="s">
+      <c r="AL4" s="50"/>
+      <c r="AM4" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="AN4" s="131"/>
-      <c r="AO4" s="125" t="s">
+      <c r="AN4" s="45"/>
+      <c r="AO4" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="AP4" s="131"/>
-      <c r="AQ4" s="125" t="s">
+      <c r="AP4" s="45"/>
+      <c r="AQ4" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="AR4" s="131"/>
-      <c r="AS4" s="125" t="s">
+      <c r="AR4" s="45"/>
+      <c r="AS4" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="AT4" s="131"/>
-      <c r="AU4" s="125" t="s">
+      <c r="AT4" s="45"/>
+      <c r="AU4" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="AV4" s="126"/>
-      <c r="AW4" s="125" t="s">
+      <c r="AV4" s="50"/>
+      <c r="AW4" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="AX4" s="131"/>
-      <c r="AY4" s="125" t="s">
+      <c r="AX4" s="45"/>
+      <c r="AY4" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="AZ4" s="131"/>
-      <c r="BA4" s="125" t="s">
+      <c r="AZ4" s="45"/>
+      <c r="BA4" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="BB4" s="131"/>
-      <c r="BC4" s="125" t="s">
+      <c r="BB4" s="45"/>
+      <c r="BC4" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="BD4" s="131"/>
-      <c r="BE4" s="125" t="s">
+      <c r="BD4" s="45"/>
+      <c r="BE4" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="BF4" s="126"/>
-      <c r="BG4" s="125" t="s">
+      <c r="BF4" s="50"/>
+      <c r="BG4" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="BH4" s="131"/>
-      <c r="BI4" s="125" t="s">
+      <c r="BH4" s="45"/>
+      <c r="BI4" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="BJ4" s="131"/>
-      <c r="BK4" s="125" t="s">
+      <c r="BJ4" s="45"/>
+      <c r="BK4" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="BL4" s="131"/>
-      <c r="BM4" s="125" t="s">
+      <c r="BL4" s="45"/>
+      <c r="BM4" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="BN4" s="131"/>
-      <c r="BO4" s="125" t="s">
+      <c r="BN4" s="45"/>
+      <c r="BO4" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="BP4" s="126"/>
-    </row>
-    <row r="5" spans="2:68" x14ac:dyDescent="0.35">
-      <c r="B5" s="41"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="42"/>
-      <c r="O5" s="42"/>
-      <c r="P5" s="42"/>
-      <c r="Q5" s="42"/>
-      <c r="R5" s="42"/>
-      <c r="S5" s="42"/>
-      <c r="T5" s="43"/>
-      <c r="U5" s="127"/>
-      <c r="V5" s="132"/>
-      <c r="W5" s="127"/>
-      <c r="X5" s="132"/>
-      <c r="Y5" s="127"/>
-      <c r="Z5" s="132"/>
-      <c r="AA5" s="127"/>
-      <c r="AB5" s="132"/>
-      <c r="AC5" s="127"/>
-      <c r="AD5" s="132"/>
-      <c r="AE5" s="127"/>
-      <c r="AF5" s="132"/>
-      <c r="AG5" s="127"/>
-      <c r="AH5" s="132"/>
-      <c r="AI5" s="127"/>
-      <c r="AJ5" s="132"/>
-      <c r="AK5" s="127"/>
-      <c r="AL5" s="128"/>
-      <c r="AM5" s="127"/>
-      <c r="AN5" s="132"/>
-      <c r="AO5" s="127"/>
-      <c r="AP5" s="132"/>
-      <c r="AQ5" s="127"/>
-      <c r="AR5" s="132"/>
-      <c r="AS5" s="127"/>
-      <c r="AT5" s="132"/>
-      <c r="AU5" s="127"/>
-      <c r="AV5" s="128"/>
-      <c r="AW5" s="127"/>
-      <c r="AX5" s="132"/>
-      <c r="AY5" s="127"/>
-      <c r="AZ5" s="132"/>
-      <c r="BA5" s="127"/>
-      <c r="BB5" s="132"/>
-      <c r="BC5" s="127"/>
-      <c r="BD5" s="132"/>
-      <c r="BE5" s="127"/>
-      <c r="BF5" s="128"/>
-      <c r="BG5" s="127"/>
-      <c r="BH5" s="132"/>
-      <c r="BI5" s="127"/>
-      <c r="BJ5" s="132"/>
-      <c r="BK5" s="127"/>
-      <c r="BL5" s="132"/>
-      <c r="BM5" s="127"/>
-      <c r="BN5" s="132"/>
-      <c r="BO5" s="127"/>
-      <c r="BP5" s="128"/>
-    </row>
-    <row r="6" spans="2:68" x14ac:dyDescent="0.35">
-      <c r="B6" s="41"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="42"/>
-      <c r="M6" s="42"/>
-      <c r="N6" s="42"/>
-      <c r="O6" s="42"/>
-      <c r="P6" s="42"/>
-      <c r="Q6" s="42"/>
-      <c r="R6" s="42"/>
-      <c r="S6" s="42"/>
-      <c r="T6" s="43"/>
-      <c r="U6" s="127"/>
-      <c r="V6" s="132"/>
-      <c r="W6" s="127"/>
-      <c r="X6" s="132"/>
-      <c r="Y6" s="127"/>
-      <c r="Z6" s="132"/>
-      <c r="AA6" s="127"/>
-      <c r="AB6" s="132"/>
-      <c r="AC6" s="127"/>
-      <c r="AD6" s="132"/>
-      <c r="AE6" s="127"/>
-      <c r="AF6" s="132"/>
-      <c r="AG6" s="127"/>
-      <c r="AH6" s="132"/>
-      <c r="AI6" s="127"/>
-      <c r="AJ6" s="132"/>
-      <c r="AK6" s="127"/>
-      <c r="AL6" s="128"/>
-      <c r="AM6" s="127"/>
-      <c r="AN6" s="132"/>
-      <c r="AO6" s="127"/>
-      <c r="AP6" s="132"/>
-      <c r="AQ6" s="127"/>
-      <c r="AR6" s="132"/>
-      <c r="AS6" s="127"/>
-      <c r="AT6" s="132"/>
-      <c r="AU6" s="127"/>
-      <c r="AV6" s="128"/>
-      <c r="AW6" s="127"/>
-      <c r="AX6" s="132"/>
-      <c r="AY6" s="127"/>
-      <c r="AZ6" s="132"/>
-      <c r="BA6" s="127"/>
-      <c r="BB6" s="132"/>
-      <c r="BC6" s="127"/>
-      <c r="BD6" s="132"/>
-      <c r="BE6" s="127"/>
-      <c r="BF6" s="128"/>
-      <c r="BG6" s="127"/>
-      <c r="BH6" s="132"/>
-      <c r="BI6" s="127"/>
-      <c r="BJ6" s="132"/>
-      <c r="BK6" s="127"/>
-      <c r="BL6" s="132"/>
-      <c r="BM6" s="127"/>
-      <c r="BN6" s="132"/>
-      <c r="BO6" s="127"/>
-      <c r="BP6" s="128"/>
-    </row>
-    <row r="7" spans="2:68" x14ac:dyDescent="0.35">
-      <c r="B7" s="41"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42"/>
-      <c r="O7" s="42"/>
-      <c r="P7" s="42"/>
-      <c r="Q7" s="42"/>
-      <c r="R7" s="42"/>
-      <c r="S7" s="42"/>
-      <c r="T7" s="43"/>
-      <c r="U7" s="127"/>
-      <c r="V7" s="132"/>
-      <c r="W7" s="127"/>
-      <c r="X7" s="132"/>
-      <c r="Y7" s="127"/>
-      <c r="Z7" s="132"/>
-      <c r="AA7" s="127"/>
-      <c r="AB7" s="132"/>
-      <c r="AC7" s="127"/>
-      <c r="AD7" s="132"/>
-      <c r="AE7" s="127"/>
-      <c r="AF7" s="132"/>
-      <c r="AG7" s="127"/>
-      <c r="AH7" s="132"/>
-      <c r="AI7" s="127"/>
-      <c r="AJ7" s="132"/>
-      <c r="AK7" s="127"/>
-      <c r="AL7" s="128"/>
-      <c r="AM7" s="127"/>
-      <c r="AN7" s="132"/>
-      <c r="AO7" s="127"/>
-      <c r="AP7" s="132"/>
-      <c r="AQ7" s="127"/>
-      <c r="AR7" s="132"/>
-      <c r="AS7" s="127"/>
-      <c r="AT7" s="132"/>
-      <c r="AU7" s="127"/>
-      <c r="AV7" s="128"/>
-      <c r="AW7" s="127"/>
-      <c r="AX7" s="132"/>
-      <c r="AY7" s="127"/>
-      <c r="AZ7" s="132"/>
-      <c r="BA7" s="127"/>
-      <c r="BB7" s="132"/>
-      <c r="BC7" s="127"/>
-      <c r="BD7" s="132"/>
-      <c r="BE7" s="127"/>
-      <c r="BF7" s="128"/>
-      <c r="BG7" s="127"/>
-      <c r="BH7" s="132"/>
-      <c r="BI7" s="127"/>
-      <c r="BJ7" s="132"/>
-      <c r="BK7" s="127"/>
-      <c r="BL7" s="132"/>
-      <c r="BM7" s="127"/>
-      <c r="BN7" s="132"/>
-      <c r="BO7" s="127"/>
-      <c r="BP7" s="128"/>
-    </row>
-    <row r="8" spans="2:68" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="44"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="45"/>
-      <c r="N8" s="45"/>
-      <c r="O8" s="45"/>
-      <c r="P8" s="45"/>
-      <c r="Q8" s="45"/>
-      <c r="R8" s="45"/>
-      <c r="S8" s="45"/>
-      <c r="T8" s="46"/>
-      <c r="U8" s="129"/>
-      <c r="V8" s="133"/>
-      <c r="W8" s="129"/>
-      <c r="X8" s="133"/>
-      <c r="Y8" s="129"/>
-      <c r="Z8" s="133"/>
-      <c r="AA8" s="129"/>
-      <c r="AB8" s="133"/>
-      <c r="AC8" s="129"/>
-      <c r="AD8" s="133"/>
-      <c r="AE8" s="129"/>
-      <c r="AF8" s="133"/>
-      <c r="AG8" s="129"/>
-      <c r="AH8" s="133"/>
-      <c r="AI8" s="129"/>
-      <c r="AJ8" s="133"/>
-      <c r="AK8" s="129"/>
-      <c r="AL8" s="130"/>
-      <c r="AM8" s="129"/>
-      <c r="AN8" s="133"/>
-      <c r="AO8" s="129"/>
-      <c r="AP8" s="133"/>
-      <c r="AQ8" s="129"/>
-      <c r="AR8" s="133"/>
-      <c r="AS8" s="129"/>
-      <c r="AT8" s="133"/>
-      <c r="AU8" s="129"/>
-      <c r="AV8" s="130"/>
-      <c r="AW8" s="129"/>
-      <c r="AX8" s="133"/>
-      <c r="AY8" s="129"/>
-      <c r="AZ8" s="133"/>
-      <c r="BA8" s="129"/>
-      <c r="BB8" s="133"/>
-      <c r="BC8" s="129"/>
-      <c r="BD8" s="133"/>
-      <c r="BE8" s="129"/>
-      <c r="BF8" s="130"/>
-      <c r="BG8" s="129"/>
-      <c r="BH8" s="133"/>
-      <c r="BI8" s="129"/>
-      <c r="BJ8" s="133"/>
-      <c r="BK8" s="129"/>
-      <c r="BL8" s="133"/>
-      <c r="BM8" s="129"/>
-      <c r="BN8" s="133"/>
-      <c r="BO8" s="129"/>
-      <c r="BP8" s="130"/>
-    </row>
-    <row r="9" spans="2:68" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="47" t="s">
+      <c r="BP4" s="50"/>
+    </row>
+    <row r="5" spans="2:68" x14ac:dyDescent="0.25">
+      <c r="B5" s="58"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="59"/>
+      <c r="L5" s="59"/>
+      <c r="M5" s="59"/>
+      <c r="N5" s="59"/>
+      <c r="O5" s="59"/>
+      <c r="P5" s="59"/>
+      <c r="Q5" s="59"/>
+      <c r="R5" s="59"/>
+      <c r="S5" s="59"/>
+      <c r="T5" s="60"/>
+      <c r="U5" s="46"/>
+      <c r="V5" s="47"/>
+      <c r="W5" s="46"/>
+      <c r="X5" s="47"/>
+      <c r="Y5" s="46"/>
+      <c r="Z5" s="47"/>
+      <c r="AA5" s="46"/>
+      <c r="AB5" s="47"/>
+      <c r="AC5" s="46"/>
+      <c r="AD5" s="47"/>
+      <c r="AE5" s="46"/>
+      <c r="AF5" s="47"/>
+      <c r="AG5" s="46"/>
+      <c r="AH5" s="47"/>
+      <c r="AI5" s="46"/>
+      <c r="AJ5" s="47"/>
+      <c r="AK5" s="46"/>
+      <c r="AL5" s="51"/>
+      <c r="AM5" s="46"/>
+      <c r="AN5" s="47"/>
+      <c r="AO5" s="46"/>
+      <c r="AP5" s="47"/>
+      <c r="AQ5" s="46"/>
+      <c r="AR5" s="47"/>
+      <c r="AS5" s="46"/>
+      <c r="AT5" s="47"/>
+      <c r="AU5" s="46"/>
+      <c r="AV5" s="51"/>
+      <c r="AW5" s="46"/>
+      <c r="AX5" s="47"/>
+      <c r="AY5" s="46"/>
+      <c r="AZ5" s="47"/>
+      <c r="BA5" s="46"/>
+      <c r="BB5" s="47"/>
+      <c r="BC5" s="46"/>
+      <c r="BD5" s="47"/>
+      <c r="BE5" s="46"/>
+      <c r="BF5" s="51"/>
+      <c r="BG5" s="46"/>
+      <c r="BH5" s="47"/>
+      <c r="BI5" s="46"/>
+      <c r="BJ5" s="47"/>
+      <c r="BK5" s="46"/>
+      <c r="BL5" s="47"/>
+      <c r="BM5" s="46"/>
+      <c r="BN5" s="47"/>
+      <c r="BO5" s="46"/>
+      <c r="BP5" s="51"/>
+    </row>
+    <row r="6" spans="2:68" x14ac:dyDescent="0.25">
+      <c r="B6" s="58"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="59"/>
+      <c r="J6" s="59"/>
+      <c r="K6" s="59"/>
+      <c r="L6" s="59"/>
+      <c r="M6" s="59"/>
+      <c r="N6" s="59"/>
+      <c r="O6" s="59"/>
+      <c r="P6" s="59"/>
+      <c r="Q6" s="59"/>
+      <c r="R6" s="59"/>
+      <c r="S6" s="59"/>
+      <c r="T6" s="60"/>
+      <c r="U6" s="46"/>
+      <c r="V6" s="47"/>
+      <c r="W6" s="46"/>
+      <c r="X6" s="47"/>
+      <c r="Y6" s="46"/>
+      <c r="Z6" s="47"/>
+      <c r="AA6" s="46"/>
+      <c r="AB6" s="47"/>
+      <c r="AC6" s="46"/>
+      <c r="AD6" s="47"/>
+      <c r="AE6" s="46"/>
+      <c r="AF6" s="47"/>
+      <c r="AG6" s="46"/>
+      <c r="AH6" s="47"/>
+      <c r="AI6" s="46"/>
+      <c r="AJ6" s="47"/>
+      <c r="AK6" s="46"/>
+      <c r="AL6" s="51"/>
+      <c r="AM6" s="46"/>
+      <c r="AN6" s="47"/>
+      <c r="AO6" s="46"/>
+      <c r="AP6" s="47"/>
+      <c r="AQ6" s="46"/>
+      <c r="AR6" s="47"/>
+      <c r="AS6" s="46"/>
+      <c r="AT6" s="47"/>
+      <c r="AU6" s="46"/>
+      <c r="AV6" s="51"/>
+      <c r="AW6" s="46"/>
+      <c r="AX6" s="47"/>
+      <c r="AY6" s="46"/>
+      <c r="AZ6" s="47"/>
+      <c r="BA6" s="46"/>
+      <c r="BB6" s="47"/>
+      <c r="BC6" s="46"/>
+      <c r="BD6" s="47"/>
+      <c r="BE6" s="46"/>
+      <c r="BF6" s="51"/>
+      <c r="BG6" s="46"/>
+      <c r="BH6" s="47"/>
+      <c r="BI6" s="46"/>
+      <c r="BJ6" s="47"/>
+      <c r="BK6" s="46"/>
+      <c r="BL6" s="47"/>
+      <c r="BM6" s="46"/>
+      <c r="BN6" s="47"/>
+      <c r="BO6" s="46"/>
+      <c r="BP6" s="51"/>
+    </row>
+    <row r="7" spans="2:68" x14ac:dyDescent="0.25">
+      <c r="B7" s="58"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
+      <c r="K7" s="59"/>
+      <c r="L7" s="59"/>
+      <c r="M7" s="59"/>
+      <c r="N7" s="59"/>
+      <c r="O7" s="59"/>
+      <c r="P7" s="59"/>
+      <c r="Q7" s="59"/>
+      <c r="R7" s="59"/>
+      <c r="S7" s="59"/>
+      <c r="T7" s="60"/>
+      <c r="U7" s="46"/>
+      <c r="V7" s="47"/>
+      <c r="W7" s="46"/>
+      <c r="X7" s="47"/>
+      <c r="Y7" s="46"/>
+      <c r="Z7" s="47"/>
+      <c r="AA7" s="46"/>
+      <c r="AB7" s="47"/>
+      <c r="AC7" s="46"/>
+      <c r="AD7" s="47"/>
+      <c r="AE7" s="46"/>
+      <c r="AF7" s="47"/>
+      <c r="AG7" s="46"/>
+      <c r="AH7" s="47"/>
+      <c r="AI7" s="46"/>
+      <c r="AJ7" s="47"/>
+      <c r="AK7" s="46"/>
+      <c r="AL7" s="51"/>
+      <c r="AM7" s="46"/>
+      <c r="AN7" s="47"/>
+      <c r="AO7" s="46"/>
+      <c r="AP7" s="47"/>
+      <c r="AQ7" s="46"/>
+      <c r="AR7" s="47"/>
+      <c r="AS7" s="46"/>
+      <c r="AT7" s="47"/>
+      <c r="AU7" s="46"/>
+      <c r="AV7" s="51"/>
+      <c r="AW7" s="46"/>
+      <c r="AX7" s="47"/>
+      <c r="AY7" s="46"/>
+      <c r="AZ7" s="47"/>
+      <c r="BA7" s="46"/>
+      <c r="BB7" s="47"/>
+      <c r="BC7" s="46"/>
+      <c r="BD7" s="47"/>
+      <c r="BE7" s="46"/>
+      <c r="BF7" s="51"/>
+      <c r="BG7" s="46"/>
+      <c r="BH7" s="47"/>
+      <c r="BI7" s="46"/>
+      <c r="BJ7" s="47"/>
+      <c r="BK7" s="46"/>
+      <c r="BL7" s="47"/>
+      <c r="BM7" s="46"/>
+      <c r="BN7" s="47"/>
+      <c r="BO7" s="46"/>
+      <c r="BP7" s="51"/>
+    </row>
+    <row r="8" spans="2:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="61"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="62"/>
+      <c r="K8" s="62"/>
+      <c r="L8" s="62"/>
+      <c r="M8" s="62"/>
+      <c r="N8" s="62"/>
+      <c r="O8" s="62"/>
+      <c r="P8" s="62"/>
+      <c r="Q8" s="62"/>
+      <c r="R8" s="62"/>
+      <c r="S8" s="62"/>
+      <c r="T8" s="63"/>
+      <c r="U8" s="48"/>
+      <c r="V8" s="49"/>
+      <c r="W8" s="48"/>
+      <c r="X8" s="49"/>
+      <c r="Y8" s="48"/>
+      <c r="Z8" s="49"/>
+      <c r="AA8" s="48"/>
+      <c r="AB8" s="49"/>
+      <c r="AC8" s="48"/>
+      <c r="AD8" s="49"/>
+      <c r="AE8" s="48"/>
+      <c r="AF8" s="49"/>
+      <c r="AG8" s="48"/>
+      <c r="AH8" s="49"/>
+      <c r="AI8" s="48"/>
+      <c r="AJ8" s="49"/>
+      <c r="AK8" s="48"/>
+      <c r="AL8" s="52"/>
+      <c r="AM8" s="48"/>
+      <c r="AN8" s="49"/>
+      <c r="AO8" s="48"/>
+      <c r="AP8" s="49"/>
+      <c r="AQ8" s="48"/>
+      <c r="AR8" s="49"/>
+      <c r="AS8" s="48"/>
+      <c r="AT8" s="49"/>
+      <c r="AU8" s="48"/>
+      <c r="AV8" s="52"/>
+      <c r="AW8" s="48"/>
+      <c r="AX8" s="49"/>
+      <c r="AY8" s="48"/>
+      <c r="AZ8" s="49"/>
+      <c r="BA8" s="48"/>
+      <c r="BB8" s="49"/>
+      <c r="BC8" s="48"/>
+      <c r="BD8" s="49"/>
+      <c r="BE8" s="48"/>
+      <c r="BF8" s="52"/>
+      <c r="BG8" s="48"/>
+      <c r="BH8" s="49"/>
+      <c r="BI8" s="48"/>
+      <c r="BJ8" s="49"/>
+      <c r="BK8" s="48"/>
+      <c r="BL8" s="49"/>
+      <c r="BM8" s="48"/>
+      <c r="BN8" s="49"/>
+      <c r="BO8" s="48"/>
+      <c r="BP8" s="52"/>
+    </row>
+    <row r="9" spans="2:68" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="48"/>
-      <c r="K9" s="48"/>
-      <c r="L9" s="48"/>
-      <c r="M9" s="48"/>
-      <c r="N9" s="48"/>
-      <c r="O9" s="48"/>
-      <c r="P9" s="48"/>
-      <c r="Q9" s="48"/>
-      <c r="R9" s="48"/>
-      <c r="S9" s="48"/>
-      <c r="T9" s="49"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="65"/>
+      <c r="J9" s="65"/>
+      <c r="K9" s="65"/>
+      <c r="L9" s="65"/>
+      <c r="M9" s="65"/>
+      <c r="N9" s="65"/>
+      <c r="O9" s="65"/>
+      <c r="P9" s="65"/>
+      <c r="Q9" s="65"/>
+      <c r="R9" s="65"/>
+      <c r="S9" s="65"/>
+      <c r="T9" s="66"/>
       <c r="U9" s="6"/>
       <c r="V9" s="6"/>
       <c r="W9" s="6"/>
@@ -2405,26 +2399,26 @@
       <c r="BO9" s="6"/>
       <c r="BP9" s="7"/>
     </row>
-    <row r="10" spans="2:68" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="50"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="51"/>
-      <c r="M10" s="51"/>
-      <c r="N10" s="51"/>
-      <c r="O10" s="51"/>
-      <c r="P10" s="51"/>
-      <c r="Q10" s="51"/>
-      <c r="R10" s="51"/>
-      <c r="S10" s="51"/>
-      <c r="T10" s="52"/>
+    <row r="10" spans="2:68" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="67"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="68"/>
+      <c r="I10" s="68"/>
+      <c r="J10" s="68"/>
+      <c r="K10" s="68"/>
+      <c r="L10" s="68"/>
+      <c r="M10" s="68"/>
+      <c r="N10" s="68"/>
+      <c r="O10" s="68"/>
+      <c r="P10" s="68"/>
+      <c r="Q10" s="68"/>
+      <c r="R10" s="68"/>
+      <c r="S10" s="68"/>
+      <c r="T10" s="69"/>
       <c r="U10" s="2"/>
       <c r="V10" s="2"/>
       <c r="W10" s="2"/>
@@ -2474,32 +2468,32 @@
       <c r="BO10" s="2"/>
       <c r="BP10" s="3"/>
     </row>
-    <row r="11" spans="2:68" x14ac:dyDescent="0.35">
-      <c r="B11" s="108" t="s">
+    <row r="11" spans="2:68" x14ac:dyDescent="0.25">
+      <c r="B11" s="125" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="109"/>
-      <c r="D11" s="109"/>
-      <c r="E11" s="109"/>
-      <c r="F11" s="109"/>
-      <c r="G11" s="109"/>
-      <c r="H11" s="109"/>
-      <c r="I11" s="110"/>
-      <c r="J11" s="63" t="s">
+      <c r="C11" s="126"/>
+      <c r="D11" s="126"/>
+      <c r="E11" s="126"/>
+      <c r="F11" s="126"/>
+      <c r="G11" s="126"/>
+      <c r="H11" s="126"/>
+      <c r="I11" s="127"/>
+      <c r="J11" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="K11" s="64"/>
-      <c r="L11" s="64"/>
-      <c r="M11" s="65"/>
-      <c r="N11" s="72" t="s">
+      <c r="K11" s="81"/>
+      <c r="L11" s="81"/>
+      <c r="M11" s="82"/>
+      <c r="N11" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="O11" s="73"/>
-      <c r="P11" s="73"/>
-      <c r="Q11" s="73"/>
-      <c r="R11" s="73"/>
-      <c r="S11" s="73"/>
-      <c r="T11" s="74"/>
+      <c r="O11" s="90"/>
+      <c r="P11" s="90"/>
+      <c r="Q11" s="90"/>
+      <c r="R11" s="90"/>
+      <c r="S11" s="90"/>
+      <c r="T11" s="91"/>
       <c r="U11" s="2"/>
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
@@ -2549,26 +2543,26 @@
       <c r="BO11" s="2"/>
       <c r="BP11" s="3"/>
     </row>
-    <row r="12" spans="2:68" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="111"/>
-      <c r="C12" s="112"/>
-      <c r="D12" s="112"/>
-      <c r="E12" s="112"/>
-      <c r="F12" s="112"/>
-      <c r="G12" s="112"/>
-      <c r="H12" s="112"/>
-      <c r="I12" s="113"/>
-      <c r="J12" s="66"/>
-      <c r="K12" s="67"/>
-      <c r="L12" s="67"/>
-      <c r="M12" s="68"/>
-      <c r="N12" s="75"/>
-      <c r="O12" s="76"/>
-      <c r="P12" s="76"/>
-      <c r="Q12" s="76"/>
-      <c r="R12" s="76"/>
-      <c r="S12" s="76"/>
-      <c r="T12" s="77"/>
+    <row r="12" spans="2:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="128"/>
+      <c r="C12" s="129"/>
+      <c r="D12" s="129"/>
+      <c r="E12" s="129"/>
+      <c r="F12" s="129"/>
+      <c r="G12" s="129"/>
+      <c r="H12" s="129"/>
+      <c r="I12" s="130"/>
+      <c r="J12" s="83"/>
+      <c r="K12" s="84"/>
+      <c r="L12" s="84"/>
+      <c r="M12" s="85"/>
+      <c r="N12" s="92"/>
+      <c r="O12" s="93"/>
+      <c r="P12" s="93"/>
+      <c r="Q12" s="93"/>
+      <c r="R12" s="93"/>
+      <c r="S12" s="93"/>
+      <c r="T12" s="94"/>
       <c r="U12" s="2"/>
       <c r="V12" s="2"/>
       <c r="W12" s="2"/>
@@ -2618,28 +2612,28 @@
       <c r="BO12" s="2"/>
       <c r="BP12" s="3"/>
     </row>
-    <row r="13" spans="2:68" x14ac:dyDescent="0.35">
-      <c r="B13" s="111"/>
-      <c r="C13" s="112"/>
-      <c r="D13" s="112"/>
-      <c r="E13" s="112"/>
-      <c r="F13" s="112"/>
-      <c r="G13" s="112"/>
-      <c r="H13" s="112"/>
-      <c r="I13" s="113"/>
-      <c r="J13" s="66"/>
-      <c r="K13" s="67"/>
-      <c r="L13" s="67"/>
-      <c r="M13" s="68"/>
-      <c r="N13" s="78" t="s">
+    <row r="13" spans="2:68" x14ac:dyDescent="0.25">
+      <c r="B13" s="128"/>
+      <c r="C13" s="129"/>
+      <c r="D13" s="129"/>
+      <c r="E13" s="129"/>
+      <c r="F13" s="129"/>
+      <c r="G13" s="129"/>
+      <c r="H13" s="129"/>
+      <c r="I13" s="130"/>
+      <c r="J13" s="83"/>
+      <c r="K13" s="84"/>
+      <c r="L13" s="84"/>
+      <c r="M13" s="85"/>
+      <c r="N13" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="O13" s="79"/>
-      <c r="P13" s="79"/>
-      <c r="Q13" s="79"/>
-      <c r="R13" s="79"/>
-      <c r="S13" s="79"/>
-      <c r="T13" s="80"/>
+      <c r="O13" s="96"/>
+      <c r="P13" s="96"/>
+      <c r="Q13" s="96"/>
+      <c r="R13" s="96"/>
+      <c r="S13" s="96"/>
+      <c r="T13" s="97"/>
       <c r="U13" s="2"/>
       <c r="V13" s="2"/>
       <c r="W13" s="2"/>
@@ -2689,26 +2683,26 @@
       <c r="BO13" s="2"/>
       <c r="BP13" s="3"/>
     </row>
-    <row r="14" spans="2:68" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="111"/>
-      <c r="C14" s="112"/>
-      <c r="D14" s="112"/>
-      <c r="E14" s="112"/>
-      <c r="F14" s="112"/>
-      <c r="G14" s="112"/>
-      <c r="H14" s="112"/>
-      <c r="I14" s="113"/>
-      <c r="J14" s="69"/>
-      <c r="K14" s="70"/>
-      <c r="L14" s="70"/>
-      <c r="M14" s="71"/>
-      <c r="N14" s="81"/>
-      <c r="O14" s="82"/>
-      <c r="P14" s="82"/>
-      <c r="Q14" s="82"/>
-      <c r="R14" s="82"/>
-      <c r="S14" s="82"/>
-      <c r="T14" s="83"/>
+    <row r="14" spans="2:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="128"/>
+      <c r="C14" s="129"/>
+      <c r="D14" s="129"/>
+      <c r="E14" s="129"/>
+      <c r="F14" s="129"/>
+      <c r="G14" s="129"/>
+      <c r="H14" s="129"/>
+      <c r="I14" s="130"/>
+      <c r="J14" s="86"/>
+      <c r="K14" s="87"/>
+      <c r="L14" s="87"/>
+      <c r="M14" s="88"/>
+      <c r="N14" s="98"/>
+      <c r="O14" s="99"/>
+      <c r="P14" s="99"/>
+      <c r="Q14" s="99"/>
+      <c r="R14" s="99"/>
+      <c r="S14" s="99"/>
+      <c r="T14" s="100"/>
       <c r="U14" s="2"/>
       <c r="V14" s="2"/>
       <c r="W14" s="2"/>
@@ -2758,30 +2752,30 @@
       <c r="BO14" s="2"/>
       <c r="BP14" s="3"/>
     </row>
-    <row r="15" spans="2:68" x14ac:dyDescent="0.35">
-      <c r="B15" s="111"/>
-      <c r="C15" s="112"/>
-      <c r="D15" s="112"/>
-      <c r="E15" s="112"/>
-      <c r="F15" s="112"/>
-      <c r="G15" s="112"/>
-      <c r="H15" s="112"/>
-      <c r="I15" s="113"/>
-      <c r="J15" s="63" t="s">
+    <row r="15" spans="2:68" x14ac:dyDescent="0.25">
+      <c r="B15" s="128"/>
+      <c r="C15" s="129"/>
+      <c r="D15" s="129"/>
+      <c r="E15" s="129"/>
+      <c r="F15" s="129"/>
+      <c r="G15" s="129"/>
+      <c r="H15" s="129"/>
+      <c r="I15" s="130"/>
+      <c r="J15" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="K15" s="64"/>
-      <c r="L15" s="64"/>
-      <c r="M15" s="65"/>
-      <c r="N15" s="84" t="s">
+      <c r="K15" s="81"/>
+      <c r="L15" s="81"/>
+      <c r="M15" s="82"/>
+      <c r="N15" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="O15" s="85"/>
-      <c r="P15" s="85"/>
-      <c r="Q15" s="85"/>
-      <c r="R15" s="85"/>
-      <c r="S15" s="85"/>
-      <c r="T15" s="86"/>
+      <c r="O15" s="102"/>
+      <c r="P15" s="102"/>
+      <c r="Q15" s="102"/>
+      <c r="R15" s="102"/>
+      <c r="S15" s="102"/>
+      <c r="T15" s="103"/>
       <c r="U15" s="2"/>
       <c r="V15" s="2"/>
       <c r="W15" s="2"/>
@@ -2831,26 +2825,26 @@
       <c r="BO15" s="2"/>
       <c r="BP15" s="3"/>
     </row>
-    <row r="16" spans="2:68" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="111"/>
-      <c r="C16" s="112"/>
-      <c r="D16" s="112"/>
-      <c r="E16" s="112"/>
-      <c r="F16" s="112"/>
-      <c r="G16" s="112"/>
-      <c r="H16" s="112"/>
-      <c r="I16" s="113"/>
-      <c r="J16" s="66"/>
-      <c r="K16" s="67"/>
-      <c r="L16" s="67"/>
-      <c r="M16" s="68"/>
-      <c r="N16" s="87"/>
-      <c r="O16" s="88"/>
-      <c r="P16" s="88"/>
-      <c r="Q16" s="88"/>
-      <c r="R16" s="88"/>
-      <c r="S16" s="88"/>
-      <c r="T16" s="89"/>
+    <row r="16" spans="2:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="128"/>
+      <c r="C16" s="129"/>
+      <c r="D16" s="129"/>
+      <c r="E16" s="129"/>
+      <c r="F16" s="129"/>
+      <c r="G16" s="129"/>
+      <c r="H16" s="129"/>
+      <c r="I16" s="130"/>
+      <c r="J16" s="83"/>
+      <c r="K16" s="84"/>
+      <c r="L16" s="84"/>
+      <c r="M16" s="85"/>
+      <c r="N16" s="104"/>
+      <c r="O16" s="105"/>
+      <c r="P16" s="105"/>
+      <c r="Q16" s="105"/>
+      <c r="R16" s="105"/>
+      <c r="S16" s="105"/>
+      <c r="T16" s="106"/>
       <c r="U16" s="2"/>
       <c r="V16" s="2"/>
       <c r="W16" s="2"/>
@@ -2900,28 +2894,28 @@
       <c r="BO16" s="2"/>
       <c r="BP16" s="3"/>
     </row>
-    <row r="17" spans="2:68" x14ac:dyDescent="0.35">
-      <c r="B17" s="111"/>
-      <c r="C17" s="112"/>
-      <c r="D17" s="112"/>
-      <c r="E17" s="112"/>
-      <c r="F17" s="112"/>
-      <c r="G17" s="112"/>
-      <c r="H17" s="112"/>
-      <c r="I17" s="113"/>
-      <c r="J17" s="66"/>
-      <c r="K17" s="67"/>
-      <c r="L17" s="67"/>
-      <c r="M17" s="68"/>
-      <c r="N17" s="90" t="s">
+    <row r="17" spans="2:68" x14ac:dyDescent="0.25">
+      <c r="B17" s="128"/>
+      <c r="C17" s="129"/>
+      <c r="D17" s="129"/>
+      <c r="E17" s="129"/>
+      <c r="F17" s="129"/>
+      <c r="G17" s="129"/>
+      <c r="H17" s="129"/>
+      <c r="I17" s="130"/>
+      <c r="J17" s="83"/>
+      <c r="K17" s="84"/>
+      <c r="L17" s="84"/>
+      <c r="M17" s="85"/>
+      <c r="N17" s="107" t="s">
         <v>18</v>
       </c>
-      <c r="O17" s="91"/>
-      <c r="P17" s="91"/>
-      <c r="Q17" s="91"/>
-      <c r="R17" s="91"/>
-      <c r="S17" s="91"/>
-      <c r="T17" s="92"/>
+      <c r="O17" s="108"/>
+      <c r="P17" s="108"/>
+      <c r="Q17" s="108"/>
+      <c r="R17" s="108"/>
+      <c r="S17" s="108"/>
+      <c r="T17" s="109"/>
       <c r="U17" s="2"/>
       <c r="V17" s="2"/>
       <c r="W17" s="2"/>
@@ -2971,26 +2965,26 @@
       <c r="BO17" s="2"/>
       <c r="BP17" s="3"/>
     </row>
-    <row r="18" spans="2:68" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="111"/>
-      <c r="C18" s="112"/>
-      <c r="D18" s="112"/>
-      <c r="E18" s="112"/>
-      <c r="F18" s="112"/>
-      <c r="G18" s="112"/>
-      <c r="H18" s="112"/>
-      <c r="I18" s="113"/>
-      <c r="J18" s="66"/>
-      <c r="K18" s="67"/>
-      <c r="L18" s="67"/>
-      <c r="M18" s="68"/>
-      <c r="N18" s="93"/>
-      <c r="O18" s="94"/>
-      <c r="P18" s="94"/>
-      <c r="Q18" s="94"/>
-      <c r="R18" s="94"/>
-      <c r="S18" s="94"/>
-      <c r="T18" s="95"/>
+    <row r="18" spans="2:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="128"/>
+      <c r="C18" s="129"/>
+      <c r="D18" s="129"/>
+      <c r="E18" s="129"/>
+      <c r="F18" s="129"/>
+      <c r="G18" s="129"/>
+      <c r="H18" s="129"/>
+      <c r="I18" s="130"/>
+      <c r="J18" s="83"/>
+      <c r="K18" s="84"/>
+      <c r="L18" s="84"/>
+      <c r="M18" s="85"/>
+      <c r="N18" s="110"/>
+      <c r="O18" s="111"/>
+      <c r="P18" s="111"/>
+      <c r="Q18" s="111"/>
+      <c r="R18" s="111"/>
+      <c r="S18" s="111"/>
+      <c r="T18" s="112"/>
       <c r="U18" s="2"/>
       <c r="V18" s="2"/>
       <c r="W18" s="2"/>
@@ -3040,28 +3034,28 @@
       <c r="BO18" s="2"/>
       <c r="BP18" s="3"/>
     </row>
-    <row r="19" spans="2:68" x14ac:dyDescent="0.35">
-      <c r="B19" s="111"/>
-      <c r="C19" s="112"/>
-      <c r="D19" s="112"/>
-      <c r="E19" s="112"/>
-      <c r="F19" s="112"/>
-      <c r="G19" s="112"/>
-      <c r="H19" s="112"/>
-      <c r="I19" s="113"/>
-      <c r="J19" s="66"/>
-      <c r="K19" s="67"/>
-      <c r="L19" s="67"/>
-      <c r="M19" s="68"/>
-      <c r="N19" s="96" t="s">
+    <row r="19" spans="2:68" x14ac:dyDescent="0.25">
+      <c r="B19" s="128"/>
+      <c r="C19" s="129"/>
+      <c r="D19" s="129"/>
+      <c r="E19" s="129"/>
+      <c r="F19" s="129"/>
+      <c r="G19" s="129"/>
+      <c r="H19" s="129"/>
+      <c r="I19" s="130"/>
+      <c r="J19" s="83"/>
+      <c r="K19" s="84"/>
+      <c r="L19" s="84"/>
+      <c r="M19" s="85"/>
+      <c r="N19" s="113" t="s">
         <v>19</v>
       </c>
-      <c r="O19" s="97"/>
-      <c r="P19" s="97"/>
-      <c r="Q19" s="97"/>
-      <c r="R19" s="97"/>
-      <c r="S19" s="97"/>
-      <c r="T19" s="98"/>
+      <c r="O19" s="114"/>
+      <c r="P19" s="114"/>
+      <c r="Q19" s="114"/>
+      <c r="R19" s="114"/>
+      <c r="S19" s="114"/>
+      <c r="T19" s="115"/>
       <c r="U19" s="2"/>
       <c r="V19" s="2"/>
       <c r="W19" s="2"/>
@@ -3111,26 +3105,26 @@
       <c r="BO19" s="2"/>
       <c r="BP19" s="3"/>
     </row>
-    <row r="20" spans="2:68" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="111"/>
-      <c r="C20" s="112"/>
-      <c r="D20" s="112"/>
-      <c r="E20" s="112"/>
-      <c r="F20" s="112"/>
-      <c r="G20" s="112"/>
-      <c r="H20" s="112"/>
-      <c r="I20" s="113"/>
-      <c r="J20" s="66"/>
-      <c r="K20" s="67"/>
-      <c r="L20" s="67"/>
-      <c r="M20" s="68"/>
-      <c r="N20" s="99"/>
-      <c r="O20" s="100"/>
-      <c r="P20" s="100"/>
-      <c r="Q20" s="100"/>
-      <c r="R20" s="100"/>
-      <c r="S20" s="100"/>
-      <c r="T20" s="101"/>
+    <row r="20" spans="2:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="128"/>
+      <c r="C20" s="129"/>
+      <c r="D20" s="129"/>
+      <c r="E20" s="129"/>
+      <c r="F20" s="129"/>
+      <c r="G20" s="129"/>
+      <c r="H20" s="129"/>
+      <c r="I20" s="130"/>
+      <c r="J20" s="83"/>
+      <c r="K20" s="84"/>
+      <c r="L20" s="84"/>
+      <c r="M20" s="85"/>
+      <c r="N20" s="116"/>
+      <c r="O20" s="117"/>
+      <c r="P20" s="117"/>
+      <c r="Q20" s="117"/>
+      <c r="R20" s="117"/>
+      <c r="S20" s="117"/>
+      <c r="T20" s="118"/>
       <c r="U20" s="2"/>
       <c r="V20" s="2"/>
       <c r="W20" s="2"/>
@@ -3180,28 +3174,28 @@
       <c r="BO20" s="2"/>
       <c r="BP20" s="3"/>
     </row>
-    <row r="21" spans="2:68" x14ac:dyDescent="0.35">
-      <c r="B21" s="111"/>
-      <c r="C21" s="112"/>
-      <c r="D21" s="112"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="112"/>
-      <c r="G21" s="112"/>
-      <c r="H21" s="112"/>
-      <c r="I21" s="113"/>
-      <c r="J21" s="66"/>
-      <c r="K21" s="67"/>
-      <c r="L21" s="67"/>
-      <c r="M21" s="68"/>
-      <c r="N21" s="102" t="s">
+    <row r="21" spans="2:68" x14ac:dyDescent="0.25">
+      <c r="B21" s="128"/>
+      <c r="C21" s="129"/>
+      <c r="D21" s="129"/>
+      <c r="E21" s="129"/>
+      <c r="F21" s="129"/>
+      <c r="G21" s="129"/>
+      <c r="H21" s="129"/>
+      <c r="I21" s="130"/>
+      <c r="J21" s="83"/>
+      <c r="K21" s="84"/>
+      <c r="L21" s="84"/>
+      <c r="M21" s="85"/>
+      <c r="N21" s="119" t="s">
         <v>20</v>
       </c>
-      <c r="O21" s="103"/>
-      <c r="P21" s="103"/>
-      <c r="Q21" s="103"/>
-      <c r="R21" s="103"/>
-      <c r="S21" s="103"/>
-      <c r="T21" s="104"/>
+      <c r="O21" s="120"/>
+      <c r="P21" s="120"/>
+      <c r="Q21" s="120"/>
+      <c r="R21" s="120"/>
+      <c r="S21" s="120"/>
+      <c r="T21" s="121"/>
       <c r="U21" s="2"/>
       <c r="V21" s="2"/>
       <c r="W21" s="2"/>
@@ -3251,26 +3245,26 @@
       <c r="BO21" s="2"/>
       <c r="BP21" s="3"/>
     </row>
-    <row r="22" spans="2:68" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="114"/>
-      <c r="C22" s="115"/>
-      <c r="D22" s="115"/>
-      <c r="E22" s="115"/>
-      <c r="F22" s="115"/>
-      <c r="G22" s="115"/>
-      <c r="H22" s="115"/>
-      <c r="I22" s="116"/>
-      <c r="J22" s="69"/>
-      <c r="K22" s="70"/>
-      <c r="L22" s="70"/>
-      <c r="M22" s="71"/>
-      <c r="N22" s="105"/>
-      <c r="O22" s="106"/>
-      <c r="P22" s="106"/>
-      <c r="Q22" s="106"/>
-      <c r="R22" s="106"/>
-      <c r="S22" s="106"/>
-      <c r="T22" s="107"/>
+    <row r="22" spans="2:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="131"/>
+      <c r="C22" s="132"/>
+      <c r="D22" s="132"/>
+      <c r="E22" s="132"/>
+      <c r="F22" s="132"/>
+      <c r="G22" s="132"/>
+      <c r="H22" s="132"/>
+      <c r="I22" s="133"/>
+      <c r="J22" s="86"/>
+      <c r="K22" s="87"/>
+      <c r="L22" s="87"/>
+      <c r="M22" s="88"/>
+      <c r="N22" s="122"/>
+      <c r="O22" s="123"/>
+      <c r="P22" s="123"/>
+      <c r="Q22" s="123"/>
+      <c r="R22" s="123"/>
+      <c r="S22" s="123"/>
+      <c r="T22" s="124"/>
       <c r="U22" s="2"/>
       <c r="V22" s="2"/>
       <c r="W22" s="2"/>
@@ -3320,28 +3314,28 @@
       <c r="BO22" s="2"/>
       <c r="BP22" s="3"/>
     </row>
-    <row r="23" spans="2:68" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="57" t="s">
+    <row r="23" spans="2:68" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="58"/>
-      <c r="D23" s="58"/>
-      <c r="E23" s="58"/>
-      <c r="F23" s="58"/>
-      <c r="G23" s="58"/>
-      <c r="H23" s="58"/>
-      <c r="I23" s="58"/>
-      <c r="J23" s="58"/>
-      <c r="K23" s="58"/>
-      <c r="L23" s="58"/>
-      <c r="M23" s="58"/>
-      <c r="N23" s="58"/>
-      <c r="O23" s="58"/>
-      <c r="P23" s="58"/>
-      <c r="Q23" s="58"/>
-      <c r="R23" s="58"/>
-      <c r="S23" s="58"/>
-      <c r="T23" s="59"/>
+      <c r="C23" s="75"/>
+      <c r="D23" s="75"/>
+      <c r="E23" s="75"/>
+      <c r="F23" s="75"/>
+      <c r="G23" s="75"/>
+      <c r="H23" s="75"/>
+      <c r="I23" s="75"/>
+      <c r="J23" s="75"/>
+      <c r="K23" s="75"/>
+      <c r="L23" s="75"/>
+      <c r="M23" s="75"/>
+      <c r="N23" s="75"/>
+      <c r="O23" s="75"/>
+      <c r="P23" s="75"/>
+      <c r="Q23" s="75"/>
+      <c r="R23" s="75"/>
+      <c r="S23" s="75"/>
+      <c r="T23" s="76"/>
       <c r="U23" s="2"/>
       <c r="V23" s="2"/>
       <c r="W23" s="2"/>
@@ -3390,26 +3384,26 @@
       <c r="BO23" s="2"/>
       <c r="BP23" s="3"/>
     </row>
-    <row r="24" spans="2:68" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="60"/>
-      <c r="C24" s="61"/>
-      <c r="D24" s="61"/>
-      <c r="E24" s="61"/>
-      <c r="F24" s="61"/>
-      <c r="G24" s="61"/>
-      <c r="H24" s="61"/>
-      <c r="I24" s="61"/>
-      <c r="J24" s="61"/>
-      <c r="K24" s="61"/>
-      <c r="L24" s="61"/>
-      <c r="M24" s="61"/>
-      <c r="N24" s="61"/>
-      <c r="O24" s="61"/>
-      <c r="P24" s="61"/>
-      <c r="Q24" s="61"/>
-      <c r="R24" s="61"/>
-      <c r="S24" s="61"/>
-      <c r="T24" s="62"/>
+    <row r="24" spans="2:68" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="77"/>
+      <c r="C24" s="78"/>
+      <c r="D24" s="78"/>
+      <c r="E24" s="78"/>
+      <c r="F24" s="78"/>
+      <c r="G24" s="78"/>
+      <c r="H24" s="78"/>
+      <c r="I24" s="78"/>
+      <c r="J24" s="78"/>
+      <c r="K24" s="78"/>
+      <c r="L24" s="78"/>
+      <c r="M24" s="78"/>
+      <c r="N24" s="78"/>
+      <c r="O24" s="78"/>
+      <c r="P24" s="78"/>
+      <c r="Q24" s="78"/>
+      <c r="R24" s="78"/>
+      <c r="S24" s="78"/>
+      <c r="T24" s="79"/>
       <c r="U24" s="2"/>
       <c r="V24" s="2"/>
       <c r="W24" s="2"/>
@@ -3459,28 +3453,28 @@
       <c r="BO24" s="2"/>
       <c r="BP24" s="3"/>
     </row>
-    <row r="25" spans="2:68" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="53" t="s">
+    <row r="25" spans="2:68" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="54"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="54"/>
-      <c r="G25" s="54"/>
-      <c r="H25" s="54"/>
-      <c r="I25" s="54"/>
-      <c r="J25" s="54"/>
-      <c r="K25" s="54"/>
-      <c r="L25" s="54"/>
-      <c r="M25" s="54"/>
-      <c r="N25" s="54"/>
-      <c r="O25" s="54"/>
-      <c r="P25" s="54"/>
-      <c r="Q25" s="54"/>
-      <c r="R25" s="54"/>
-      <c r="S25" s="54"/>
-      <c r="T25" s="54"/>
+      <c r="C25" s="71"/>
+      <c r="D25" s="71"/>
+      <c r="E25" s="71"/>
+      <c r="F25" s="71"/>
+      <c r="G25" s="71"/>
+      <c r="H25" s="71"/>
+      <c r="I25" s="71"/>
+      <c r="J25" s="71"/>
+      <c r="K25" s="71"/>
+      <c r="L25" s="71"/>
+      <c r="M25" s="71"/>
+      <c r="N25" s="71"/>
+      <c r="O25" s="71"/>
+      <c r="P25" s="71"/>
+      <c r="Q25" s="71"/>
+      <c r="R25" s="71"/>
+      <c r="S25" s="71"/>
+      <c r="T25" s="71"/>
       <c r="U25" s="2"/>
       <c r="V25" s="2"/>
       <c r="W25" s="2"/>
@@ -3530,26 +3524,26 @@
       <c r="BO25" s="2"/>
       <c r="BP25" s="3"/>
     </row>
-    <row r="26" spans="2:68" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="55"/>
-      <c r="C26" s="56"/>
-      <c r="D26" s="56"/>
-      <c r="E26" s="56"/>
-      <c r="F26" s="56"/>
-      <c r="G26" s="56"/>
-      <c r="H26" s="56"/>
-      <c r="I26" s="56"/>
-      <c r="J26" s="56"/>
-      <c r="K26" s="56"/>
-      <c r="L26" s="56"/>
-      <c r="M26" s="56"/>
-      <c r="N26" s="56"/>
-      <c r="O26" s="56"/>
-      <c r="P26" s="56"/>
-      <c r="Q26" s="56"/>
-      <c r="R26" s="56"/>
-      <c r="S26" s="56"/>
-      <c r="T26" s="56"/>
+    <row r="26" spans="2:68" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="72"/>
+      <c r="C26" s="73"/>
+      <c r="D26" s="73"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="73"/>
+      <c r="H26" s="73"/>
+      <c r="I26" s="73"/>
+      <c r="J26" s="73"/>
+      <c r="K26" s="73"/>
+      <c r="L26" s="73"/>
+      <c r="M26" s="73"/>
+      <c r="N26" s="73"/>
+      <c r="O26" s="73"/>
+      <c r="P26" s="73"/>
+      <c r="Q26" s="73"/>
+      <c r="R26" s="73"/>
+      <c r="S26" s="73"/>
+      <c r="T26" s="73"/>
       <c r="U26" s="4"/>
       <c r="V26" s="4"/>
       <c r="W26" s="4"/>
@@ -3601,35 +3595,6 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="BG2:BP3"/>
-    <mergeCell ref="BG4:BH8"/>
-    <mergeCell ref="BI4:BJ8"/>
-    <mergeCell ref="BK4:BL8"/>
-    <mergeCell ref="BM4:BN8"/>
-    <mergeCell ref="BO4:BP8"/>
-    <mergeCell ref="AW2:BF3"/>
-    <mergeCell ref="AW4:AX8"/>
-    <mergeCell ref="AY4:AZ8"/>
-    <mergeCell ref="BA4:BB8"/>
-    <mergeCell ref="BC4:BD8"/>
-    <mergeCell ref="BE4:BF8"/>
-    <mergeCell ref="AM2:AV3"/>
-    <mergeCell ref="AM4:AN8"/>
-    <mergeCell ref="AO4:AP8"/>
-    <mergeCell ref="AQ4:AR8"/>
-    <mergeCell ref="AS4:AT8"/>
-    <mergeCell ref="AU4:AV8"/>
-    <mergeCell ref="U2:AB3"/>
-    <mergeCell ref="AC2:AL3"/>
-    <mergeCell ref="AK4:AL8"/>
-    <mergeCell ref="AI4:AJ8"/>
-    <mergeCell ref="W4:X8"/>
-    <mergeCell ref="Y4:Z8"/>
-    <mergeCell ref="AA4:AB8"/>
-    <mergeCell ref="AC4:AD8"/>
-    <mergeCell ref="AE4:AF8"/>
-    <mergeCell ref="AG4:AH8"/>
-    <mergeCell ref="U4:V8"/>
     <mergeCell ref="B2:T8"/>
     <mergeCell ref="B9:T10"/>
     <mergeCell ref="B25:T26"/>
@@ -3643,6 +3608,35 @@
     <mergeCell ref="N19:T20"/>
     <mergeCell ref="N21:T22"/>
     <mergeCell ref="B11:I22"/>
+    <mergeCell ref="U2:AB3"/>
+    <mergeCell ref="AC2:AL3"/>
+    <mergeCell ref="AK4:AL8"/>
+    <mergeCell ref="AI4:AJ8"/>
+    <mergeCell ref="W4:X8"/>
+    <mergeCell ref="Y4:Z8"/>
+    <mergeCell ref="AA4:AB8"/>
+    <mergeCell ref="AC4:AD8"/>
+    <mergeCell ref="AE4:AF8"/>
+    <mergeCell ref="AG4:AH8"/>
+    <mergeCell ref="U4:V8"/>
+    <mergeCell ref="AM2:AV3"/>
+    <mergeCell ref="AM4:AN8"/>
+    <mergeCell ref="AO4:AP8"/>
+    <mergeCell ref="AQ4:AR8"/>
+    <mergeCell ref="AS4:AT8"/>
+    <mergeCell ref="AU4:AV8"/>
+    <mergeCell ref="AW2:BF3"/>
+    <mergeCell ref="AW4:AX8"/>
+    <mergeCell ref="AY4:AZ8"/>
+    <mergeCell ref="BA4:BB8"/>
+    <mergeCell ref="BC4:BD8"/>
+    <mergeCell ref="BE4:BF8"/>
+    <mergeCell ref="BG2:BP3"/>
+    <mergeCell ref="BG4:BH8"/>
+    <mergeCell ref="BI4:BJ8"/>
+    <mergeCell ref="BK4:BL8"/>
+    <mergeCell ref="BM4:BN8"/>
+    <mergeCell ref="BO4:BP8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3658,21 +3652,21 @@
       <selection activeCell="E9" sqref="E9:E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.453125" customWidth="1"/>
-    <col min="3" max="3" width="34.453125" customWidth="1"/>
-    <col min="4" max="4" width="15.54296875" customWidth="1"/>
-    <col min="5" max="5" width="16.26953125" customWidth="1"/>
-    <col min="6" max="6" width="20.54296875" style="36" customWidth="1"/>
-    <col min="7" max="8" width="15.54296875" customWidth="1"/>
-    <col min="10" max="12" width="15.54296875" customWidth="1"/>
-    <col min="13" max="13" width="16.81640625" customWidth="1"/>
-    <col min="14" max="14" width="28.453125" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="34.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" style="36" customWidth="1"/>
+    <col min="7" max="8" width="15.5703125" customWidth="1"/>
+    <col min="10" max="12" width="15.5703125" customWidth="1"/>
+    <col min="13" max="13" width="16.85546875" customWidth="1"/>
+    <col min="14" max="14" width="28.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="134" t="s">
         <v>46</v>
       </c>
@@ -3694,7 +3688,7 @@
       <c r="Q1" s="26"/>
       <c r="R1" s="26"/>
     </row>
-    <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="134"/>
       <c r="B2" s="134"/>
       <c r="C2" s="134"/>
@@ -3714,7 +3708,7 @@
       <c r="Q2" s="26"/>
       <c r="R2" s="26"/>
     </row>
-    <row r="3" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="134"/>
       <c r="B3" s="134"/>
       <c r="C3" s="134"/>
@@ -3734,7 +3728,7 @@
       <c r="Q3" s="26"/>
       <c r="R3" s="26"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
         <v>28</v>
       </c>
@@ -3744,7 +3738,7 @@
       </c>
       <c r="D4" s="31"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
         <v>29</v>
       </c>
@@ -3754,7 +3748,7 @@
       </c>
       <c r="D5" s="27"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
         <v>30</v>
       </c>
@@ -3766,7 +3760,7 @@
       </c>
       <c r="D6" s="27"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C7" s="21"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -3780,7 +3774,7 @@
       <c r="M7" s="21"/>
       <c r="N7" s="21"/>
     </row>
-    <row r="8" spans="1:18" s="30" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" s="30" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
         <v>33</v>
       </c>
@@ -3824,7 +3818,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="25"/>
       <c r="B9" s="25" t="s">
         <v>49</v>
@@ -3852,7 +3846,7 @@
       </c>
       <c r="N9" s="25"/>
     </row>
-    <row r="10" spans="1:18" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
         <v>52</v>
       </c>
@@ -3878,7 +3872,7 @@
       <c r="M10" s="25"/>
       <c r="N10" s="25"/>
     </row>
-    <row r="11" spans="1:18" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
         <v>97</v>
       </c>
@@ -3904,7 +3898,7 @@
       <c r="M11" s="25"/>
       <c r="N11" s="25"/>
     </row>
-    <row r="12" spans="1:18" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
         <v>56</v>
       </c>
@@ -3930,7 +3924,7 @@
       <c r="M12" s="25"/>
       <c r="N12" s="25"/>
     </row>
-    <row r="13" spans="1:18" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
         <v>57</v>
       </c>
@@ -3956,7 +3950,7 @@
       <c r="M13" s="25"/>
       <c r="N13" s="25"/>
     </row>
-    <row r="14" spans="1:18" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
         <v>58</v>
       </c>
@@ -3982,7 +3976,7 @@
       <c r="M14" s="25"/>
       <c r="N14" s="25"/>
     </row>
-    <row r="15" spans="1:18" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
         <v>59</v>
       </c>
@@ -4008,7 +4002,7 @@
       <c r="M15" s="25"/>
       <c r="N15" s="25"/>
     </row>
-    <row r="16" spans="1:18" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
         <v>60</v>
       </c>
@@ -4034,7 +4028,7 @@
       <c r="M16" s="25"/>
       <c r="N16" s="25"/>
     </row>
-    <row r="17" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
         <v>64</v>
       </c>
@@ -4060,7 +4054,7 @@
       <c r="M17" s="25"/>
       <c r="N17" s="25"/>
     </row>
-    <row r="18" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
         <v>66</v>
       </c>
@@ -4086,7 +4080,7 @@
       <c r="M18" s="25"/>
       <c r="N18" s="25"/>
     </row>
-    <row r="19" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
         <v>68</v>
       </c>
@@ -4112,7 +4106,7 @@
       <c r="M19" s="25"/>
       <c r="N19" s="25"/>
     </row>
-    <row r="20" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
         <v>70</v>
       </c>
@@ -4138,7 +4132,7 @@
       <c r="M20" s="25"/>
       <c r="N20" s="25"/>
     </row>
-    <row r="21" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
         <v>72</v>
       </c>
@@ -4164,7 +4158,7 @@
       <c r="M21" s="25"/>
       <c r="N21" s="25"/>
     </row>
-    <row r="22" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="25" t="s">
         <v>74</v>
       </c>
@@ -4190,7 +4184,7 @@
       <c r="M22" s="25"/>
       <c r="N22" s="25"/>
     </row>
-    <row r="23" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="25" t="s">
         <v>76</v>
       </c>
@@ -4216,7 +4210,7 @@
       <c r="M23" s="25"/>
       <c r="N23" s="25"/>
     </row>
-    <row r="24" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="25" t="s">
         <v>78</v>
       </c>
@@ -4242,7 +4236,7 @@
       <c r="M24" s="25"/>
       <c r="N24" s="25"/>
     </row>
-    <row r="25" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="25" t="s">
         <v>79</v>
       </c>
@@ -4268,7 +4262,7 @@
       <c r="M25" s="25"/>
       <c r="N25" s="25"/>
     </row>
-    <row r="26" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="25" t="s">
         <v>84</v>
       </c>
@@ -4294,7 +4288,7 @@
       <c r="M26" s="25"/>
       <c r="N26" s="25"/>
     </row>
-    <row r="27" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="25" t="s">
         <v>82</v>
       </c>
@@ -4320,7 +4314,7 @@
       <c r="M27" s="25"/>
       <c r="N27" s="25"/>
     </row>
-    <row r="28" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="25" t="s">
         <v>87</v>
       </c>
@@ -4346,7 +4340,7 @@
       <c r="M28" s="25"/>
       <c r="N28" s="25"/>
     </row>
-    <row r="29" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="25" t="s">
         <v>89</v>
       </c>
@@ -4372,7 +4366,7 @@
       <c r="M29" s="25"/>
       <c r="N29" s="25"/>
     </row>
-    <row r="30" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="25" t="s">
         <v>91</v>
       </c>
@@ -4398,7 +4392,7 @@
       <c r="M30" s="25"/>
       <c r="N30" s="25"/>
     </row>
-    <row r="31" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="25" t="s">
         <v>93</v>
       </c>
@@ -4424,7 +4418,7 @@
       <c r="M31" s="25"/>
       <c r="N31" s="25"/>
     </row>
-    <row r="32" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="33" t="s">
         <v>95</v>
       </c>
@@ -4450,7 +4444,7 @@
       <c r="M32" s="25"/>
       <c r="N32" s="25"/>
     </row>
-    <row r="33" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="25" t="s">
         <v>98</v>
       </c>
@@ -4476,7 +4470,7 @@
       <c r="M33" s="25"/>
       <c r="N33" s="25"/>
     </row>
-    <row r="34" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>99</v>
       </c>
@@ -4494,63 +4488,63 @@
         <v>103</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E35">
         <f>SUM(E9:E34)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="37" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="38" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="39" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="40" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="41" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="42" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="43" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="44" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="45" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="46" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="47" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="48" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="50" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="51" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="52" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="53" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="54" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="55" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="56" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="57" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="58" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="59" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="60" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="61" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="62" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="63" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="64" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="65" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="66" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="67" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="68" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="69" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="70" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="71" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="72" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="73" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="74" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="75" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="76" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="77" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="78" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="79" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="80" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="81" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="82" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="83" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="84" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="85" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="86" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="36" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:N3"/>
@@ -4573,24 +4567,24 @@
   <dimension ref="A1:R86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.453125" customWidth="1"/>
-    <col min="3" max="3" width="34.453125" customWidth="1"/>
-    <col min="4" max="4" width="15.54296875" customWidth="1"/>
-    <col min="5" max="5" width="16.26953125" customWidth="1"/>
-    <col min="6" max="6" width="20.54296875" customWidth="1"/>
-    <col min="7" max="8" width="15.54296875" customWidth="1"/>
-    <col min="10" max="12" width="15.54296875" customWidth="1"/>
-    <col min="13" max="13" width="16.81640625" customWidth="1"/>
-    <col min="14" max="14" width="28.453125" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="34.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" customWidth="1"/>
+    <col min="7" max="8" width="15.5703125" customWidth="1"/>
+    <col min="10" max="12" width="15.5703125" customWidth="1"/>
+    <col min="13" max="13" width="16.85546875" customWidth="1"/>
+    <col min="14" max="14" width="28.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="134" t="s">
         <v>102</v>
       </c>
@@ -4612,7 +4606,7 @@
       <c r="Q1" s="26"/>
       <c r="R1" s="26"/>
     </row>
-    <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="134"/>
       <c r="B2" s="134"/>
       <c r="C2" s="134"/>
@@ -4632,7 +4626,7 @@
       <c r="Q2" s="26"/>
       <c r="R2" s="26"/>
     </row>
-    <row r="3" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="134"/>
       <c r="B3" s="134"/>
       <c r="C3" s="134"/>
@@ -4652,7 +4646,7 @@
       <c r="Q3" s="26"/>
       <c r="R3" s="26"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
         <v>28</v>
       </c>
@@ -4662,7 +4656,7 @@
       </c>
       <c r="D4" s="31"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
         <v>29</v>
       </c>
@@ -4672,7 +4666,7 @@
       </c>
       <c r="D5" s="27"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
         <v>30</v>
       </c>
@@ -4684,7 +4678,7 @@
       </c>
       <c r="D6" s="27"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C7" s="21"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -4698,7 +4692,7 @@
       <c r="M7" s="21"/>
       <c r="N7" s="21"/>
     </row>
-    <row r="8" spans="1:18" s="30" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" s="30" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
         <v>33</v>
       </c>
@@ -4742,7 +4736,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="25"/>
       <c r="B9" s="25" t="s">
         <v>105</v>
@@ -4764,11 +4758,17 @@
       <c r="M9" s="25"/>
       <c r="N9" s="25"/>
     </row>
-    <row r="10" spans="1:18" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="25"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
+      <c r="B10" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>107</v>
+      </c>
       <c r="E10" s="34"/>
       <c r="F10" s="25"/>
       <c r="G10" s="25"/>
@@ -4780,7 +4780,7 @@
       <c r="M10" s="25"/>
       <c r="N10" s="25"/>
     </row>
-    <row r="11" spans="1:18" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="25"/>
       <c r="B11" s="25"/>
       <c r="C11" s="25"/>
@@ -4796,7 +4796,7 @@
       <c r="M11" s="25"/>
       <c r="N11" s="25"/>
     </row>
-    <row r="12" spans="1:18" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="25"/>
       <c r="B12" s="25"/>
       <c r="C12" s="25"/>
@@ -4812,7 +4812,7 @@
       <c r="M12" s="25"/>
       <c r="N12" s="25"/>
     </row>
-    <row r="13" spans="1:18" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="25"/>
       <c r="B13" s="25"/>
       <c r="C13" s="25"/>
@@ -4828,7 +4828,7 @@
       <c r="M13" s="25"/>
       <c r="N13" s="25"/>
     </row>
-    <row r="14" spans="1:18" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="25"/>
       <c r="B14" s="25"/>
       <c r="C14" s="25"/>
@@ -4844,7 +4844,7 @@
       <c r="M14" s="25"/>
       <c r="N14" s="25"/>
     </row>
-    <row r="15" spans="1:18" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="25"/>
       <c r="B15" s="25"/>
       <c r="C15" s="25"/>
@@ -4860,7 +4860,7 @@
       <c r="M15" s="25"/>
       <c r="N15" s="25"/>
     </row>
-    <row r="16" spans="1:18" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="25"/>
       <c r="B16" s="25"/>
       <c r="C16" s="25"/>
@@ -4876,7 +4876,7 @@
       <c r="M16" s="25"/>
       <c r="N16" s="25"/>
     </row>
-    <row r="17" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="25"/>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
@@ -4892,7 +4892,7 @@
       <c r="M17" s="25"/>
       <c r="N17" s="25"/>
     </row>
-    <row r="18" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="25"/>
       <c r="B18" s="25"/>
       <c r="C18" s="25"/>
@@ -4908,7 +4908,7 @@
       <c r="M18" s="25"/>
       <c r="N18" s="25"/>
     </row>
-    <row r="19" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="25"/>
       <c r="B19" s="25"/>
       <c r="C19" s="25"/>
@@ -4924,7 +4924,7 @@
       <c r="M19" s="25"/>
       <c r="N19" s="25"/>
     </row>
-    <row r="20" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="25"/>
       <c r="B20" s="25"/>
       <c r="C20" s="25"/>
@@ -4940,7 +4940,7 @@
       <c r="M20" s="25"/>
       <c r="N20" s="25"/>
     </row>
-    <row r="21" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="25"/>
       <c r="B21" s="25"/>
       <c r="C21" s="25"/>
@@ -4956,7 +4956,7 @@
       <c r="M21" s="25"/>
       <c r="N21" s="25"/>
     </row>
-    <row r="22" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="25"/>
       <c r="B22" s="25"/>
       <c r="C22" s="25"/>
@@ -4972,7 +4972,7 @@
       <c r="M22" s="25"/>
       <c r="N22" s="25"/>
     </row>
-    <row r="23" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="25"/>
       <c r="B23" s="25"/>
       <c r="C23" s="25"/>
@@ -4988,7 +4988,7 @@
       <c r="M23" s="25"/>
       <c r="N23" s="25"/>
     </row>
-    <row r="24" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="25"/>
       <c r="B24" s="25"/>
       <c r="C24" s="25"/>
@@ -5004,7 +5004,7 @@
       <c r="M24" s="25"/>
       <c r="N24" s="25"/>
     </row>
-    <row r="25" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="25"/>
       <c r="B25" s="25"/>
       <c r="C25" s="25"/>
@@ -5020,7 +5020,7 @@
       <c r="M25" s="25"/>
       <c r="N25" s="25"/>
     </row>
-    <row r="26" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="25"/>
       <c r="B26" s="25"/>
       <c r="C26" s="25"/>
@@ -5036,7 +5036,7 @@
       <c r="M26" s="25"/>
       <c r="N26" s="25"/>
     </row>
-    <row r="27" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="25"/>
       <c r="B27" s="25"/>
       <c r="C27" s="25"/>
@@ -5052,7 +5052,7 @@
       <c r="M27" s="25"/>
       <c r="N27" s="25"/>
     </row>
-    <row r="28" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="25"/>
       <c r="B28" s="25"/>
       <c r="C28" s="25"/>
@@ -5068,7 +5068,7 @@
       <c r="M28" s="25"/>
       <c r="N28" s="25"/>
     </row>
-    <row r="29" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="25"/>
       <c r="B29" s="25"/>
       <c r="C29" s="25"/>
@@ -5084,7 +5084,7 @@
       <c r="M29" s="25"/>
       <c r="N29" s="25"/>
     </row>
-    <row r="30" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="25"/>
       <c r="B30" s="25"/>
       <c r="C30" s="25"/>
@@ -5100,7 +5100,7 @@
       <c r="M30" s="25"/>
       <c r="N30" s="25"/>
     </row>
-    <row r="31" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="25"/>
       <c r="B31" s="25"/>
       <c r="C31" s="25"/>
@@ -5116,7 +5116,7 @@
       <c r="M31" s="25"/>
       <c r="N31" s="25"/>
     </row>
-    <row r="32" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="33"/>
       <c r="B32" s="33"/>
       <c r="C32" s="33"/>
@@ -5132,7 +5132,7 @@
       <c r="M32" s="25"/>
       <c r="N32" s="25"/>
     </row>
-    <row r="33" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="25"/>
       <c r="B33" s="25"/>
       <c r="C33" s="25"/>
@@ -5148,67 +5148,67 @@
       <c r="M33" s="25"/>
       <c r="N33" s="25"/>
     </row>
-    <row r="34" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D34" s="25"/>
       <c r="E34" s="35"/>
     </row>
-    <row r="35" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E35">
         <f>SUM(E9:E34)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="37" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="38" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="39" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="40" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="41" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="42" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="43" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="44" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="45" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="46" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="47" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="48" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="50" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="51" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="52" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="53" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="54" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="55" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="56" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="57" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="58" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="59" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="60" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="61" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="62" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="63" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="64" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="65" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="66" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="67" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="68" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="69" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="70" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="71" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="72" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="73" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="74" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="75" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="76" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="77" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="78" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="79" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="80" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="81" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="82" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="83" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="84" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="85" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="86" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="36" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:N3"/>
@@ -5228,7 +5228,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5242,19 +5242,19 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.453125" customWidth="1"/>
-    <col min="2" max="2" width="16.453125" customWidth="1"/>
-    <col min="3" max="3" width="34.453125" customWidth="1"/>
-    <col min="4" max="4" width="16.26953125" customWidth="1"/>
-    <col min="6" max="7" width="15.54296875" customWidth="1"/>
-    <col min="10" max="11" width="15.54296875" customWidth="1"/>
-    <col min="12" max="12" width="16.81640625" customWidth="1"/>
-    <col min="13" max="13" width="28.453125" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="34.42578125" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="6" max="7" width="15.5703125" customWidth="1"/>
+    <col min="10" max="11" width="15.5703125" customWidth="1"/>
+    <col min="12" max="12" width="16.85546875" customWidth="1"/>
+    <col min="13" max="13" width="28.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="134" t="s">
         <v>32</v>
       </c>
@@ -5275,7 +5275,7 @@
       <c r="P1" s="26"/>
       <c r="Q1" s="26"/>
     </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="134"/>
       <c r="B2" s="134"/>
       <c r="C2" s="134"/>
@@ -5294,7 +5294,7 @@
       <c r="P2" s="26"/>
       <c r="Q2" s="26"/>
     </row>
-    <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="134"/>
       <c r="B3" s="134"/>
       <c r="C3" s="134"/>
@@ -5313,7 +5313,7 @@
       <c r="P3" s="26"/>
       <c r="Q3" s="26"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
         <v>28</v>
       </c>
@@ -5322,7 +5322,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
         <v>29</v>
       </c>
@@ -5331,7 +5331,7 @@
         <v>44087</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
         <v>30</v>
       </c>
@@ -5340,7 +5340,7 @@
         <v>44097</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C7" s="21"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -5353,7 +5353,7 @@
       <c r="L7" s="21"/>
       <c r="M7" s="21"/>
     </row>
-    <row r="8" spans="1:17" s="30" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" s="30" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
         <v>33</v>
       </c>
@@ -5394,7 +5394,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="25"/>
       <c r="B9" s="25"/>
       <c r="C9" s="25"/>
@@ -5409,7 +5409,7 @@
       <c r="L9" s="25"/>
       <c r="M9" s="25"/>
     </row>
-    <row r="10" spans="1:17" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="25"/>
       <c r="B10" s="25"/>
       <c r="C10" s="25"/>
@@ -5424,7 +5424,7 @@
       <c r="L10" s="25"/>
       <c r="M10" s="25"/>
     </row>
-    <row r="11" spans="1:17" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="25"/>
       <c r="B11" s="25"/>
       <c r="C11" s="25"/>
@@ -5439,7 +5439,7 @@
       <c r="L11" s="25"/>
       <c r="M11" s="25"/>
     </row>
-    <row r="12" spans="1:17" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="25"/>
       <c r="B12" s="25"/>
       <c r="C12" s="25"/>
@@ -5454,7 +5454,7 @@
       <c r="L12" s="25"/>
       <c r="M12" s="25"/>
     </row>
-    <row r="13" spans="1:17" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="25"/>
       <c r="B13" s="25"/>
       <c r="C13" s="25"/>
@@ -5469,7 +5469,7 @@
       <c r="L13" s="25"/>
       <c r="M13" s="25"/>
     </row>
-    <row r="14" spans="1:17" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="25"/>
       <c r="B14" s="25"/>
       <c r="C14" s="25"/>
@@ -5484,7 +5484,7 @@
       <c r="L14" s="25"/>
       <c r="M14" s="25"/>
     </row>
-    <row r="15" spans="1:17" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="25"/>
       <c r="B15" s="25"/>
       <c r="C15" s="25"/>
@@ -5499,7 +5499,7 @@
       <c r="L15" s="25"/>
       <c r="M15" s="25"/>
     </row>
-    <row r="16" spans="1:17" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="25"/>
       <c r="B16" s="25"/>
       <c r="C16" s="25"/>
@@ -5514,7 +5514,7 @@
       <c r="L16" s="25"/>
       <c r="M16" s="25"/>
     </row>
-    <row r="17" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="25"/>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
@@ -5529,7 +5529,7 @@
       <c r="L17" s="25"/>
       <c r="M17" s="25"/>
     </row>
-    <row r="18" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="25"/>
       <c r="B18" s="25"/>
       <c r="C18" s="25"/>
@@ -5544,7 +5544,7 @@
       <c r="L18" s="25"/>
       <c r="M18" s="25"/>
     </row>
-    <row r="19" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="25"/>
       <c r="B19" s="25"/>
       <c r="C19" s="25"/>
@@ -5559,7 +5559,7 @@
       <c r="L19" s="25"/>
       <c r="M19" s="25"/>
     </row>
-    <row r="20" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="25"/>
       <c r="B20" s="25"/>
       <c r="C20" s="25"/>
@@ -5574,7 +5574,7 @@
       <c r="L20" s="25"/>
       <c r="M20" s="25"/>
     </row>
-    <row r="21" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="25"/>
       <c r="B21" s="25"/>
       <c r="C21" s="25"/>
@@ -5589,7 +5589,7 @@
       <c r="L21" s="25"/>
       <c r="M21" s="25"/>
     </row>
-    <row r="22" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="25"/>
       <c r="B22" s="25"/>
       <c r="C22" s="25"/>
@@ -5604,7 +5604,7 @@
       <c r="L22" s="25"/>
       <c r="M22" s="25"/>
     </row>
-    <row r="23" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="25"/>
       <c r="B23" s="25"/>
       <c r="C23" s="25"/>
@@ -5619,7 +5619,7 @@
       <c r="L23" s="25"/>
       <c r="M23" s="25"/>
     </row>
-    <row r="24" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="25"/>
       <c r="B24" s="25"/>
       <c r="C24" s="25"/>
@@ -5634,7 +5634,7 @@
       <c r="L24" s="25"/>
       <c r="M24" s="25"/>
     </row>
-    <row r="25" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="25"/>
       <c r="B25" s="25"/>
       <c r="C25" s="25"/>
@@ -5649,7 +5649,7 @@
       <c r="L25" s="25"/>
       <c r="M25" s="25"/>
     </row>
-    <row r="26" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="25"/>
       <c r="B26" s="25"/>
       <c r="C26" s="25"/>
@@ -5664,7 +5664,7 @@
       <c r="L26" s="25"/>
       <c r="M26" s="25"/>
     </row>
-    <row r="27" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="25"/>
       <c r="B27" s="25"/>
       <c r="C27" s="25"/>
@@ -5679,7 +5679,7 @@
       <c r="L27" s="25"/>
       <c r="M27" s="25"/>
     </row>
-    <row r="28" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="25"/>
       <c r="B28" s="25"/>
       <c r="C28" s="25"/>
@@ -5694,7 +5694,7 @@
       <c r="L28" s="25"/>
       <c r="M28" s="25"/>
     </row>
-    <row r="29" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="25"/>
       <c r="B29" s="25"/>
       <c r="C29" s="25"/>
@@ -5709,7 +5709,7 @@
       <c r="L29" s="25"/>
       <c r="M29" s="25"/>
     </row>
-    <row r="30" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="25"/>
       <c r="B30" s="25"/>
       <c r="C30" s="25"/>
@@ -5724,7 +5724,7 @@
       <c r="L30" s="25"/>
       <c r="M30" s="25"/>
     </row>
-    <row r="31" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="25"/>
       <c r="B31" s="25"/>
       <c r="C31" s="25"/>
@@ -5739,7 +5739,7 @@
       <c r="L31" s="25"/>
       <c r="M31" s="25"/>
     </row>
-    <row r="32" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="25"/>
       <c r="B32" s="25"/>
       <c r="C32" s="25"/>
@@ -5754,7 +5754,7 @@
       <c r="L32" s="25"/>
       <c r="M32" s="25"/>
     </row>
-    <row r="33" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="25"/>
       <c r="B33" s="25"/>
       <c r="C33" s="25"/>
@@ -5769,7 +5769,7 @@
       <c r="L33" s="25"/>
       <c r="M33" s="25"/>
     </row>
-    <row r="34" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="25"/>
       <c r="B34" s="25"/>
       <c r="C34" s="25"/>
@@ -5784,7 +5784,7 @@
       <c r="L34" s="25"/>
       <c r="M34" s="25"/>
     </row>
-    <row r="35" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="25"/>
       <c r="B35" s="25"/>
       <c r="C35" s="25"/>
@@ -5799,7 +5799,7 @@
       <c r="L35" s="25"/>
       <c r="M35" s="25"/>
     </row>
-    <row r="36" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="25"/>
       <c r="B36" s="25"/>
       <c r="C36" s="25"/>
@@ -5814,7 +5814,7 @@
       <c r="L36" s="25"/>
       <c r="M36" s="25"/>
     </row>
-    <row r="37" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="25"/>
       <c r="B37" s="25"/>
       <c r="C37" s="25"/>
@@ -5829,7 +5829,7 @@
       <c r="L37" s="25"/>
       <c r="M37" s="25"/>
     </row>
-    <row r="38" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="25"/>
       <c r="B38" s="25"/>
       <c r="C38" s="25"/>
@@ -5844,7 +5844,7 @@
       <c r="L38" s="25"/>
       <c r="M38" s="25"/>
     </row>
-    <row r="39" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="25"/>
       <c r="B39" s="25"/>
       <c r="C39" s="25"/>
@@ -5859,59 +5859,59 @@
       <c r="L39" s="25"/>
       <c r="M39" s="25"/>
     </row>
-    <row r="40" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="41" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="42" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="43" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="44" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="45" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="46" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="47" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="48" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="50" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="51" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="52" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="53" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="54" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="55" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="56" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="57" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="58" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="59" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="60" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="61" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="62" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="63" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="64" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="65" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="66" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="67" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="68" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="69" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="70" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="71" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="72" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="73" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="74" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="75" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="76" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="77" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="78" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="79" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="80" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="81" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="82" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="83" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="84" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="85" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="86" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="87" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="88" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="89" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="90" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="91" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="92" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="40" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:M3"/>
